--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -602,8 +598,10 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" s="2" t="n">
-        <v>45474</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01/Jul/2024</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -628,8 +626,10 @@
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" s="2" t="n">
-        <v>45535</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31/Aug/2024</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -982,8 +982,10 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" s="2" t="n">
-        <v>45535</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31/Aug/2024</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1256,8 +1258,10 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" s="2" t="n">
-        <v>45621</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25/Nov/2024</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1330,8 +1334,10 @@
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" s="2" t="n">
-        <v>45658</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1405,8 +1411,10 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" s="2" t="n">
-        <v>45658</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1479,8 +1487,10 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" s="2" t="n">
-        <v>45658</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1562,8 +1572,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45658</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1648,8 +1660,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45658</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1786,8 +1800,10 @@
     <row r="62">
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" s="2" t="n">
-        <v>45658</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1860,8 +1876,10 @@
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" s="2" t="n">
-        <v>45658</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01/Jan/2025</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1942,8 +1960,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45659</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>02/Jan/2025</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2028,8 +2048,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45662</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>05/Jan/2025</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2106,8 +2128,10 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" s="2" t="n">
-        <v>45664</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>07/Jan/2025</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2180,8 +2204,10 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" s="2" t="n">
-        <v>45664</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>07/Jan/2025</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2254,8 +2280,10 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" s="2" t="n">
-        <v>45666</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>09/Jan/2025</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2328,8 +2356,10 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" s="2" t="n">
-        <v>45672</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2410,8 +2440,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45672</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2496,8 +2528,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45672</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15/Jan/2025</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2574,8 +2608,10 @@
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" s="2" t="n">
-        <v>45676</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>19/Jan/2025</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2648,8 +2684,10 @@
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" s="2" t="n">
-        <v>45677</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>20/Jan/2025</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2722,8 +2760,10 @@
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" s="2" t="n">
-        <v>45679</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>22/Jan/2025</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2796,8 +2836,10 @@
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" s="2" t="n">
-        <v>45684</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>27/Jan/2025</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2870,8 +2912,10 @@
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" s="2" t="n">
-        <v>45684</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>27/Jan/2025</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2952,8 +2996,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
         </is>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>45685</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>28/Jan/2025</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3030,8 +3076,10 @@
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" s="2" t="n">
-        <v>45686</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>29/Jan/2025</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3104,8 +3152,10 @@
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" s="2" t="n">
-        <v>45686</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>29/Jan/2025</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3178,8 +3228,10 @@
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" s="2" t="n">
-        <v>45687</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3252,8 +3304,10 @@
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" s="2" t="n">
-        <v>45687</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3326,8 +3380,10 @@
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" s="2" t="n">
-        <v>45687</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3400,8 +3456,10 @@
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" s="2" t="n">
-        <v>45687</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>30/Jan/2025</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3474,8 +3532,10 @@
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" s="2" t="n">
-        <v>45688</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>31/Jan/2025</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3828,8 +3888,10 @@
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" s="2" t="n">
-        <v>45688</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>31/Jan/2025</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4122,8 +4184,10 @@
     <row r="159">
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" s="2" t="n">
-        <v>45688</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>31/Jan/2025</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4196,8 +4260,10 @@
     <row r="162">
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" s="2" t="n">
-        <v>45689</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4270,8 +4336,10 @@
     <row r="165">
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" s="2" t="n">
-        <v>45689</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4344,8 +4412,10 @@
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr"/>
-      <c r="C168" s="2" t="n">
-        <v>45689</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4418,8 +4488,10 @@
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" s="2" t="n">
-        <v>45689</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4532,8 +4604,10 @@
     <row r="176">
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" s="2" t="n">
-        <v>45689</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>01/Feb/2025</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4606,8 +4680,10 @@
     <row r="179">
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" s="2" t="n">
-        <v>45690</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4680,8 +4756,10 @@
     <row r="182">
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" s="2" t="n">
-        <v>45690</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4754,8 +4832,10 @@
     <row r="185">
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" s="2" t="n">
-        <v>45690</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4828,8 +4908,10 @@
     <row r="188">
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr"/>
-      <c r="C188" s="2" t="n">
-        <v>45690</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4902,8 +4984,10 @@
     <row r="191">
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" s="2" t="n">
-        <v>45690</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4976,8 +5060,10 @@
     <row r="194">
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" s="2" t="n">
-        <v>45690</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>02/Feb/2025</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5050,8 +5136,10 @@
     <row r="197">
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" s="2" t="n">
-        <v>45691</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5124,8 +5212,10 @@
     <row r="200">
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" s="2" t="n">
-        <v>45691</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5198,8 +5288,10 @@
     <row r="203">
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" s="2" t="n">
-        <v>45691</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5272,8 +5364,10 @@
     <row r="206">
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr"/>
-      <c r="C206" s="2" t="n">
-        <v>45691</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5346,8 +5440,10 @@
     <row r="209">
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" s="2" t="n">
-        <v>45691</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5420,8 +5516,10 @@
     <row r="212">
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" s="2" t="n">
-        <v>45691</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5494,8 +5592,10 @@
     <row r="215">
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" s="2" t="n">
-        <v>45691</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5568,8 +5668,10 @@
     <row r="218">
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" s="2" t="n">
-        <v>45691</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5642,8 +5744,10 @@
     <row r="221">
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" s="2" t="n">
-        <v>45691</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5760,8 +5864,10 @@
     <row r="226">
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" s="2" t="n">
-        <v>45691</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>03/Feb/2025</t>
+        </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5842,8 +5948,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
-      <c r="C229" s="2" t="n">
-        <v>45692</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5920,8 +6028,10 @@
     <row r="232">
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
-      <c r="C232" s="2" t="n">
-        <v>45692</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -6002,8 +6112,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
         </is>
       </c>
-      <c r="C235" s="2" t="n">
-        <v>45692</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>04/Feb/2025</t>
+        </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -6080,8 +6192,10 @@
     <row r="238">
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr"/>
-      <c r="C238" s="2" t="n">
-        <v>45693</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -6194,8 +6308,10 @@
     <row r="243">
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr"/>
-      <c r="C243" s="2" t="n">
-        <v>45693</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6268,8 +6384,10 @@
     <row r="246">
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr"/>
-      <c r="C246" s="2" t="n">
-        <v>45693</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -6342,8 +6460,10 @@
     <row r="249">
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr"/>
-      <c r="C249" s="2" t="n">
-        <v>45693</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6416,8 +6536,10 @@
     <row r="252">
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr"/>
-      <c r="C252" s="2" t="n">
-        <v>45693</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>05/Feb/2025</t>
+        </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6498,8 +6620,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
         </is>
       </c>
-      <c r="C255" s="2" t="n">
-        <v>45697</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>09/Feb/2025</t>
+        </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6576,8 +6700,10 @@
     <row r="258">
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr"/>
-      <c r="C258" s="2" t="n">
-        <v>45698</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>10/Feb/2025</t>
+        </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6650,8 +6776,10 @@
     <row r="261">
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr"/>
-      <c r="C261" s="2" t="n">
-        <v>45699</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6728,8 +6856,10 @@
     <row r="264">
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr"/>
-      <c r="C264" s="2" t="n">
-        <v>45699</v>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6806,8 +6936,10 @@
     <row r="267">
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr"/>
-      <c r="C267" s="2" t="n">
-        <v>45699</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6940,8 +7072,10 @@
     <row r="273">
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr"/>
-      <c r="C273" s="2" t="n">
-        <v>45699</v>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -7022,8 +7156,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
         </is>
       </c>
-      <c r="C276" s="2" t="n">
-        <v>45699</v>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>11/Feb/2025</t>
+        </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -7100,8 +7236,10 @@
     <row r="279">
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr"/>
-      <c r="C279" s="2" t="n">
-        <v>45700</v>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>12/Feb/2025</t>
+        </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -7174,8 +7312,10 @@
     <row r="282">
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr"/>
-      <c r="C282" s="2" t="n">
-        <v>45700</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>12/Feb/2025</t>
+        </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -7248,8 +7388,10 @@
     <row r="285">
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr"/>
-      <c r="C285" s="2" t="n">
-        <v>45700</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>12/Feb/2025</t>
+        </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -7322,8 +7464,10 @@
     <row r="288">
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr"/>
-      <c r="C288" s="2" t="n">
-        <v>45701</v>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>13/Feb/2025</t>
+        </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -7396,8 +7540,10 @@
     <row r="291">
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr"/>
-      <c r="C291" s="2" t="n">
-        <v>45704</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7530,8 +7676,10 @@
     <row r="297">
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr"/>
-      <c r="C297" s="2" t="n">
-        <v>45704</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7604,8 +7752,10 @@
     <row r="300">
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr"/>
-      <c r="C300" s="2" t="n">
-        <v>45704</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -7678,8 +7828,10 @@
     <row r="303">
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr"/>
-      <c r="C303" s="2" t="n">
-        <v>45704</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7792,8 +7944,10 @@
     <row r="308">
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr"/>
-      <c r="C308" s="2" t="n">
-        <v>45704</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>16/Feb/2025</t>
+        </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -7866,8 +8020,10 @@
     <row r="311">
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr"/>
-      <c r="C311" s="2" t="n">
-        <v>45705</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -7980,8 +8136,10 @@
     <row r="316">
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr"/>
-      <c r="C316" s="2" t="n">
-        <v>45705</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -8054,8 +8212,10 @@
     <row r="319">
       <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr"/>
-      <c r="C319" s="2" t="n">
-        <v>45705</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>17/Feb/2025</t>
+        </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -8128,8 +8288,10 @@
     <row r="322">
       <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr"/>
-      <c r="C322" s="2" t="n">
-        <v>45706</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -8202,8 +8364,10 @@
     <row r="325">
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr"/>
-      <c r="C325" s="2" t="n">
-        <v>45706</v>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -8276,8 +8440,10 @@
     <row r="328">
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr"/>
-      <c r="C328" s="2" t="n">
-        <v>45706</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -8350,8 +8516,10 @@
     <row r="331">
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr"/>
-      <c r="C331" s="2" t="n">
-        <v>45706</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -8424,8 +8592,10 @@
     <row r="334">
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr"/>
-      <c r="C334" s="2" t="n">
-        <v>45706</v>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -8506,8 +8676,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
         </is>
       </c>
-      <c r="C337" s="2" t="n">
-        <v>45706</v>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>18/Feb/2025</t>
+        </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -8592,8 +8764,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
         </is>
       </c>
-      <c r="C340" s="2" t="n">
-        <v>45707</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>19/Feb/2025</t>
+        </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -8678,8 +8852,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
         </is>
       </c>
-      <c r="C343" s="2" t="n">
-        <v>45711</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>23/Feb/2025</t>
+        </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8764,8 +8940,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
         </is>
       </c>
-      <c r="C346" s="2" t="n">
-        <v>45711</v>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>23/Feb/2025</t>
+        </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -8842,8 +9020,10 @@
     <row r="349">
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr"/>
-      <c r="C349" s="2" t="n">
-        <v>45712</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8916,8 +9096,10 @@
     <row r="352">
       <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr"/>
-      <c r="C352" s="2" t="n">
-        <v>45712</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -8991,8 +9173,10 @@
     <row r="355">
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr"/>
-      <c r="C355" s="2" t="n">
-        <v>45712</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>24/Feb/2025</t>
+        </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -9065,8 +9249,10 @@
     <row r="358">
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr"/>
-      <c r="C358" s="2" t="n">
-        <v>45713</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>25/Feb/2025</t>
+        </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -9147,8 +9333,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
         </is>
       </c>
-      <c r="C361" s="2" t="n">
-        <v>45713</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>25/Feb/2025</t>
+        </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -9233,8 +9421,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
         </is>
       </c>
-      <c r="C364" s="2" t="n">
-        <v>45714</v>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -9319,8 +9509,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
         </is>
       </c>
-      <c r="C367" s="2" t="n">
-        <v>45714</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -9397,8 +9589,10 @@
     <row r="370">
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr"/>
-      <c r="C370" s="2" t="n">
-        <v>45714</v>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>26/Feb/2025</t>
+        </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -9471,8 +9665,10 @@
     <row r="373">
       <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr"/>
-      <c r="C373" s="2" t="n">
-        <v>45715</v>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -9546,8 +9742,10 @@
     <row r="376">
       <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr"/>
-      <c r="C376" s="2" t="n">
-        <v>45715</v>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9628,8 +9826,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
         </is>
       </c>
-      <c r="C379" s="2" t="n">
-        <v>45715</v>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -9746,8 +9946,10 @@
     <row r="384">
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr"/>
-      <c r="C384" s="2" t="n">
-        <v>45715</v>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -9820,8 +10022,10 @@
     <row r="387">
       <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr"/>
-      <c r="C387" s="2" t="n">
-        <v>45715</v>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -9894,8 +10098,10 @@
     <row r="390">
       <c r="A390" t="inlineStr"/>
       <c r="B390" t="inlineStr"/>
-      <c r="C390" s="2" t="n">
-        <v>45715</v>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>27/Feb/2025</t>
+        </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -9968,8 +10174,10 @@
     <row r="393">
       <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr"/>
-      <c r="C393" s="2" t="n">
-        <v>45716</v>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -10042,8 +10250,10 @@
     <row r="396">
       <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr"/>
-      <c r="C396" s="2" t="n">
-        <v>45716</v>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -10416,8 +10626,10 @@
     <row r="414">
       <c r="A414" t="inlineStr"/>
       <c r="B414" t="inlineStr"/>
-      <c r="C414" s="2" t="n">
-        <v>45716</v>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -10730,8 +10942,10 @@
     <row r="429">
       <c r="A429" t="inlineStr"/>
       <c r="B429" t="inlineStr"/>
-      <c r="C429" s="2" t="n">
-        <v>45716</v>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>28/Feb/2025</t>
+        </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -10812,8 +11026,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
         </is>
       </c>
-      <c r="C432" s="2" t="n">
-        <v>45717</v>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -10890,8 +11106,10 @@
     <row r="435">
       <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr"/>
-      <c r="C435" s="2" t="n">
-        <v>45717</v>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -10964,8 +11182,10 @@
     <row r="438">
       <c r="A438" t="inlineStr"/>
       <c r="B438" t="inlineStr"/>
-      <c r="C438" s="2" t="n">
-        <v>45717</v>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -11046,8 +11266,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
         </is>
       </c>
-      <c r="C441" s="2" t="n">
-        <v>45717</v>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>01/Mar/2025</t>
+        </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -11124,8 +11346,10 @@
     <row r="444">
       <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr"/>
-      <c r="C444" s="2" t="n">
-        <v>45718</v>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>02/Mar/2025</t>
+        </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -11238,8 +11462,10 @@
     <row r="449">
       <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr"/>
-      <c r="C449" s="2" t="n">
-        <v>45719</v>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>03/Mar/2025</t>
+        </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -11312,8 +11538,10 @@
     <row r="452">
       <c r="A452" t="inlineStr"/>
       <c r="B452" t="inlineStr"/>
-      <c r="C452" s="2" t="n">
-        <v>45719</v>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>03/Mar/2025</t>
+        </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -11386,8 +11614,10 @@
     <row r="455">
       <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr"/>
-      <c r="C455" s="2" t="n">
-        <v>45720</v>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>04/Mar/2025</t>
+        </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -11460,8 +11690,10 @@
     <row r="458">
       <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr"/>
-      <c r="C458" s="2" t="n">
-        <v>45721</v>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>05/Mar/2025</t>
+        </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -11542,8 +11774,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
         </is>
       </c>
-      <c r="C461" s="2" t="n">
-        <v>45722</v>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>06/Mar/2025</t>
+        </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -11620,8 +11854,10 @@
     <row r="464">
       <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr"/>
-      <c r="C464" s="2" t="n">
-        <v>45725</v>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -11702,8 +11938,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
         </is>
       </c>
-      <c r="C467" s="2" t="n">
-        <v>45725</v>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -11788,8 +12026,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C470" s="2" t="n">
-        <v>45725</v>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>09/Mar/2025</t>
+        </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -11874,8 +12114,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
         </is>
       </c>
-      <c r="C473" s="2" t="n">
-        <v>45726</v>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -11992,8 +12234,10 @@
     <row r="478">
       <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr"/>
-      <c r="C478" s="2" t="n">
-        <v>45726</v>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -12066,8 +12310,10 @@
     <row r="481">
       <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr"/>
-      <c r="C481" s="2" t="n">
-        <v>45726</v>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -12140,8 +12386,10 @@
     <row r="484">
       <c r="A484" t="inlineStr"/>
       <c r="B484" t="inlineStr"/>
-      <c r="C484" s="2" t="n">
-        <v>45726</v>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>10/Mar/2025</t>
+        </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -12214,8 +12462,10 @@
     <row r="487">
       <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr"/>
-      <c r="C487" s="2" t="n">
-        <v>45728</v>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -12288,8 +12538,10 @@
     <row r="490">
       <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr"/>
-      <c r="C490" s="2" t="n">
-        <v>45728</v>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -12362,8 +12614,10 @@
     <row r="493">
       <c r="A493" t="inlineStr"/>
       <c r="B493" t="inlineStr"/>
-      <c r="C493" s="2" t="n">
-        <v>45728</v>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -12436,8 +12690,10 @@
     <row r="496">
       <c r="A496" t="inlineStr"/>
       <c r="B496" t="inlineStr"/>
-      <c r="C496" s="2" t="n">
-        <v>45728</v>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>12/Mar/2025</t>
+        </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -12510,8 +12766,10 @@
     <row r="499">
       <c r="A499" t="inlineStr"/>
       <c r="B499" t="inlineStr"/>
-      <c r="C499" s="2" t="n">
-        <v>45733</v>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>17/Mar/2025</t>
+        </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -12584,8 +12842,10 @@
     <row r="502">
       <c r="A502" t="inlineStr"/>
       <c r="B502" t="inlineStr"/>
-      <c r="C502" s="2" t="n">
-        <v>45733</v>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>17/Mar/2025</t>
+        </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -12658,8 +12918,10 @@
     <row r="505">
       <c r="A505" t="inlineStr"/>
       <c r="B505" t="inlineStr"/>
-      <c r="C505" s="2" t="n">
-        <v>45734</v>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -12740,8 +13002,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
         </is>
       </c>
-      <c r="C508" s="2" t="n">
-        <v>45734</v>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -12818,8 +13082,10 @@
     <row r="511">
       <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr"/>
-      <c r="C511" s="2" t="n">
-        <v>45734</v>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -12892,8 +13158,10 @@
     <row r="514">
       <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr"/>
-      <c r="C514" s="2" t="n">
-        <v>45734</v>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -12966,8 +13234,10 @@
     <row r="517">
       <c r="A517" t="inlineStr"/>
       <c r="B517" t="inlineStr"/>
-      <c r="C517" s="2" t="n">
-        <v>45734</v>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>18/Mar/2025</t>
+        </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -13048,8 +13318,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
         </is>
       </c>
-      <c r="C520" s="2" t="n">
-        <v>45735</v>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>19/Mar/2025</t>
+        </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -13126,8 +13398,10 @@
     <row r="523">
       <c r="A523" t="inlineStr"/>
       <c r="B523" t="inlineStr"/>
-      <c r="C523" s="2" t="n">
-        <v>45736</v>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>20/Mar/2025</t>
+        </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -13200,8 +13474,10 @@
     <row r="526">
       <c r="A526" t="inlineStr"/>
       <c r="B526" t="inlineStr"/>
-      <c r="C526" s="2" t="n">
-        <v>45736</v>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>20/Mar/2025</t>
+        </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -13274,8 +13550,10 @@
     <row r="529">
       <c r="A529" t="inlineStr"/>
       <c r="B529" t="inlineStr"/>
-      <c r="C529" s="2" t="n">
-        <v>45740</v>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -13348,8 +13626,10 @@
     <row r="532">
       <c r="A532" t="inlineStr"/>
       <c r="B532" t="inlineStr"/>
-      <c r="C532" s="2" t="n">
-        <v>45740</v>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -13482,8 +13762,10 @@
     <row r="538">
       <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr"/>
-      <c r="C538" s="2" t="n">
-        <v>45740</v>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -13556,8 +13838,10 @@
     <row r="541">
       <c r="A541" t="inlineStr"/>
       <c r="B541" t="inlineStr"/>
-      <c r="C541" s="2" t="n">
-        <v>45740</v>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -13930,8 +14214,10 @@
     <row r="559">
       <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr"/>
-      <c r="C559" s="2" t="n">
-        <v>45740</v>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>24/Mar/2025</t>
+        </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -14044,8 +14330,10 @@
     <row r="564">
       <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr"/>
-      <c r="C564" s="2" t="n">
-        <v>45741</v>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -14118,8 +14406,10 @@
     <row r="567">
       <c r="A567" t="inlineStr"/>
       <c r="B567" t="inlineStr"/>
-      <c r="C567" s="2" t="n">
-        <v>45741</v>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -14200,8 +14490,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
         </is>
       </c>
-      <c r="C570" s="2" t="n">
-        <v>45741</v>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -14286,8 +14578,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
         </is>
       </c>
-      <c r="C573" s="2" t="n">
-        <v>45741</v>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>25/Mar/2025</t>
+        </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -14364,8 +14658,10 @@
     <row r="576">
       <c r="A576" t="inlineStr"/>
       <c r="B576" t="inlineStr"/>
-      <c r="C576" s="2" t="n">
-        <v>45743</v>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -14526,8 +14822,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
         </is>
       </c>
-      <c r="C583" s="2" t="n">
-        <v>45743</v>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -14652,8 +14950,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
         </is>
       </c>
-      <c r="C588" s="2" t="n">
-        <v>45743</v>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -14738,8 +15038,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
         </is>
       </c>
-      <c r="C591" s="2" t="n">
-        <v>45743</v>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>27/Mar/2025</t>
+        </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -14816,8 +15118,10 @@
     <row r="594">
       <c r="A594" t="inlineStr"/>
       <c r="B594" t="inlineStr"/>
-      <c r="C594" s="2" t="n">
-        <v>45747</v>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>31/Mar/2025</t>
+        </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -14890,8 +15194,10 @@
     <row r="597">
       <c r="A597" t="inlineStr"/>
       <c r="B597" t="inlineStr"/>
-      <c r="C597" s="2" t="n">
-        <v>45747</v>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>31/Mar/2025</t>
+        </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -14964,8 +15270,10 @@
     <row r="600">
       <c r="A600" t="inlineStr"/>
       <c r="B600" t="inlineStr"/>
-      <c r="C600" s="2" t="n">
-        <v>45747</v>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>31/Mar/2025</t>
+        </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -15338,8 +15646,10 @@
     <row r="618">
       <c r="A618" t="inlineStr"/>
       <c r="B618" t="inlineStr"/>
-      <c r="C618" s="2" t="n">
-        <v>45747</v>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>31/Mar/2025</t>
+        </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -15612,8 +15922,10 @@
     <row r="631">
       <c r="A631" t="inlineStr"/>
       <c r="B631" t="inlineStr"/>
-      <c r="C631" s="2" t="n">
-        <v>45748</v>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -15686,8 +15998,10 @@
     <row r="634">
       <c r="A634" t="inlineStr"/>
       <c r="B634" t="inlineStr"/>
-      <c r="C634" s="2" t="n">
-        <v>45748</v>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -15760,8 +16074,10 @@
     <row r="637">
       <c r="A637" t="inlineStr"/>
       <c r="B637" t="inlineStr"/>
-      <c r="C637" s="2" t="n">
-        <v>45748</v>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>01/Apr/2025</t>
+        </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -15842,8 +16158,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
         </is>
       </c>
-      <c r="C640" s="2" t="n">
-        <v>45754</v>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -15928,8 +16246,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
         </is>
       </c>
-      <c r="C643" s="2" t="n">
-        <v>45754</v>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -16014,8 +16334,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C646" s="2" t="n">
-        <v>45754</v>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -16092,8 +16414,10 @@
     <row r="649">
       <c r="A649" t="inlineStr"/>
       <c r="B649" t="inlineStr"/>
-      <c r="C649" s="2" t="n">
-        <v>45754</v>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>07/Apr/2025</t>
+        </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -16170,8 +16494,10 @@
     <row r="652">
       <c r="A652" t="inlineStr"/>
       <c r="B652" t="inlineStr"/>
-      <c r="C652" s="2" t="n">
-        <v>45755</v>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>08/Apr/2025</t>
+        </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -16244,8 +16570,10 @@
     <row r="655">
       <c r="A655" t="inlineStr"/>
       <c r="B655" t="inlineStr"/>
-      <c r="C655" s="2" t="n">
-        <v>45755</v>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>08/Apr/2025</t>
+        </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -16318,8 +16646,10 @@
     <row r="658">
       <c r="A658" t="inlineStr"/>
       <c r="B658" t="inlineStr"/>
-      <c r="C658" s="2" t="n">
-        <v>45756</v>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>09/Apr/2025</t>
+        </is>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -16392,8 +16722,10 @@
     <row r="661">
       <c r="A661" t="inlineStr"/>
       <c r="B661" t="inlineStr"/>
-      <c r="C661" s="2" t="n">
-        <v>45757</v>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -16466,8 +16798,10 @@
     <row r="664">
       <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr"/>
-      <c r="C664" s="2" t="n">
-        <v>45757</v>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -16544,8 +16878,10 @@
     <row r="667">
       <c r="A667" t="inlineStr"/>
       <c r="B667" t="inlineStr"/>
-      <c r="C667" s="2" t="n">
-        <v>45757</v>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>10/Apr/2025</t>
+        </is>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -16630,8 +16966,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
         </is>
       </c>
-      <c r="C670" s="2" t="n">
-        <v>45762</v>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>15/Apr/2025</t>
+        </is>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -16716,8 +17054,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
         </is>
       </c>
-      <c r="C673" s="2" t="n">
-        <v>45763</v>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>16/Apr/2025</t>
+        </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -16834,8 +17174,10 @@
     <row r="678">
       <c r="A678" t="inlineStr"/>
       <c r="B678" t="inlineStr"/>
-      <c r="C678" s="2" t="n">
-        <v>45763</v>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>16/Apr/2025</t>
+        </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -16916,8 +17258,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
         </is>
       </c>
-      <c r="C681" s="2" t="n">
-        <v>45764</v>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>17/Apr/2025</t>
+        </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -17034,8 +17378,10 @@
     <row r="686">
       <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr"/>
-      <c r="C686" s="2" t="n">
-        <v>45764</v>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>17/Apr/2025</t>
+        </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -17108,8 +17454,10 @@
     <row r="689">
       <c r="A689" t="inlineStr"/>
       <c r="B689" t="inlineStr"/>
-      <c r="C689" s="2" t="n">
-        <v>45767</v>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>20/Apr/2025</t>
+        </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -17182,8 +17530,10 @@
     <row r="692">
       <c r="A692" t="inlineStr"/>
       <c r="B692" t="inlineStr"/>
-      <c r="C692" s="2" t="n">
-        <v>45767</v>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>20/Apr/2025</t>
+        </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -17264,8 +17614,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
         </is>
       </c>
-      <c r="C695" s="2" t="n">
-        <v>45768</v>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -17342,8 +17694,10 @@
     <row r="698">
       <c r="A698" t="inlineStr"/>
       <c r="B698" t="inlineStr"/>
-      <c r="C698" s="2" t="n">
-        <v>45768</v>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -17424,8 +17778,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
         </is>
       </c>
-      <c r="C701" s="2" t="n">
-        <v>45768</v>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -17502,8 +17858,10 @@
     <row r="704">
       <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr"/>
-      <c r="C704" s="2" t="n">
-        <v>45768</v>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -17576,8 +17934,10 @@
     <row r="707">
       <c r="A707" t="inlineStr"/>
       <c r="B707" t="inlineStr"/>
-      <c r="C707" s="2" t="n">
-        <v>45768</v>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>21/Apr/2025</t>
+        </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -17658,8 +18018,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
         </is>
       </c>
-      <c r="C710" s="2" t="n">
-        <v>45769</v>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>22/Apr/2025</t>
+        </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -17744,8 +18106,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
         </is>
       </c>
-      <c r="C713" s="2" t="n">
-        <v>45769</v>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>22/Apr/2025</t>
+        </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -17830,8 +18194,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
         </is>
       </c>
-      <c r="C716" s="2" t="n">
-        <v>45770</v>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -17908,8 +18274,10 @@
     <row r="719">
       <c r="A719" t="inlineStr"/>
       <c r="B719" t="inlineStr"/>
-      <c r="C719" s="2" t="n">
-        <v>45770</v>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -17990,8 +18358,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
         </is>
       </c>
-      <c r="C722" s="2" t="n">
-        <v>45770</v>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>23/Apr/2025</t>
+        </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -18068,8 +18438,10 @@
     <row r="725">
       <c r="A725" t="inlineStr"/>
       <c r="B725" t="inlineStr"/>
-      <c r="C725" s="2" t="n">
-        <v>45771</v>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -18242,8 +18614,10 @@
     <row r="733">
       <c r="A733" t="inlineStr"/>
       <c r="B733" t="inlineStr"/>
-      <c r="C733" s="2" t="n">
-        <v>45771</v>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>24/Apr/2025</t>
+        </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -18328,8 +18702,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
         </is>
       </c>
-      <c r="C736" s="2" t="n">
-        <v>45774</v>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>27/Apr/2025</t>
+        </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -18414,8 +18790,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
         </is>
       </c>
-      <c r="C739" s="2" t="n">
-        <v>45774</v>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>27/Apr/2025</t>
+        </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -18500,8 +18878,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
         </is>
       </c>
-      <c r="C742" s="2" t="n">
-        <v>45775</v>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>28/Apr/2025</t>
+        </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -18578,8 +18958,10 @@
     <row r="745">
       <c r="A745" t="inlineStr"/>
       <c r="B745" t="inlineStr"/>
-      <c r="C745" s="2" t="n">
-        <v>45775</v>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>28/Apr/2025</t>
+        </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -18652,8 +19034,10 @@
     <row r="748">
       <c r="A748" t="inlineStr"/>
       <c r="B748" t="inlineStr"/>
-      <c r="C748" s="2" t="n">
-        <v>45776</v>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>29/Apr/2025</t>
+        </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -18726,8 +19110,10 @@
     <row r="751">
       <c r="A751" t="inlineStr"/>
       <c r="B751" t="inlineStr"/>
-      <c r="C751" s="2" t="n">
-        <v>45777</v>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -18800,8 +19186,10 @@
     <row r="754">
       <c r="A754" t="inlineStr"/>
       <c r="B754" t="inlineStr"/>
-      <c r="C754" s="2" t="n">
-        <v>45777</v>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -18874,8 +19262,10 @@
     <row r="757">
       <c r="A757" t="inlineStr"/>
       <c r="B757" t="inlineStr"/>
-      <c r="C757" s="2" t="n">
-        <v>45777</v>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -18996,8 +19386,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
         </is>
       </c>
-      <c r="C762" s="2" t="n">
-        <v>45777</v>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -19082,8 +19474,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
         </is>
       </c>
-      <c r="C765" s="2" t="n">
-        <v>45777</v>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -19160,8 +19554,10 @@
     <row r="768">
       <c r="A768" t="inlineStr"/>
       <c r="B768" t="inlineStr"/>
-      <c r="C768" s="2" t="n">
-        <v>45777</v>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -19242,8 +19638,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
         </is>
       </c>
-      <c r="C771" s="2" t="n">
-        <v>45777</v>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -19320,8 +19718,10 @@
     <row r="774">
       <c r="A774" t="inlineStr"/>
       <c r="B774" t="inlineStr"/>
-      <c r="C774" s="2" t="n">
-        <v>45777</v>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -19395,8 +19795,10 @@
     <row r="777">
       <c r="A777" t="inlineStr"/>
       <c r="B777" t="inlineStr"/>
-      <c r="C777" s="2" t="n">
-        <v>45777</v>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -19469,8 +19871,10 @@
     <row r="780">
       <c r="A780" t="inlineStr"/>
       <c r="B780" t="inlineStr"/>
-      <c r="C780" s="2" t="n">
-        <v>45777</v>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -19843,8 +20247,10 @@
     <row r="798">
       <c r="A798" t="inlineStr"/>
       <c r="B798" t="inlineStr"/>
-      <c r="C798" s="2" t="n">
-        <v>45777</v>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>30/Apr/2025</t>
+        </is>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -20117,8 +20523,10 @@
     <row r="811">
       <c r="A811" t="inlineStr"/>
       <c r="B811" t="inlineStr"/>
-      <c r="C811" s="2" t="n">
-        <v>45778</v>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -20191,8 +20599,10 @@
     <row r="814">
       <c r="A814" t="inlineStr"/>
       <c r="B814" t="inlineStr"/>
-      <c r="C814" s="2" t="n">
-        <v>45778</v>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -20265,8 +20675,10 @@
     <row r="817">
       <c r="A817" t="inlineStr"/>
       <c r="B817" t="inlineStr"/>
-      <c r="C817" s="2" t="n">
-        <v>45778</v>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -20339,8 +20751,10 @@
     <row r="820">
       <c r="A820" t="inlineStr"/>
       <c r="B820" t="inlineStr"/>
-      <c r="C820" s="2" t="n">
-        <v>45778</v>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -20413,8 +20827,10 @@
     <row r="823">
       <c r="A823" t="inlineStr"/>
       <c r="B823" t="inlineStr"/>
-      <c r="C823" s="2" t="n">
-        <v>45778</v>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -20487,8 +20903,10 @@
     <row r="826">
       <c r="A826" t="inlineStr"/>
       <c r="B826" t="inlineStr"/>
-      <c r="C826" s="2" t="n">
-        <v>45778</v>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -20601,8 +21019,10 @@
     <row r="831">
       <c r="A831" t="inlineStr"/>
       <c r="B831" t="inlineStr"/>
-      <c r="C831" s="2" t="n">
-        <v>45778</v>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -20775,8 +21195,10 @@
     <row r="839">
       <c r="A839" t="inlineStr"/>
       <c r="B839" t="inlineStr"/>
-      <c r="C839" s="2" t="n">
-        <v>45778</v>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -20849,8 +21271,10 @@
     <row r="842">
       <c r="A842" t="inlineStr"/>
       <c r="B842" t="inlineStr"/>
-      <c r="C842" s="2" t="n">
-        <v>45778</v>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -20923,8 +21347,10 @@
     <row r="845">
       <c r="A845" t="inlineStr"/>
       <c r="B845" t="inlineStr"/>
-      <c r="C845" s="2" t="n">
-        <v>45778</v>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -20997,8 +21423,10 @@
     <row r="848">
       <c r="A848" t="inlineStr"/>
       <c r="B848" t="inlineStr"/>
-      <c r="C848" s="2" t="n">
-        <v>45778</v>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -21071,8 +21499,10 @@
     <row r="851">
       <c r="A851" t="inlineStr"/>
       <c r="B851" t="inlineStr"/>
-      <c r="C851" s="2" t="n">
-        <v>45778</v>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -21145,8 +21575,10 @@
     <row r="854">
       <c r="A854" t="inlineStr"/>
       <c r="B854" t="inlineStr"/>
-      <c r="C854" s="2" t="n">
-        <v>45778</v>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -21219,8 +21651,10 @@
     <row r="857">
       <c r="A857" t="inlineStr"/>
       <c r="B857" t="inlineStr"/>
-      <c r="C857" s="2" t="n">
-        <v>45778</v>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -21293,8 +21727,10 @@
     <row r="860">
       <c r="A860" t="inlineStr"/>
       <c r="B860" t="inlineStr"/>
-      <c r="C860" s="2" t="n">
-        <v>45778</v>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>01/May/2025</t>
+        </is>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -21367,8 +21803,10 @@
     <row r="863">
       <c r="A863" t="inlineStr"/>
       <c r="B863" t="inlineStr"/>
-      <c r="C863" s="2" t="n">
-        <v>45782</v>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>05/May/2025</t>
+        </is>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -21441,8 +21879,10 @@
     <row r="866">
       <c r="A866" t="inlineStr"/>
       <c r="B866" t="inlineStr"/>
-      <c r="C866" s="2" t="n">
-        <v>45784</v>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -21515,8 +21955,10 @@
     <row r="869">
       <c r="A869" t="inlineStr"/>
       <c r="B869" t="inlineStr"/>
-      <c r="C869" s="2" t="n">
-        <v>45784</v>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -21589,8 +22031,10 @@
     <row r="872">
       <c r="A872" t="inlineStr"/>
       <c r="B872" t="inlineStr"/>
-      <c r="C872" s="2" t="n">
-        <v>45784</v>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -21663,8 +22107,10 @@
     <row r="875">
       <c r="A875" t="inlineStr"/>
       <c r="B875" t="inlineStr"/>
-      <c r="C875" s="2" t="n">
-        <v>45784</v>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>07/May/2025</t>
+        </is>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -21737,8 +22183,10 @@
     <row r="878">
       <c r="A878" t="inlineStr"/>
       <c r="B878" t="inlineStr"/>
-      <c r="C878" s="2" t="n">
-        <v>45785</v>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -21811,8 +22259,10 @@
     <row r="881">
       <c r="A881" t="inlineStr"/>
       <c r="B881" t="inlineStr"/>
-      <c r="C881" s="2" t="n">
-        <v>45785</v>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -21885,8 +22335,10 @@
     <row r="884">
       <c r="A884" t="inlineStr"/>
       <c r="B884" t="inlineStr"/>
-      <c r="C884" s="2" t="n">
-        <v>45785</v>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>08/May/2025</t>
+        </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -21959,8 +22411,10 @@
     <row r="887">
       <c r="A887" t="inlineStr"/>
       <c r="B887" t="inlineStr"/>
-      <c r="C887" s="2" t="n">
-        <v>45789</v>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -22033,8 +22487,10 @@
     <row r="890">
       <c r="A890" t="inlineStr"/>
       <c r="B890" t="inlineStr"/>
-      <c r="C890" s="2" t="n">
-        <v>45789</v>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -22107,8 +22563,10 @@
     <row r="893">
       <c r="A893" t="inlineStr"/>
       <c r="B893" t="inlineStr"/>
-      <c r="C893" s="2" t="n">
-        <v>45789</v>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>12/May/2025</t>
+        </is>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -22181,8 +22639,10 @@
     <row r="896">
       <c r="A896" t="inlineStr"/>
       <c r="B896" t="inlineStr"/>
-      <c r="C896" s="2" t="n">
-        <v>45790</v>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>13/May/2025</t>
+        </is>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -22255,8 +22715,10 @@
     <row r="899">
       <c r="A899" t="inlineStr"/>
       <c r="B899" t="inlineStr"/>
-      <c r="C899" s="2" t="n">
-        <v>45790</v>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>13/May/2025</t>
+        </is>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -22329,8 +22791,10 @@
     <row r="902">
       <c r="A902" t="inlineStr"/>
       <c r="B902" t="inlineStr"/>
-      <c r="C902" s="2" t="n">
-        <v>45791</v>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>14/May/2025</t>
+        </is>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -22403,8 +22867,10 @@
     <row r="905">
       <c r="A905" t="inlineStr"/>
       <c r="B905" t="inlineStr"/>
-      <c r="C905" s="2" t="n">
-        <v>45791</v>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>14/May/2025</t>
+        </is>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -22477,8 +22943,10 @@
     <row r="908">
       <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr"/>
-      <c r="C908" s="2" t="n">
-        <v>45792</v>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -22551,8 +23019,10 @@
     <row r="911">
       <c r="A911" t="inlineStr"/>
       <c r="B911" t="inlineStr"/>
-      <c r="C911" s="2" t="n">
-        <v>45792</v>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -22625,8 +23095,10 @@
     <row r="914">
       <c r="A914" t="inlineStr"/>
       <c r="B914" t="inlineStr"/>
-      <c r="C914" s="2" t="n">
-        <v>45792</v>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -22699,8 +23171,10 @@
     <row r="917">
       <c r="A917" t="inlineStr"/>
       <c r="B917" t="inlineStr"/>
-      <c r="C917" s="2" t="n">
-        <v>45792</v>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>15/May/2025</t>
+        </is>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -22781,8 +23255,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
         </is>
       </c>
-      <c r="C920" s="2" t="n">
-        <v>45794</v>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -22867,8 +23343,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
         </is>
       </c>
-      <c r="C923" s="2" t="n">
-        <v>45794</v>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -22953,8 +23431,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
         </is>
       </c>
-      <c r="C926" s="2" t="n">
-        <v>45794</v>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -23031,8 +23511,10 @@
     <row r="929">
       <c r="A929" t="inlineStr"/>
       <c r="B929" t="inlineStr"/>
-      <c r="C929" s="2" t="n">
-        <v>45794</v>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>17/May/2025</t>
+        </is>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -23105,8 +23587,10 @@
     <row r="932">
       <c r="A932" t="inlineStr"/>
       <c r="B932" t="inlineStr"/>
-      <c r="C932" s="2" t="n">
-        <v>45795</v>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -23179,8 +23663,10 @@
     <row r="935">
       <c r="A935" t="inlineStr"/>
       <c r="B935" t="inlineStr"/>
-      <c r="C935" s="2" t="n">
-        <v>45795</v>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -23253,8 +23739,10 @@
     <row r="938">
       <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr"/>
-      <c r="C938" s="2" t="n">
-        <v>45795</v>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -23339,8 +23827,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
         </is>
       </c>
-      <c r="C941" s="2" t="n">
-        <v>45795</v>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -23417,8 +23907,10 @@
     <row r="944">
       <c r="A944" t="inlineStr"/>
       <c r="B944" t="inlineStr"/>
-      <c r="C944" s="2" t="n">
-        <v>45795</v>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -23491,8 +23983,10 @@
     <row r="947">
       <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr"/>
-      <c r="C947" s="2" t="n">
-        <v>45795</v>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>18/May/2025</t>
+        </is>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -23565,8 +24059,10 @@
     <row r="950">
       <c r="A950" t="inlineStr"/>
       <c r="B950" t="inlineStr"/>
-      <c r="C950" s="2" t="n">
-        <v>45796</v>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>19/May/2025</t>
+        </is>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -23639,8 +24135,10 @@
     <row r="953">
       <c r="A953" t="inlineStr"/>
       <c r="B953" t="inlineStr"/>
-      <c r="C953" s="2" t="n">
-        <v>45797</v>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>20/May/2025</t>
+        </is>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -23713,8 +24211,10 @@
     <row r="956">
       <c r="A956" t="inlineStr"/>
       <c r="B956" t="inlineStr"/>
-      <c r="C956" s="2" t="n">
-        <v>45799</v>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>22/May/2025</t>
+        </is>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -23795,8 +24295,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
         </is>
       </c>
-      <c r="C959" s="2" t="n">
-        <v>45802</v>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>25/May/2025</t>
+        </is>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -23913,8 +24415,10 @@
     <row r="964">
       <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr"/>
-      <c r="C964" s="2" t="n">
-        <v>45805</v>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>28/May/2025</t>
+        </is>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -24031,8 +24535,10 @@
     <row r="969">
       <c r="A969" t="inlineStr"/>
       <c r="B969" t="inlineStr"/>
-      <c r="C969" s="2" t="n">
-        <v>45805</v>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>28/May/2025</t>
+        </is>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -24113,8 +24619,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
         </is>
       </c>
-      <c r="C972" s="2" t="n">
-        <v>45806</v>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -24191,8 +24699,10 @@
     <row r="975">
       <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr"/>
-      <c r="C975" s="2" t="n">
-        <v>45806</v>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -24273,8 +24783,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
         </is>
       </c>
-      <c r="C978" s="2" t="n">
-        <v>45806</v>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -24419,8 +24931,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
         </is>
       </c>
-      <c r="C984" s="2" t="n">
-        <v>45806</v>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -24497,8 +25011,10 @@
     <row r="987">
       <c r="A987" t="inlineStr"/>
       <c r="B987" t="inlineStr"/>
-      <c r="C987" s="2" t="n">
-        <v>45806</v>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -24571,8 +25087,10 @@
     <row r="990">
       <c r="A990" t="inlineStr"/>
       <c r="B990" t="inlineStr"/>
-      <c r="C990" s="2" t="n">
-        <v>45806</v>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -24645,8 +25163,10 @@
     <row r="993">
       <c r="A993" t="inlineStr"/>
       <c r="B993" t="inlineStr"/>
-      <c r="C993" s="2" t="n">
-        <v>45806</v>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -24719,8 +25239,10 @@
     <row r="996">
       <c r="A996" t="inlineStr"/>
       <c r="B996" t="inlineStr"/>
-      <c r="C996" s="2" t="n">
-        <v>45806</v>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>29/May/2025</t>
+        </is>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -24893,8 +25415,10 @@
     <row r="1004">
       <c r="A1004" t="inlineStr"/>
       <c r="B1004" t="inlineStr"/>
-      <c r="C1004" s="2" t="n">
-        <v>45809</v>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -24968,8 +25492,10 @@
     <row r="1007">
       <c r="A1007" t="inlineStr"/>
       <c r="B1007" t="inlineStr"/>
-      <c r="C1007" s="2" t="n">
-        <v>45809</v>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -25050,8 +25576,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
         </is>
       </c>
-      <c r="C1010" s="2" t="n">
-        <v>45809</v>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -25128,8 +25656,10 @@
     <row r="1013">
       <c r="A1013" t="inlineStr"/>
       <c r="B1013" t="inlineStr"/>
-      <c r="C1013" s="2" t="n">
-        <v>45809</v>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -25202,8 +25732,10 @@
     <row r="1016">
       <c r="A1016" t="inlineStr"/>
       <c r="B1016" t="inlineStr"/>
-      <c r="C1016" s="2" t="n">
-        <v>45809</v>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>01/Jun/2025</t>
+        </is>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -25276,8 +25808,10 @@
     <row r="1019">
       <c r="A1019" t="inlineStr"/>
       <c r="B1019" t="inlineStr"/>
-      <c r="C1019" s="2" t="n">
-        <v>45810</v>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>02/Jun/2025</t>
+        </is>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -25351,8 +25885,10 @@
     <row r="1022">
       <c r="A1022" t="inlineStr"/>
       <c r="B1022" t="inlineStr"/>
-      <c r="C1022" s="2" t="n">
-        <v>45810</v>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>02/Jun/2025</t>
+        </is>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -25425,8 +25961,10 @@
     <row r="1025">
       <c r="A1025" t="inlineStr"/>
       <c r="B1025" t="inlineStr"/>
-      <c r="C1025" s="2" t="n">
-        <v>45811</v>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -25499,8 +26037,10 @@
     <row r="1028">
       <c r="A1028" t="inlineStr"/>
       <c r="B1028" t="inlineStr"/>
-      <c r="C1028" s="2" t="n">
-        <v>45811</v>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -25581,8 +26121,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
         </is>
       </c>
-      <c r="C1031" s="2" t="n">
-        <v>45811</v>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -25659,8 +26201,10 @@
     <row r="1034">
       <c r="A1034" t="inlineStr"/>
       <c r="B1034" t="inlineStr"/>
-      <c r="C1034" s="2" t="n">
-        <v>45811</v>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -25733,8 +26277,10 @@
     <row r="1037">
       <c r="A1037" t="inlineStr"/>
       <c r="B1037" t="inlineStr"/>
-      <c r="C1037" s="2" t="n">
-        <v>45811</v>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -25807,8 +26353,10 @@
     <row r="1040">
       <c r="A1040" t="inlineStr"/>
       <c r="B1040" t="inlineStr"/>
-      <c r="C1040" s="2" t="n">
-        <v>45811</v>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -25881,8 +26429,10 @@
     <row r="1043">
       <c r="A1043" t="inlineStr"/>
       <c r="B1043" t="inlineStr"/>
-      <c r="C1043" s="2" t="n">
-        <v>45811</v>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -25955,8 +26505,10 @@
     <row r="1046">
       <c r="A1046" t="inlineStr"/>
       <c r="B1046" t="inlineStr"/>
-      <c r="C1046" s="2" t="n">
-        <v>45811</v>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -26029,8 +26581,10 @@
     <row r="1049">
       <c r="A1049" t="inlineStr"/>
       <c r="B1049" t="inlineStr"/>
-      <c r="C1049" s="2" t="n">
-        <v>45811</v>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -26103,8 +26657,10 @@
     <row r="1052">
       <c r="A1052" t="inlineStr"/>
       <c r="B1052" t="inlineStr"/>
-      <c r="C1052" s="2" t="n">
-        <v>45811</v>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -26177,8 +26733,10 @@
     <row r="1055">
       <c r="A1055" t="inlineStr"/>
       <c r="B1055" t="inlineStr"/>
-      <c r="C1055" s="2" t="n">
-        <v>45811</v>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -26251,8 +26809,10 @@
     <row r="1058">
       <c r="A1058" t="inlineStr"/>
       <c r="B1058" t="inlineStr"/>
-      <c r="C1058" s="2" t="n">
-        <v>45811</v>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -26325,8 +26885,10 @@
     <row r="1061">
       <c r="A1061" t="inlineStr"/>
       <c r="B1061" t="inlineStr"/>
-      <c r="C1061" s="2" t="n">
-        <v>45811</v>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>03/Jun/2025</t>
+        </is>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -26399,8 +26961,10 @@
     <row r="1064">
       <c r="A1064" t="inlineStr"/>
       <c r="B1064" t="inlineStr"/>
-      <c r="C1064" s="2" t="n">
-        <v>45812</v>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -26473,8 +27037,10 @@
     <row r="1067">
       <c r="A1067" t="inlineStr"/>
       <c r="B1067" t="inlineStr"/>
-      <c r="C1067" s="2" t="n">
-        <v>45812</v>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -26547,8 +27113,10 @@
     <row r="1070">
       <c r="A1070" t="inlineStr"/>
       <c r="B1070" t="inlineStr"/>
-      <c r="C1070" s="2" t="n">
-        <v>45812</v>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -26621,8 +27189,10 @@
     <row r="1073">
       <c r="A1073" t="inlineStr"/>
       <c r="B1073" t="inlineStr"/>
-      <c r="C1073" s="2" t="n">
-        <v>45812</v>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -26695,8 +27265,10 @@
     <row r="1076">
       <c r="A1076" t="inlineStr"/>
       <c r="B1076" t="inlineStr"/>
-      <c r="C1076" s="2" t="n">
-        <v>45812</v>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>04/Jun/2025</t>
+        </is>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -26829,8 +27401,10 @@
     <row r="1082">
       <c r="A1082" t="inlineStr"/>
       <c r="B1082" t="inlineStr"/>
-      <c r="C1082" s="2" t="n">
-        <v>45813</v>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -26903,8 +27477,10 @@
     <row r="1085">
       <c r="A1085" t="inlineStr"/>
       <c r="B1085" t="inlineStr"/>
-      <c r="C1085" s="2" t="n">
-        <v>45813</v>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -26977,8 +27553,10 @@
     <row r="1088">
       <c r="A1088" t="inlineStr"/>
       <c r="B1088" t="inlineStr"/>
-      <c r="C1088" s="2" t="n">
-        <v>45813</v>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>05/Jun/2025</t>
+        </is>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -27051,8 +27629,10 @@
     <row r="1091">
       <c r="A1091" t="inlineStr"/>
       <c r="B1091" t="inlineStr"/>
-      <c r="C1091" s="2" t="n">
-        <v>45823</v>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -27125,8 +27705,10 @@
     <row r="1094">
       <c r="A1094" t="inlineStr"/>
       <c r="B1094" t="inlineStr"/>
-      <c r="C1094" s="2" t="n">
-        <v>45823</v>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -27199,8 +27781,10 @@
     <row r="1097">
       <c r="A1097" t="inlineStr"/>
       <c r="B1097" t="inlineStr"/>
-      <c r="C1097" s="2" t="n">
-        <v>45823</v>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>15/Jun/2025</t>
+        </is>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -27281,8 +27865,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
-      <c r="C1100" s="2" t="n">
-        <v>45824</v>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>16/Jun/2025</t>
+        </is>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -27367,8 +27953,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
         </is>
       </c>
-      <c r="C1103" s="2" t="n">
-        <v>45825</v>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>17/Jun/2025</t>
+        </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -27445,8 +28033,10 @@
     <row r="1106">
       <c r="A1106" t="inlineStr"/>
       <c r="B1106" t="inlineStr"/>
-      <c r="C1106" s="2" t="n">
-        <v>45825</v>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>17/Jun/2025</t>
+        </is>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -27519,8 +28109,10 @@
     <row r="1109">
       <c r="A1109" t="inlineStr"/>
       <c r="B1109" t="inlineStr"/>
-      <c r="C1109" s="2" t="n">
-        <v>45826</v>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -27593,8 +28185,10 @@
     <row r="1112">
       <c r="A1112" t="inlineStr"/>
       <c r="B1112" t="inlineStr"/>
-      <c r="C1112" s="2" t="n">
-        <v>45826</v>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
@@ -27667,8 +28261,10 @@
     <row r="1115">
       <c r="A1115" t="inlineStr"/>
       <c r="B1115" t="inlineStr"/>
-      <c r="C1115" s="2" t="n">
-        <v>45826</v>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
@@ -27741,8 +28337,10 @@
     <row r="1118">
       <c r="A1118" t="inlineStr"/>
       <c r="B1118" t="inlineStr"/>
-      <c r="C1118" s="2" t="n">
-        <v>45826</v>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>18/Jun/2025</t>
+        </is>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -27815,8 +28413,10 @@
     <row r="1121">
       <c r="A1121" t="inlineStr"/>
       <c r="B1121" t="inlineStr"/>
-      <c r="C1121" s="2" t="n">
-        <v>45827</v>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>19/Jun/2025</t>
+        </is>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -27937,8 +28537,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
         </is>
       </c>
-      <c r="C1126" s="2" t="n">
-        <v>45830</v>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>22/Jun/2025</t>
+        </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -28103,8 +28705,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
         </is>
       </c>
-      <c r="C1133" s="2" t="n">
-        <v>45831</v>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -28181,8 +28785,10 @@
     <row r="1136">
       <c r="A1136" t="inlineStr"/>
       <c r="B1136" t="inlineStr"/>
-      <c r="C1136" s="2" t="n">
-        <v>45831</v>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -28255,8 +28861,10 @@
     <row r="1139">
       <c r="A1139" t="inlineStr"/>
       <c r="B1139" t="inlineStr"/>
-      <c r="C1139" s="2" t="n">
-        <v>45831</v>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -28329,8 +28937,10 @@
     <row r="1142">
       <c r="A1142" t="inlineStr"/>
       <c r="B1142" t="inlineStr"/>
-      <c r="C1142" s="2" t="n">
-        <v>45831</v>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -28403,8 +29013,10 @@
     <row r="1145">
       <c r="A1145" t="inlineStr"/>
       <c r="B1145" t="inlineStr"/>
-      <c r="C1145" s="2" t="n">
-        <v>45831</v>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -28477,8 +29089,10 @@
     <row r="1148">
       <c r="A1148" t="inlineStr"/>
       <c r="B1148" t="inlineStr"/>
-      <c r="C1148" s="2" t="n">
-        <v>45831</v>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -28551,8 +29165,10 @@
     <row r="1151">
       <c r="A1151" t="inlineStr"/>
       <c r="B1151" t="inlineStr"/>
-      <c r="C1151" s="2" t="n">
-        <v>45831</v>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -28625,8 +29241,10 @@
     <row r="1154">
       <c r="A1154" t="inlineStr"/>
       <c r="B1154" t="inlineStr"/>
-      <c r="C1154" s="2" t="n">
-        <v>45831</v>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -28699,8 +29317,10 @@
     <row r="1157">
       <c r="A1157" t="inlineStr"/>
       <c r="B1157" t="inlineStr"/>
-      <c r="C1157" s="2" t="n">
-        <v>45831</v>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -28781,8 +29401,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
         </is>
       </c>
-      <c r="C1160" s="2" t="n">
-        <v>45832</v>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -28859,8 +29481,10 @@
     <row r="1163">
       <c r="A1163" t="inlineStr"/>
       <c r="B1163" t="inlineStr"/>
-      <c r="C1163" s="2" t="n">
-        <v>45832</v>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
@@ -28933,8 +29557,10 @@
     <row r="1166">
       <c r="A1166" t="inlineStr"/>
       <c r="B1166" t="inlineStr"/>
-      <c r="C1166" s="2" t="n">
-        <v>45832</v>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
@@ -29015,8 +29641,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
         </is>
       </c>
-      <c r="C1169" s="2" t="n">
-        <v>45832</v>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -29093,8 +29721,10 @@
     <row r="1172">
       <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr"/>
-      <c r="C1172" s="2" t="n">
-        <v>45832</v>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -29167,8 +29797,10 @@
     <row r="1175">
       <c r="A1175" t="inlineStr"/>
       <c r="B1175" t="inlineStr"/>
-      <c r="C1175" s="2" t="n">
-        <v>45832</v>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -29241,8 +29873,10 @@
     <row r="1178">
       <c r="A1178" t="inlineStr"/>
       <c r="B1178" t="inlineStr"/>
-      <c r="C1178" s="2" t="n">
-        <v>45832</v>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -29315,8 +29949,10 @@
     <row r="1181">
       <c r="A1181" t="inlineStr"/>
       <c r="B1181" t="inlineStr"/>
-      <c r="C1181" s="2" t="n">
-        <v>45832</v>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -29389,8 +30025,10 @@
     <row r="1184">
       <c r="A1184" t="inlineStr"/>
       <c r="B1184" t="inlineStr"/>
-      <c r="C1184" s="2" t="n">
-        <v>45832</v>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -29463,8 +30101,10 @@
     <row r="1187">
       <c r="A1187" t="inlineStr"/>
       <c r="B1187" t="inlineStr"/>
-      <c r="C1187" s="2" t="n">
-        <v>45832</v>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>24/Jun/2025</t>
+        </is>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -29537,8 +30177,10 @@
     <row r="1190">
       <c r="A1190" t="inlineStr"/>
       <c r="B1190" t="inlineStr"/>
-      <c r="C1190" s="2" t="n">
-        <v>45833</v>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -29611,8 +30253,10 @@
     <row r="1193">
       <c r="A1193" t="inlineStr"/>
       <c r="B1193" t="inlineStr"/>
-      <c r="C1193" s="2" t="n">
-        <v>45833</v>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -29693,8 +30337,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
         </is>
       </c>
-      <c r="C1196" s="2" t="n">
-        <v>45833</v>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>25/Jun/2025</t>
+        </is>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -29771,8 +30417,10 @@
     <row r="1199">
       <c r="A1199" t="inlineStr"/>
       <c r="B1199" t="inlineStr"/>
-      <c r="C1199" s="2" t="n">
-        <v>45834</v>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>26/Jun/2025</t>
+        </is>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -29845,8 +30493,10 @@
     <row r="1202">
       <c r="A1202" t="inlineStr"/>
       <c r="B1202" t="inlineStr"/>
-      <c r="C1202" s="2" t="n">
-        <v>45834</v>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>26/Jun/2025</t>
+        </is>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -30019,8 +30669,10 @@
     <row r="1210">
       <c r="A1210" t="inlineStr"/>
       <c r="B1210" t="inlineStr"/>
-      <c r="C1210" s="2" t="n">
-        <v>45834</v>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>26/Jun/2025</t>
+        </is>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -30221,8 +30873,10 @@
           <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
         </is>
       </c>
-      <c r="C1219" s="2" t="n">
-        <v>45837</v>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>29/Jun/2025</t>
+        </is>
       </c>
       <c r="D1219" t="inlineStr">
         <is>
@@ -30299,8 +30953,10 @@
     <row r="1222">
       <c r="A1222" t="inlineStr"/>
       <c r="B1222" t="inlineStr"/>
-      <c r="C1222" s="2" t="n">
-        <v>45838</v>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -30373,8 +31029,10 @@
     <row r="1225">
       <c r="A1225" t="inlineStr"/>
       <c r="B1225" t="inlineStr"/>
-      <c r="C1225" s="2" t="n">
-        <v>45838</v>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
@@ -30447,8 +31105,10 @@
     <row r="1228">
       <c r="A1228" t="inlineStr"/>
       <c r="B1228" t="inlineStr"/>
-      <c r="C1228" s="2" t="n">
-        <v>45838</v>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>30/Jun/2025</t>
+        </is>
       </c>
       <c r="D1228" t="inlineStr">
         <is>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -432,6 +432,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -446,10 +446,10 @@
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="12.78" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="11.22" customWidth="1" min="11" max="11"/>
     <col width="25" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -446,14 +446,14 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10.33" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="12.78" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="11.22" customWidth="1" min="11" max="11"/>
+    <col width="12.78" customWidth="1" min="10" max="10"/>
+    <col width="14.22" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1316,8 +1316,16 @@
       <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M073</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5023", "lender_amount": "95200.00", "borrower_amount": "95200.00", "po_number": "FOB/PO/2023/8/5023"}</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1463,8 +1471,16 @@
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/12/5124", "lender_amount": "164204.00", "borrower_amount": "164204.00", "po_number": "FOB/PO/2023/12/5124"}</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1544,7 +1560,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1625,7 +1641,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1909,7 +1925,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1990,7 +2006,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2363,7 +2379,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2444,7 +2460,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2890,7 +2906,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4096,8 +4112,16 @@
       <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5000", "lender_amount": "289000.00", "borrower_amount": "289000.00", "po_number": "FOB/PO/2023/8/5000"}</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>01/Feb/2025</t>
@@ -5712,7 +5736,7 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5866,7 +5890,7 @@
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79", "lc_number": "L/C-187724010124/24"}</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6350,7 +6374,7 @@
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6853,7 +6877,7 @@
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77", "lc_number": "L/C-147125020003/25"}</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7606,8 +7630,16 @@
       <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
+      <c r="B308" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/6/27130", "lender_amount": "1100.00", "borrower_amount": "1100.00", "po_number": "OPE/PO/2024/6/27130"}</t>
+        </is>
+      </c>
       <c r="C308" t="inlineStr">
         <is>
           <t>16/Feb/2025</t>
@@ -8308,7 +8340,7 @@
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8389,7 +8421,7 @@
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -8470,7 +8502,7 @@
       </c>
       <c r="B343" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82", "lc_number": "L/C-147124020653/25"}</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -8551,7 +8583,7 @@
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61", "lc_number": "L/C-147124020708/24"}</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8925,7 +8957,7 @@
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9006,7 +9038,7 @@
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9087,7 +9119,7 @@
       </c>
       <c r="B367" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9308,8 +9340,16 @@
       <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
-      <c r="B376" t="inlineStr"/>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
+      <c r="B376" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "GEO/PO/2023/3/12915", "lender_amount": "400000.00", "borrower_amount": "400000.00", "po_number": "GEO/PO/2023/3/12915"}</t>
+        </is>
+      </c>
       <c r="C376" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -9388,7 +9428,7 @@
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37", "lc_number": "LC-155824020001/24"}</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10531,7 +10571,7 @@
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -10758,7 +10798,7 @@
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63", "lc_number": "L/C-308524022796/24"}</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11162,8 +11202,16 @@
       <c r="K457" t="inlineStr"/>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr"/>
-      <c r="B458" t="inlineStr"/>
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
+      <c r="B458" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/9/29742", "lender_amount": "124670.00", "borrower_amount": "124670.00", "po_number": "OPE/PO/2024/9/29742"}</t>
+        </is>
+      </c>
       <c r="C458" t="inlineStr">
         <is>
           <t>05/Mar/2025</t>
@@ -11242,7 +11290,7 @@
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50", "lc_number": "L/C-222825150235/25"}</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -11396,7 +11444,7 @@
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00", "lc_number": "L/C-222825150235/25"}</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -11477,7 +11525,7 @@
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -11558,7 +11606,7 @@
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90", "lc_number": "L/C-187724010122/24"}</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12407,7 +12455,7 @@
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58", "lc_number": "L/C-147125020027/25"}</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -12707,7 +12755,7 @@
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99", "lc_number": "L/C-308524027065/24"}</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13825,7 +13873,7 @@
       </c>
       <c r="B570" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10", "lc_number": "L/C-147124020708/24"}</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -13906,7 +13954,7 @@
       </c>
       <c r="B573" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97", "lc_number": "L/C-308524990243/24"}</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -14136,7 +14184,7 @@
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -14255,7 +14303,7 @@
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77", "lc_number": "L/C-308524022495/24"}</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -14336,7 +14384,7 @@
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68", "lc_number": "L/C-308524022495/24"}</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -14410,8 +14458,16 @@
       <c r="K593" t="inlineStr"/>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
-      <c r="B594" t="inlineStr"/>
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
+      <c r="B594" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MBD/PO/2024/9/10", "lender_amount": "25000.00", "borrower_amount": "25000.00", "po_number": "MBD/PO/2024/9/10"}</t>
+        </is>
+      </c>
       <c r="C594" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -15177,8 +15233,16 @@
       <c r="K630" t="inlineStr"/>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr"/>
-      <c r="B631" t="inlineStr"/>
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
+      <c r="B631" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "CHA/PO/2023/12/20766", "lender_amount": "2000000.00", "borrower_amount": "2000000.00", "po_number": "CHA/PO/2023/12/20766"}</t>
+        </is>
+      </c>
       <c r="C631" t="inlineStr">
         <is>
           <t>01/Apr/2025</t>
@@ -15403,7 +15467,7 @@
       </c>
       <c r="B640" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95", "lc_number": "L/C-308525021741/25"}</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -15484,7 +15548,7 @@
       </c>
       <c r="B643" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86", "lc_number": "L/C-308525021745/25"}</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -15565,7 +15629,7 @@
       </c>
       <c r="B646" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -16157,7 +16221,7 @@
       </c>
       <c r="B670" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -16238,7 +16302,7 @@
       </c>
       <c r="B673" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -16430,7 +16494,7 @@
       </c>
       <c r="B681" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00", "lc_number": "L/C-155823010186/23"}</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -16768,7 +16832,7 @@
       </c>
       <c r="B695" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09", "lc_number": "LC-308524026037/222824023549"}</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -16922,7 +16986,7 @@
       </c>
       <c r="B701" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00", "lc_number": "LC-308524022495/24"}</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -17149,7 +17213,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92", "lc_number": "L/C-147125020027/25"}</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -17230,7 +17294,7 @@
       </c>
       <c r="B713" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76", "lc_number": "L/C-222825150151/25"}</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -17311,7 +17375,7 @@
       </c>
       <c r="B716" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00", "lc_number": "L/C-141325020063/25"}</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -17465,7 +17529,7 @@
       </c>
       <c r="B722" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -17787,7 +17851,7 @@
       </c>
       <c r="B736" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55", "lc_number": "LC-155825020020/25"}</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -17868,7 +17932,7 @@
       </c>
       <c r="B739" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -17949,7 +18013,7 @@
       </c>
       <c r="B742" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -18433,7 +18497,7 @@
       </c>
       <c r="B762" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36", "lc_number": "L/C-141325020104/25"}</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -18514,7 +18578,7 @@
       </c>
       <c r="B765" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40", "lc_number": "L/C-147125020063/25"}</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -18668,7 +18732,7 @@
       </c>
       <c r="B771" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54", "lc_number": "L/C-141325020068/25"}</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -19583,8 +19647,16 @@
       <c r="K813" t="inlineStr"/>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr"/>
-      <c r="B814" t="inlineStr"/>
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
+      <c r="B814" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "BPD/PO/2025/3/32659", "lender_amount": "768000.00", "borrower_amount": "768000.00", "po_number": "BPD/PO/2025/3/32659"}</t>
+        </is>
+      </c>
       <c r="C814" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -19875,8 +19947,16 @@
       <c r="K825" t="inlineStr"/>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr"/>
-      <c r="B826" t="inlineStr"/>
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>M082</t>
+        </is>
+      </c>
+      <c r="B826" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2023/10/18781", "lender_amount": "13920.00", "borrower_amount": "13920.00", "po_number": "OPE/PO/2023/10/18781"}</t>
+        </is>
+      </c>
       <c r="C826" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -22132,7 +22212,7 @@
       </c>
       <c r="B920" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42", "lc_number": "LC-141325020104/25"}</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -22213,7 +22293,7 @@
       </c>
       <c r="B923" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76", "lc_number": "LC-141325020112/25"}</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -22294,7 +22374,7 @@
       </c>
       <c r="B926" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81", "lc_number": "LC-141325020112/25"}</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -22667,7 +22747,7 @@
       </c>
       <c r="B941" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06", "lc_number": "LC-141325020063/25"}</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -23113,7 +23193,7 @@
       </c>
       <c r="B959" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68", "lc_number": "LC-141325020163/25"}</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -23416,7 +23496,7 @@
       </c>
       <c r="B972" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00", "lc_number": "LC-222825150235/25"}</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -23570,7 +23650,7 @@
       </c>
       <c r="B978" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00", "lc_number": "LC-141325020068/25"}</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -23708,7 +23788,7 @@
       </c>
       <c r="B984" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06", "lc_number": "LC-308524990243/24"}</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -24323,7 +24403,7 @@
       </c>
       <c r="B1010" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11", "lc_number": "LC-308525021741/25"}</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -24397,8 +24477,16 @@
       <c r="K1012" t="inlineStr"/>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr"/>
-      <c r="B1013" t="inlineStr"/>
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>M083</t>
+        </is>
+      </c>
+      <c r="B1013" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MOD/PO/2024/10/30061", "lender_amount": "89910.00", "borrower_amount": "89910.00", "po_number": "MOD/PO/2024/10/30061"}</t>
+        </is>
+      </c>
       <c r="C1013" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -24543,8 +24631,16 @@
       <c r="K1018" t="inlineStr"/>
     </row>
     <row r="1019">
-      <c r="A1019" t="inlineStr"/>
-      <c r="B1019" t="inlineStr"/>
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>M084</t>
+        </is>
+      </c>
+      <c r="B1019" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/10/29964", "lender_amount": "24800.00", "borrower_amount": "24800.00", "po_number": "OPE/PO/2024/10/29964"}</t>
+        </is>
+      </c>
       <c r="C1019" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
@@ -24843,7 +24939,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01", "lc_number": "LC-155825010037/25"}</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -26069,8 +26165,16 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr"/>
-      <c r="B1082" t="inlineStr"/>
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>M085</t>
+        </is>
+      </c>
+      <c r="B1082" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2025/4/33343", "lender_amount": "199850.00", "borrower_amount": "199850.00", "po_number": "OPE/PO/2025/4/33343"}</t>
+        </is>
+      </c>
       <c r="C1082" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -26142,8 +26246,16 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr"/>
-      <c r="B1085" t="inlineStr"/>
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>M086</t>
+        </is>
+      </c>
+      <c r="B1085" s="4" t="inlineStr">
+        <is>
+          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/11/30293", "lender_amount": "45094.20", "borrower_amount": "45094.20", "po_number": "OPE/PO/2024/11/30293"}</t>
+        </is>
+      </c>
       <c r="C1085" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -26514,7 +26626,7 @@
       </c>
       <c r="B1100" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "LC-141325020163/25"}</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -26595,7 +26707,7 @@
       </c>
       <c r="B1103" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50", "lc_number": "LC-308525021746/25"}</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -27152,7 +27264,7 @@
       </c>
       <c r="B1126" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39", "lc_number": "LC-141325020063/141325020112"}</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -27309,7 +27421,7 @@
       </c>
       <c r="B1133" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00", "lc_number": "LC-308524022166 "}</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -27974,7 +28086,7 @@
       </c>
       <c r="B1160" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00", "lc_number": "LC-308524022166 "}</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -28201,7 +28313,7 @@
       </c>
       <c r="B1169" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98", "lc_number": "L/C-308524026037/24"}</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -28866,7 +28978,7 @@
       </c>
       <c r="B1196" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01", "lc_number": "L/C-147125020202/25"}</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -29375,7 +29487,7 @@
       </c>
       <c r="B1219" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55", "lc_number": "L/C-147124020074/24"}</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1316,16 +1316,8 @@
       <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>M073</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5023", "lender_amount": "95200.00", "borrower_amount": "95200.00", "po_number": "FOB/PO/2023/8/5023"}</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1471,16 +1463,8 @@
       <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>M074</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/12/5124", "lender_amount": "164204.00", "borrower_amount": "164204.00", "po_number": "FOB/PO/2023/12/5124"}</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1560,7 +1544,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1641,7 +1625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1925,7 +1909,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2006,7 +1990,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2379,7 +2363,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2460,7 +2444,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2906,7 +2890,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4112,16 +4096,8 @@
       <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>M075</t>
-        </is>
-      </c>
-      <c r="B162" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "FOB/PO/2023/8/5000", "lender_amount": "289000.00", "borrower_amount": "289000.00", "po_number": "FOB/PO/2023/8/5000"}</t>
-        </is>
-      </c>
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
           <t>01/Feb/2025</t>
@@ -5736,7 +5712,7 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5890,7 +5866,7 @@
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79", "lc_number": "L/C-187724010124/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6374,7 +6350,7 @@
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6877,7 +6853,7 @@
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77", "lc_number": "L/C-147125020003/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7630,16 +7606,8 @@
       <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>M076</t>
-        </is>
-      </c>
-      <c r="B308" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/6/27130", "lender_amount": "1100.00", "borrower_amount": "1100.00", "po_number": "OPE/PO/2024/6/27130"}</t>
-        </is>
-      </c>
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
           <t>16/Feb/2025</t>
@@ -8340,7 +8308,7 @@
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8421,7 +8389,7 @@
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -8502,7 +8470,7 @@
       </c>
       <c r="B343" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82", "lc_number": "L/C-147124020653/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -8583,7 +8551,7 @@
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61", "lc_number": "L/C-147124020708/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8957,7 +8925,7 @@
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9038,7 +9006,7 @@
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9119,7 +9087,7 @@
       </c>
       <c r="B367" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9340,16 +9308,8 @@
       <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>M077</t>
-        </is>
-      </c>
-      <c r="B376" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "GEO/PO/2023/3/12915", "lender_amount": "400000.00", "borrower_amount": "400000.00", "po_number": "GEO/PO/2023/3/12915"}</t>
-        </is>
-      </c>
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -9428,7 +9388,7 @@
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37", "lc_number": "LC-155824020001/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10571,7 +10531,7 @@
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -10798,7 +10758,7 @@
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63", "lc_number": "L/C-308524022796/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11202,16 +11162,8 @@
       <c r="K457" t="inlineStr"/>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>M078</t>
-        </is>
-      </c>
-      <c r="B458" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/9/29742", "lender_amount": "124670.00", "borrower_amount": "124670.00", "po_number": "OPE/PO/2024/9/29742"}</t>
-        </is>
-      </c>
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr">
         <is>
           <t>05/Mar/2025</t>
@@ -11290,7 +11242,7 @@
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50", "lc_number": "L/C-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -11444,7 +11396,7 @@
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00", "lc_number": "L/C-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -11525,7 +11477,7 @@
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -11606,7 +11558,7 @@
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90", "lc_number": "L/C-187724010122/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12455,7 +12407,7 @@
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58", "lc_number": "L/C-147125020027/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -12755,7 +12707,7 @@
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99", "lc_number": "L/C-308524027065/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13873,7 +13825,7 @@
       </c>
       <c r="B570" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10", "lc_number": "L/C-147124020708/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -13954,7 +13906,7 @@
       </c>
       <c r="B573" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97", "lc_number": "L/C-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -14184,7 +14136,7 @@
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -14303,7 +14255,7 @@
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77", "lc_number": "L/C-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -14384,7 +14336,7 @@
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68", "lc_number": "L/C-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -14458,16 +14410,8 @@
       <c r="K593" t="inlineStr"/>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>M079</t>
-        </is>
-      </c>
-      <c r="B594" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MBD/PO/2024/9/10", "lender_amount": "25000.00", "borrower_amount": "25000.00", "po_number": "MBD/PO/2024/9/10"}</t>
-        </is>
-      </c>
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -15233,16 +15177,8 @@
       <c r="K630" t="inlineStr"/>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>M080</t>
-        </is>
-      </c>
-      <c r="B631" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "CHA/PO/2023/12/20766", "lender_amount": "2000000.00", "borrower_amount": "2000000.00", "po_number": "CHA/PO/2023/12/20766"}</t>
-        </is>
-      </c>
+      <c r="A631" t="inlineStr"/>
+      <c r="B631" t="inlineStr"/>
       <c r="C631" t="inlineStr">
         <is>
           <t>01/Apr/2025</t>
@@ -15467,7 +15403,7 @@
       </c>
       <c r="B640" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95", "lc_number": "L/C-308525021741/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -15548,7 +15484,7 @@
       </c>
       <c r="B643" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86", "lc_number": "L/C-308525021745/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -15629,7 +15565,7 @@
       </c>
       <c r="B646" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -16221,7 +16157,7 @@
       </c>
       <c r="B670" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -16302,7 +16238,7 @@
       </c>
       <c r="B673" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -16494,7 +16430,7 @@
       </c>
       <c r="B681" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00", "lc_number": "L/C-155823010186/23"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -16832,7 +16768,7 @@
       </c>
       <c r="B695" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09", "lc_number": "LC-308524026037/222824023549"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -16986,7 +16922,7 @@
       </c>
       <c r="B701" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00", "lc_number": "LC-308524022495/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -17213,7 +17149,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92", "lc_number": "L/C-147125020027/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -17294,7 +17230,7 @@
       </c>
       <c r="B713" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76", "lc_number": "L/C-222825150151/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -17375,7 +17311,7 @@
       </c>
       <c r="B716" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00", "lc_number": "L/C-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -17529,7 +17465,7 @@
       </c>
       <c r="B722" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -17851,7 +17787,7 @@
       </c>
       <c r="B736" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55", "lc_number": "LC-155825020020/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -17932,7 +17868,7 @@
       </c>
       <c r="B739" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -18013,7 +17949,7 @@
       </c>
       <c r="B742" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -18497,7 +18433,7 @@
       </c>
       <c r="B762" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36", "lc_number": "L/C-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -18578,7 +18514,7 @@
       </c>
       <c r="B765" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40", "lc_number": "L/C-147125020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -18732,7 +18668,7 @@
       </c>
       <c r="B771" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54", "lc_number": "L/C-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -19647,16 +19583,8 @@
       <c r="K813" t="inlineStr"/>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>M081</t>
-        </is>
-      </c>
-      <c r="B814" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "BPD/PO/2025/3/32659", "lender_amount": "768000.00", "borrower_amount": "768000.00", "po_number": "BPD/PO/2025/3/32659"}</t>
-        </is>
-      </c>
+      <c r="A814" t="inlineStr"/>
+      <c r="B814" t="inlineStr"/>
       <c r="C814" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -19947,16 +19875,8 @@
       <c r="K825" t="inlineStr"/>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>M082</t>
-        </is>
-      </c>
-      <c r="B826" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2023/10/18781", "lender_amount": "13920.00", "borrower_amount": "13920.00", "po_number": "OPE/PO/2023/10/18781"}</t>
-        </is>
-      </c>
+      <c r="A826" t="inlineStr"/>
+      <c r="B826" t="inlineStr"/>
       <c r="C826" t="inlineStr">
         <is>
           <t>01/May/2025</t>
@@ -22212,7 +22132,7 @@
       </c>
       <c r="B920" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42", "lc_number": "LC-141325020104/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -22293,7 +22213,7 @@
       </c>
       <c r="B923" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76", "lc_number": "LC-141325020112/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -22374,7 +22294,7 @@
       </c>
       <c r="B926" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81", "lc_number": "LC-141325020112/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -22747,7 +22667,7 @@
       </c>
       <c r="B941" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06", "lc_number": "LC-141325020063/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -23193,7 +23113,7 @@
       </c>
       <c r="B959" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68", "lc_number": "LC-141325020163/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -23496,7 +23416,7 @@
       </c>
       <c r="B972" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00", "lc_number": "LC-222825150235/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -23650,7 +23570,7 @@
       </c>
       <c r="B978" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00", "lc_number": "LC-141325020068/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -23788,7 +23708,7 @@
       </c>
       <c r="B984" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06", "lc_number": "LC-308524990243/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -24403,7 +24323,7 @@
       </c>
       <c r="B1010" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11", "lc_number": "LC-308525021741/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -24477,16 +24397,8 @@
       <c r="K1012" t="inlineStr"/>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>M083</t>
-        </is>
-      </c>
-      <c r="B1013" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "MOD/PO/2024/10/30061", "lender_amount": "89910.00", "borrower_amount": "89910.00", "po_number": "MOD/PO/2024/10/30061"}</t>
-        </is>
-      </c>
+      <c r="A1013" t="inlineStr"/>
+      <c r="B1013" t="inlineStr"/>
       <c r="C1013" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -24631,16 +24543,8 @@
       <c r="K1018" t="inlineStr"/>
     </row>
     <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>M084</t>
-        </is>
-      </c>
-      <c r="B1019" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/10/29964", "lender_amount": "24800.00", "borrower_amount": "24800.00", "po_number": "OPE/PO/2024/10/29964"}</t>
-        </is>
-      </c>
+      <c r="A1019" t="inlineStr"/>
+      <c r="B1019" t="inlineStr"/>
       <c r="C1019" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
@@ -24939,7 +24843,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01", "lc_number": "LC-155825010037/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -26165,16 +26069,8 @@
       <c r="K1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>M085</t>
-        </is>
-      </c>
-      <c r="B1082" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2025/4/33343", "lender_amount": "199850.00", "borrower_amount": "199850.00", "po_number": "OPE/PO/2025/4/33343"}</t>
-        </is>
-      </c>
+      <c r="A1082" t="inlineStr"/>
+      <c r="B1082" t="inlineStr"/>
       <c r="C1082" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -26246,16 +26142,8 @@
       <c r="K1084" t="inlineStr"/>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>M086</t>
-        </is>
-      </c>
-      <c r="B1085" s="4" t="inlineStr">
-        <is>
-          <t>{"match_type": "PO", "match_method": "reference_match", "reference_number": "OPE/PO/2024/11/30293", "lender_amount": "45094.20", "borrower_amount": "45094.20", "po_number": "OPE/PO/2024/11/30293"}</t>
-        </is>
-      </c>
+      <c r="A1085" t="inlineStr"/>
+      <c r="B1085" t="inlineStr"/>
       <c r="C1085" t="inlineStr">
         <is>
           <t>05/Jun/2025</t>
@@ -26626,7 +26514,7 @@
       </c>
       <c r="B1100" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00", "lc_number": "LC-141325020163/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -26707,7 +26595,7 @@
       </c>
       <c r="B1103" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50", "lc_number": "LC-308525021746/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -27264,7 +27152,7 @@
       </c>
       <c r="B1126" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39", "lc_number": "LC-141325020063/141325020112"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -27421,7 +27309,7 @@
       </c>
       <c r="B1133" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00", "lc_number": "LC-308524022166 "}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -28086,7 +27974,7 @@
       </c>
       <c r="B1160" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00", "lc_number": "LC-308524022166 "}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -28313,7 +28201,7 @@
       </c>
       <c r="B1169" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98", "lc_number": "L/C-308524026037/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -28978,7 +28866,7 @@
       </c>
       <c r="B1196" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01", "lc_number": "L/C-147125020202/25"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -29487,7 +29375,7 @@
       </c>
       <c r="B1219" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "reference_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55", "lc_number": "L/C-147124020074/24"}</t>
+          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1544,7 +1544,10 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "5040781.68", "borrower_amount": "5040781.68"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1580,8 +1583,19 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
@@ -1597,8 +1611,19 @@
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
@@ -1625,7 +1650,10 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "15737222.22", "borrower_amount": "15737222.22"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,8 +1689,19 @@
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
@@ -1680,8 +1719,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
@@ -1699,8 +1749,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
@@ -1718,8 +1779,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
@@ -1735,8 +1807,19 @@
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
@@ -1756,8 +1839,19 @@
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1909,7 +2003,10 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "8884.77", "borrower_amount": "8884.77"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1945,8 +2042,19 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
@@ -1962,8 +2070,19 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
@@ -1990,7 +2109,10 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2026,8 +2148,19 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
@@ -2043,8 +2176,19 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
@@ -2064,8 +2208,19 @@
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>07/Jan/2025</t>
@@ -2363,7 +2518,10 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2399,8 +2557,19 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
@@ -2416,8 +2585,19 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
@@ -2444,7 +2624,10 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1575.00", "borrower_amount": "1575.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2480,8 +2663,19 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
@@ -2497,8 +2691,19 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
@@ -2518,8 +2723,19 @@
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>19/Jan/2025</t>
@@ -2890,7 +3106,10 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26246.93", "borrower_amount": "26246.93"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2926,8 +3145,19 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
@@ -2943,8 +3173,19 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
@@ -2964,8 +3205,19 @@
       <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>29/Jan/2025</t>
@@ -5712,7 +5964,10 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "1150.00", "borrower_amount": "1150.00"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5748,8 +6003,19 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" s="4" t="inlineStr">
@@ -5765,8 +6031,19 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B231" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
@@ -5786,8 +6063,19 @@
       <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
-      <c r="B232" t="inlineStr"/>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B232" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C232" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -5866,7 +6154,10 @@
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010124/24", "lender_amount": "8761.79", "borrower_amount": "8761.79"}</t>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5902,8 +6193,19 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" s="4" t="inlineStr">
@@ -5919,8 +6221,19 @@
       <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr"/>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
@@ -5940,8 +6253,19 @@
       <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr"/>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B238" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C238" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -6350,7 +6674,10 @@
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1862.50", "borrower_amount": "1862.50"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6386,8 +6713,19 @@
       <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" s="4" t="inlineStr">
@@ -6403,8 +6741,19 @@
       <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
@@ -6424,8 +6773,19 @@
       <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
-      <c r="B258" t="inlineStr"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B258" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C258" t="inlineStr">
         <is>
           <t>10/Feb/2025</t>
@@ -6853,7 +7213,10 @@
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020003/25", "lender_amount": "27383.77", "borrower_amount": "27383.77"}</t>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6889,8 +7252,19 @@
       <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
       <c r="E277" s="4" t="inlineStr">
@@ -6906,8 +7280,19 @@
       <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B278" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
@@ -6927,8 +7312,19 @@
       <c r="K278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
-      <c r="B279" t="inlineStr"/>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B279" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C279" t="inlineStr">
         <is>
           <t>12/Feb/2025</t>
@@ -8308,7 +8704,10 @@
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "71971.54", "borrower_amount": "71971.54"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -8344,8 +8743,19 @@
       <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B338" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
       <c r="E338" s="4" t="inlineStr">
@@ -8361,8 +8771,19 @@
       <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
-      <c r="B339" t="inlineStr"/>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B339" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
@@ -8389,7 +8810,10 @@
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "20527984.90", "borrower_amount": "20527984.90"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -8425,8 +8849,19 @@
       <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr"/>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B341" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" s="4" t="inlineStr">
@@ -8442,8 +8877,19 @@
       <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
-      <c r="B342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B342" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
@@ -8470,7 +8916,10 @@
       </c>
       <c r="B343" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020653/25", "lender_amount": "665048.82", "borrower_amount": "665048.82"}</t>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -8506,8 +8955,19 @@
       <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr"/>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B344" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="4" t="inlineStr">
@@ -8523,8 +8983,19 @@
       <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
-      <c r="B345" t="inlineStr"/>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B345" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
@@ -8551,7 +9022,10 @@
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "25042.61", "borrower_amount": "25042.61"}</t>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8587,8 +9061,19 @@
       <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
-      <c r="B347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B347" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
       <c r="E347" s="4" t="inlineStr">
@@ -8604,8 +9089,19 @@
       <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
-      <c r="B348" t="inlineStr"/>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B348" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
@@ -8625,8 +9121,19 @@
       <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
-      <c r="B349" t="inlineStr"/>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B349" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C349" t="inlineStr">
         <is>
           <t>24/Feb/2025</t>
@@ -8925,7 +9432,10 @@
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "5995080.00", "borrower_amount": "5995080.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8961,8 +9471,19 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
-      <c r="B362" t="inlineStr"/>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B362" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
@@ -8978,8 +9499,19 @@
       <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
-      <c r="B363" t="inlineStr"/>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B363" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
@@ -9006,7 +9538,10 @@
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "33573.89", "borrower_amount": "33573.89"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9042,8 +9577,19 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
-      <c r="B365" t="inlineStr"/>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" s="4" t="inlineStr">
@@ -9059,8 +9605,19 @@
       <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
-      <c r="B366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B366" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
@@ -9087,7 +9644,10 @@
       </c>
       <c r="B367" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "1650660.00", "borrower_amount": "1650660.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9123,8 +9683,19 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
-      <c r="B368" t="inlineStr"/>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B368" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
       <c r="E368" s="4" t="inlineStr">
@@ -9140,8 +9711,19 @@
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
-      <c r="B369" t="inlineStr"/>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B369" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
@@ -9161,8 +9743,19 @@
       <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr"/>
-      <c r="B370" t="inlineStr"/>
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B370" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C370" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -9388,7 +9981,10 @@
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155824020001/24", "lender_amount": "7641878.37", "borrower_amount": "7641878.37"}</t>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -9424,8 +10020,19 @@
       <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr"/>
-      <c r="B380" t="inlineStr"/>
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B380" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
       <c r="E380" s="4" t="inlineStr">
@@ -9443,8 +10050,19 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
-      <c r="B381" t="inlineStr"/>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B381" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" s="4" t="inlineStr">
@@ -9462,8 +10080,19 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr"/>
-      <c r="B382" t="inlineStr"/>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B382" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
       <c r="E382" s="4" t="inlineStr">
@@ -9479,8 +10108,19 @@
       <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr"/>
-      <c r="B383" t="inlineStr"/>
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B383" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
@@ -9500,8 +10140,19 @@
       <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr"/>
-      <c r="B384" t="inlineStr"/>
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B384" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C384" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -10531,7 +11182,10 @@
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "246401.97", "borrower_amount": "246401.97"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -10567,8 +11221,19 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
-      <c r="B433" t="inlineStr"/>
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B433" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" s="4" t="inlineStr">
@@ -10584,8 +11249,19 @@
       <c r="K433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
-      <c r="B434" t="inlineStr"/>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B434" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
@@ -10605,8 +11281,19 @@
       <c r="K434" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr"/>
-      <c r="B435" t="inlineStr"/>
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B435" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C435" t="inlineStr">
         <is>
           <t>01/Mar/2025</t>
@@ -10758,7 +11445,10 @@
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022796/24", "lender_amount": "26369.63", "borrower_amount": "26369.63"}</t>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -10794,8 +11484,19 @@
       <c r="K441" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr"/>
-      <c r="B442" t="inlineStr"/>
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B442" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" s="4" t="inlineStr">
@@ -10811,8 +11512,19 @@
       <c r="K442" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr"/>
-      <c r="B443" t="inlineStr"/>
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B443" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
@@ -10832,8 +11544,19 @@
       <c r="K443" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr"/>
-      <c r="B444" t="inlineStr"/>
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B444" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C444" t="inlineStr">
         <is>
           <t>02/Mar/2025</t>
@@ -11242,7 +11965,10 @@
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "2357.50", "borrower_amount": "2357.50"}</t>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -11278,8 +12004,19 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
-      <c r="B462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B462" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
       <c r="E462" s="4" t="inlineStr">
@@ -11295,8 +12032,19 @@
       <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
-      <c r="B463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B463" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
@@ -11316,8 +12064,19 @@
       <c r="K463" t="inlineStr"/>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr"/>
-      <c r="B464" t="inlineStr"/>
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B464" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C464" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -11396,7 +12155,10 @@
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150235/25", "lender_amount": "213500.00", "borrower_amount": "213500.00"}</t>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -11432,8 +12194,19 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
-      <c r="B468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B468" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
       <c r="E468" s="4" t="inlineStr">
@@ -11449,8 +12222,19 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
-      <c r="B469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B469" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
@@ -11477,7 +12261,10 @@
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -11513,8 +12300,19 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
-      <c r="B471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B471" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr"/>
       <c r="E471" s="4" t="inlineStr">
@@ -11530,8 +12328,19 @@
       <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
-      <c r="B472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B472" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
@@ -11558,7 +12367,10 @@
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-187724010122/24", "lender_amount": "276518.90", "borrower_amount": "276518.90"}</t>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -11594,8 +12406,19 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
-      <c r="B474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B474" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
       <c r="E474" s="4" t="inlineStr">
@@ -11613,8 +12436,19 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
-      <c r="B475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B475" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
       <c r="E475" s="4" t="inlineStr">
@@ -11632,8 +12466,19 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11649,8 +12494,19 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
-      <c r="B477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B477" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -11670,8 +12526,19 @@
       <c r="K477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
-      <c r="B478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B478" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C478" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -12407,7 +13274,10 @@
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "54431.58", "borrower_amount": "54431.58"}</t>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -12443,8 +13313,19 @@
       <c r="K508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
-      <c r="B509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B509" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
       <c r="E509" s="4" t="inlineStr">
@@ -12460,8 +13341,19 @@
       <c r="K509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
-      <c r="B510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B510" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
@@ -12481,8 +13373,19 @@
       <c r="K510" t="inlineStr"/>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
-      <c r="B511" t="inlineStr"/>
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B511" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C511" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -12707,7 +13610,10 @@
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524027065/24", "lender_amount": "8231.99", "borrower_amount": "8231.99"}</t>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -12743,8 +13649,19 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
-      <c r="B521" t="inlineStr"/>
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B521" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -12760,8 +13677,19 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
-      <c r="B522" t="inlineStr"/>
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B522" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
@@ -12781,8 +13709,19 @@
       <c r="K522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr"/>
-      <c r="B523" t="inlineStr"/>
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B523" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C523" t="inlineStr">
         <is>
           <t>20/Mar/2025</t>
@@ -13825,7 +14764,10 @@
       </c>
       <c r="B570" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020708/24", "lender_amount": "19399.10", "borrower_amount": "19399.10"}</t>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -13861,8 +14803,19 @@
       <c r="K570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
-      <c r="B571" t="inlineStr"/>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B571" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" s="4" t="inlineStr">
@@ -13878,8 +14831,19 @@
       <c r="K571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
-      <c r="B572" t="inlineStr"/>
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B572" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
@@ -13906,7 +14870,10 @@
       </c>
       <c r="B573" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524990243/24", "lender_amount": "15160.97", "borrower_amount": "15160.97"}</t>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -13942,8 +14909,19 @@
       <c r="K573" t="inlineStr"/>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr"/>
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B574" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" s="4" t="inlineStr">
@@ -13959,8 +14937,19 @@
       <c r="K574" t="inlineStr"/>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
-      <c r="B575" t="inlineStr"/>
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B575" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
@@ -13980,8 +14969,19 @@
       <c r="K575" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr"/>
-      <c r="B576" t="inlineStr"/>
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B576" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C576" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -14136,7 +15136,10 @@
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "6125933.94", "borrower_amount": "6125933.94"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -14172,8 +15175,19 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr"/>
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B584" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
       <c r="E584" s="4" t="inlineStr">
@@ -14191,8 +15205,19 @@
       <c r="K584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr"/>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B585" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" s="4" t="inlineStr">
@@ -14210,8 +15235,19 @@
       <c r="K585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr"/>
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B586" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
       <c r="E586" s="4" t="inlineStr">
@@ -14227,8 +15263,19 @@
       <c r="K586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr"/>
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B587" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
@@ -14255,7 +15302,10 @@
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "12425.77", "borrower_amount": "12425.77"}</t>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -14291,8 +15341,19 @@
       <c r="K588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr"/>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B589" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" s="4" t="inlineStr">
@@ -14308,8 +15369,19 @@
       <c r="K589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
-      <c r="B590" t="inlineStr"/>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B590" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
@@ -14336,7 +15408,10 @@
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524022495/24", "lender_amount": "23580.68", "borrower_amount": "23580.68"}</t>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -14372,8 +15447,19 @@
       <c r="K591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
-      <c r="B592" t="inlineStr"/>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B592" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
       <c r="E592" s="4" t="inlineStr">
@@ -14389,8 +15475,19 @@
       <c r="K592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
-      <c r="B593" t="inlineStr"/>
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B593" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
@@ -14410,8 +15507,19 @@
       <c r="K593" t="inlineStr"/>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
-      <c r="B594" t="inlineStr"/>
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B594" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C594" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -15403,7 +16511,10 @@
       </c>
       <c r="B640" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021741/25", "lender_amount": "22671.95", "borrower_amount": "22671.95"}</t>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -15439,8 +16550,19 @@
       <c r="K640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
-      <c r="B641" t="inlineStr"/>
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B641" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
       <c r="E641" s="4" t="inlineStr">
@@ -15456,8 +16578,19 @@
       <c r="K641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
-      <c r="B642" t="inlineStr"/>
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B642" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
@@ -15484,7 +16617,10 @@
       </c>
       <c r="B643" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308525021745/25", "lender_amount": "28854.86", "borrower_amount": "28854.86"}</t>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -15520,8 +16656,19 @@
       <c r="K643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr"/>
-      <c r="B644" t="inlineStr"/>
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B644" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
       <c r="E644" s="4" t="inlineStr">
@@ -15537,8 +16684,19 @@
       <c r="K644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr"/>
-      <c r="B645" t="inlineStr"/>
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B645" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
@@ -15565,7 +16723,10 @@
       </c>
       <c r="B646" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -15601,8 +16762,19 @@
       <c r="K646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr"/>
-      <c r="B647" t="inlineStr"/>
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B647" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" s="4" t="inlineStr">
@@ -15618,8 +16790,19 @@
       <c r="K647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr"/>
-      <c r="B648" t="inlineStr"/>
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B648" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
@@ -15639,8 +16822,19 @@
       <c r="K648" t="inlineStr"/>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr"/>
-      <c r="B649" t="inlineStr"/>
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B649" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C649" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -16157,7 +17351,10 @@
       </c>
       <c r="B670" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "80051.03", "borrower_amount": "80051.03"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -16193,8 +17390,19 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr"/>
-      <c r="B671" t="inlineStr"/>
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B671" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
       <c r="E671" s="4" t="inlineStr">
@@ -16210,8 +17418,19 @@
       <c r="K671" t="inlineStr"/>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr"/>
-      <c r="B672" t="inlineStr"/>
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B672" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
@@ -16238,7 +17457,10 @@
       </c>
       <c r="B673" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "6777058.20", "borrower_amount": "6777058.20"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -16274,8 +17496,19 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
-      <c r="B674" t="inlineStr"/>
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B674" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
       <c r="E674" s="4" t="inlineStr">
@@ -16293,8 +17526,19 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
-      <c r="B675" t="inlineStr"/>
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B675" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
       <c r="E675" s="4" t="inlineStr">
@@ -16312,8 +17556,19 @@
       <c r="K675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -16329,8 +17584,19 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
-      <c r="B677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B677" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -16350,8 +17616,19 @@
       <c r="K677" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr"/>
-      <c r="B678" t="inlineStr"/>
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B678" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C678" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -16430,7 +17707,10 @@
       </c>
       <c r="B681" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-155823010186/23", "lender_amount": "76000.00", "borrower_amount": "76000.00"}</t>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -16466,8 +17746,19 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
-      <c r="B682" t="inlineStr"/>
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B682" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" s="4" t="inlineStr">
@@ -16485,8 +17776,19 @@
       <c r="K682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
-      <c r="B683" t="inlineStr"/>
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B683" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
       <c r="E683" s="4" t="inlineStr">
@@ -16504,8 +17806,19 @@
       <c r="K683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr"/>
-      <c r="B684" t="inlineStr"/>
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B684" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" s="4" t="inlineStr">
@@ -16521,8 +17834,19 @@
       <c r="K684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
-      <c r="B685" t="inlineStr"/>
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B685" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
@@ -16542,8 +17866,19 @@
       <c r="K685" t="inlineStr"/>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr"/>
-      <c r="B686" t="inlineStr"/>
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B686" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C686" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -16768,7 +18103,10 @@
       </c>
       <c r="B695" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524026037/222824023549", "lender_amount": "1226351.09", "borrower_amount": "1226351.09"}</t>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -16804,8 +18142,19 @@
       <c r="K695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr"/>
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B696" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" s="4" t="inlineStr">
@@ -16821,8 +18170,19 @@
       <c r="K696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr"/>
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B697" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
@@ -16842,8 +18202,19 @@
       <c r="K697" t="inlineStr"/>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr"/>
-      <c r="B698" t="inlineStr"/>
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B698" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C698" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -16922,7 +18293,10 @@
       </c>
       <c r="B701" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022495/24", "lender_amount": "1675000.00", "borrower_amount": "1675000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -16958,8 +18332,19 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr"/>
-      <c r="B702" t="inlineStr"/>
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B702" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" s="4" t="inlineStr">
@@ -16975,8 +18360,19 @@
       <c r="K702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
-      <c r="B703" t="inlineStr"/>
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B703" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
@@ -16996,8 +18392,19 @@
       <c r="K703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr"/>
-      <c r="B704" t="inlineStr"/>
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B704" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C704" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -17149,7 +18556,10 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020027/25", "lender_amount": "10691988.92", "borrower_amount": "10691988.92"}</t>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -17185,8 +18595,19 @@
       <c r="K710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
-      <c r="B711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B711" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -17202,8 +18623,19 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
-      <c r="B712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B712" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
@@ -17230,7 +18662,10 @@
       </c>
       <c r="B713" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-222825150151/25", "lender_amount": "333706.76", "borrower_amount": "333706.76"}</t>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -17266,8 +18701,19 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
-      <c r="B714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B714" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
       <c r="E714" s="4" t="inlineStr">
@@ -17283,8 +18729,19 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
-      <c r="B715" t="inlineStr"/>
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B715" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
@@ -17311,7 +18768,10 @@
       </c>
       <c r="B716" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020063/25", "lender_amount": "299000.00", "borrower_amount": "299000.00"}</t>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -17347,8 +18807,19 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr"/>
-      <c r="B717" t="inlineStr"/>
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B717" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
       <c r="E717" s="4" t="inlineStr">
@@ -17364,8 +18835,19 @@
       <c r="K717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr"/>
-      <c r="B718" t="inlineStr"/>
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B718" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
@@ -17385,8 +18867,19 @@
       <c r="K718" t="inlineStr"/>
     </row>
     <row r="719">
-      <c r="A719" t="inlineStr"/>
-      <c r="B719" t="inlineStr"/>
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B719" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C719" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -17465,7 +18958,10 @@
       </c>
       <c r="B722" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "13743.52", "borrower_amount": "13743.52"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -17501,8 +18997,19 @@
       <c r="K722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr"/>
-      <c r="B723" t="inlineStr"/>
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B723" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" s="4" t="inlineStr">
@@ -17518,8 +19025,19 @@
       <c r="K723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr"/>
-      <c r="B724" t="inlineStr"/>
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B724" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
@@ -17539,8 +19057,19 @@
       <c r="K724" t="inlineStr"/>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr"/>
-      <c r="B725" t="inlineStr"/>
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B725" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C725" t="inlineStr">
         <is>
           <t>24/Apr/2025</t>
@@ -17787,7 +19316,10 @@
       </c>
       <c r="B736" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825020020/25", "lender_amount": "60302.55", "borrower_amount": "60302.55"}</t>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -17823,8 +19355,19 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr"/>
-      <c r="B737" t="inlineStr"/>
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B737" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" s="4" t="inlineStr">
@@ -17840,8 +19383,19 @@
       <c r="K737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr"/>
-      <c r="B738" t="inlineStr"/>
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B738" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
@@ -17868,7 +19422,10 @@
       </c>
       <c r="B739" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "124008.78", "borrower_amount": "124008.78"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -17904,8 +19461,19 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr"/>
-      <c r="B740" t="inlineStr"/>
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B740" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
       <c r="E740" s="4" t="inlineStr">
@@ -17921,8 +19489,19 @@
       <c r="K740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr"/>
-      <c r="B741" t="inlineStr"/>
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B741" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
@@ -17949,7 +19528,10 @@
       </c>
       <c r="B742" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "31609.80", "borrower_amount": "31609.80"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -17985,8 +19567,19 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr"/>
-      <c r="B743" t="inlineStr"/>
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B743" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" s="4" t="inlineStr">
@@ -18002,8 +19595,19 @@
       <c r="K743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr"/>
-      <c r="B744" t="inlineStr"/>
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B744" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
@@ -18023,8 +19627,19 @@
       <c r="K744" t="inlineStr"/>
     </row>
     <row r="745">
-      <c r="A745" t="inlineStr"/>
-      <c r="B745" t="inlineStr"/>
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B745" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C745" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -18433,7 +20048,10 @@
       </c>
       <c r="B762" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020104/25", "lender_amount": "10424886.36", "borrower_amount": "10424886.36"}</t>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -18469,8 +20087,19 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr"/>
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B763" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
       <c r="E763" s="4" t="inlineStr">
@@ -18486,8 +20115,19 @@
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr"/>
-      <c r="B764" t="inlineStr"/>
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B764" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
@@ -18514,7 +20154,10 @@
       </c>
       <c r="B765" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020063/25", "lender_amount": "2168751.40", "borrower_amount": "2168751.40"}</t>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -18550,8 +20193,19 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr"/>
-      <c r="B766" t="inlineStr"/>
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B766" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
       <c r="E766" s="4" t="inlineStr">
@@ -18567,8 +20221,19 @@
       <c r="K766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr"/>
-      <c r="B767" t="inlineStr"/>
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B767" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
@@ -18588,8 +20253,19 @@
       <c r="K767" t="inlineStr"/>
     </row>
     <row r="768">
-      <c r="A768" t="inlineStr"/>
-      <c r="B768" t="inlineStr"/>
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B768" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C768" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -18668,7 +20344,10 @@
       </c>
       <c r="B771" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-141325020068/25", "lender_amount": "63787.54", "borrower_amount": "63787.54"}</t>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -18704,8 +20383,19 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr"/>
-      <c r="B772" t="inlineStr"/>
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B772" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" s="4" t="inlineStr">
@@ -18721,8 +20411,19 @@
       <c r="K772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr"/>
-      <c r="B773" t="inlineStr"/>
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B773" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
@@ -18742,8 +20443,19 @@
       <c r="K773" t="inlineStr"/>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr"/>
-      <c r="B774" t="inlineStr"/>
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B774" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C774" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -22132,7 +23844,10 @@
       </c>
       <c r="B920" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020104/25", "lender_amount": "111771.42", "borrower_amount": "111771.42"}</t>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -22168,8 +23883,19 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr"/>
-      <c r="B921" t="inlineStr"/>
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B921" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
       <c r="E921" s="4" t="inlineStr">
@@ -22185,8 +23911,19 @@
       <c r="K921" t="inlineStr"/>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr"/>
-      <c r="B922" t="inlineStr"/>
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B922" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
         <is>
@@ -22213,7 +23950,10 @@
       </c>
       <c r="B923" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "80701.76", "borrower_amount": "80701.76"}</t>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -22249,8 +23989,19 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
-      <c r="B924" t="inlineStr"/>
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B924" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" s="4" t="inlineStr">
@@ -22266,8 +24017,19 @@
       <c r="K924" t="inlineStr"/>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
-      <c r="B925" t="inlineStr"/>
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B925" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
@@ -22294,7 +24056,10 @@
       </c>
       <c r="B926" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020112/25", "lender_amount": "657.81", "borrower_amount": "657.81"}</t>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -22330,8 +24095,19 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
-      <c r="B927" t="inlineStr"/>
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B927" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" s="4" t="inlineStr">
@@ -22347,8 +24123,19 @@
       <c r="K927" t="inlineStr"/>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr"/>
-      <c r="B928" t="inlineStr"/>
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B928" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
@@ -22368,8 +24155,19 @@
       <c r="K928" t="inlineStr"/>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr"/>
-      <c r="B929" t="inlineStr"/>
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B929" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C929" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -22667,7 +24465,10 @@
       </c>
       <c r="B941" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/25", "lender_amount": "81730.06", "borrower_amount": "81730.06"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -22703,8 +24504,19 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr"/>
-      <c r="B942" t="inlineStr"/>
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B942" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" s="4" t="inlineStr">
@@ -22720,8 +24532,19 @@
       <c r="K942" t="inlineStr"/>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr"/>
-      <c r="B943" t="inlineStr"/>
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B943" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
@@ -22741,8 +24564,19 @@
       <c r="K943" t="inlineStr"/>
     </row>
     <row r="944">
-      <c r="A944" t="inlineStr"/>
-      <c r="B944" t="inlineStr"/>
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B944" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C944" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -23113,7 +24947,10 @@
       </c>
       <c r="B959" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "341847.68", "borrower_amount": "341847.68"}</t>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -23149,8 +24986,19 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
-      <c r="B960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B960" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr"/>
       <c r="E960" s="4" t="inlineStr">
@@ -23168,8 +25016,19 @@
       <c r="K960" t="inlineStr"/>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr"/>
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B961" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr"/>
       <c r="E961" s="4" t="inlineStr">
@@ -23187,8 +25046,19 @@
       <c r="K961" t="inlineStr"/>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr"/>
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B962" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C962" t="inlineStr"/>
       <c r="D962" t="inlineStr"/>
       <c r="E962" s="4" t="inlineStr">
@@ -23204,8 +25074,19 @@
       <c r="K962" t="inlineStr"/>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
-      <c r="B963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B963" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
         <is>
@@ -23225,8 +25106,19 @@
       <c r="K963" t="inlineStr"/>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr"/>
-      <c r="B964" t="inlineStr"/>
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B964" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C964" t="inlineStr">
         <is>
           <t>28/May/2025</t>
@@ -23416,7 +25308,10 @@
       </c>
       <c r="B972" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-222825150235/25", "lender_amount": "36757.00", "borrower_amount": "36757.00"}</t>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -23452,8 +25347,19 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr"/>
-      <c r="B973" t="inlineStr"/>
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B973" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" s="4" t="inlineStr">
@@ -23469,8 +25375,19 @@
       <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr"/>
-      <c r="B974" t="inlineStr"/>
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B974" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
         <is>
@@ -23490,8 +25407,19 @@
       <c r="K974" t="inlineStr"/>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr"/>
-      <c r="B975" t="inlineStr"/>
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B975" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C975" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -23570,7 +25498,10 @@
       </c>
       <c r="B978" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020068/25", "lender_amount": "3587219.00", "borrower_amount": "3587219.00"}</t>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -23606,8 +25537,19 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr"/>
-      <c r="B979" t="inlineStr"/>
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B979" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
       <c r="E979" s="4" t="inlineStr">
@@ -23625,8 +25567,19 @@
       <c r="K979" t="inlineStr"/>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
-      <c r="B980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B980" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
       <c r="E980" s="4" t="inlineStr">
@@ -23644,8 +25597,19 @@
       <c r="K980" t="inlineStr"/>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
-      <c r="B981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B981" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
       <c r="E981" s="4" t="inlineStr">
@@ -23663,8 +25627,19 @@
       <c r="K981" t="inlineStr"/>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
-      <c r="B982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B982" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
       <c r="E982" s="4" t="inlineStr">
@@ -23680,8 +25655,19 @@
       <c r="K982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
-      <c r="B983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B983" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
         <is>
@@ -23708,7 +25694,10 @@
       </c>
       <c r="B984" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524990243/24", "lender_amount": "68747.06", "borrower_amount": "68747.06"}</t>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -23744,8 +25733,19 @@
       <c r="K984" t="inlineStr"/>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B985" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
       <c r="E985" s="4" t="inlineStr">
@@ -23761,8 +25761,19 @@
       <c r="K985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
-      <c r="B986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B986" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
         <is>
@@ -23782,8 +25793,19 @@
       <c r="K986" t="inlineStr"/>
     </row>
     <row r="987">
-      <c r="A987" t="inlineStr"/>
-      <c r="B987" t="inlineStr"/>
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B987" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C987" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -24323,7 +26345,10 @@
       </c>
       <c r="B1010" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021741/25", "lender_amount": "31411.11", "borrower_amount": "31411.11"}</t>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -24359,8 +26384,19 @@
       <c r="K1010" t="inlineStr"/>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr"/>
-      <c r="B1011" t="inlineStr"/>
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1011" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
       <c r="E1011" s="4" t="inlineStr">
@@ -24376,8 +26412,19 @@
       <c r="K1011" t="inlineStr"/>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr"/>
-      <c r="B1012" t="inlineStr"/>
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1012" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
@@ -24397,8 +26444,19 @@
       <c r="K1012" t="inlineStr"/>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr"/>
-      <c r="B1013" t="inlineStr"/>
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1013" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1013" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -24843,7 +26901,10 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-155825010037/25", "lender_amount": "853297.01", "borrower_amount": "853297.01"}</t>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -24879,8 +26940,19 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
-      <c r="B1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1032" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -24896,8 +26968,19 @@
       <c r="K1032" t="inlineStr"/>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
-      <c r="B1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1033" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
         <is>
@@ -24917,8 +27000,19 @@
       <c r="K1033" t="inlineStr"/>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr"/>
-      <c r="B1034" t="inlineStr"/>
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1034" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1034" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -26514,7 +28608,10 @@
       </c>
       <c r="B1100" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020163/25", "lender_amount": "1725.00", "borrower_amount": "1725.00"}</t>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -26550,8 +28647,19 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr"/>
-      <c r="B1101" t="inlineStr"/>
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1101" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" s="4" t="inlineStr">
@@ -26567,8 +28675,19 @@
       <c r="K1101" t="inlineStr"/>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr"/>
-      <c r="B1102" t="inlineStr"/>
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1102" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
@@ -26595,7 +28714,10 @@
       </c>
       <c r="B1103" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308525021746/25", "lender_amount": "35373.50", "borrower_amount": "35373.50"}</t>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -26631,8 +28753,19 @@
       <c r="K1103" t="inlineStr"/>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr"/>
-      <c r="B1104" t="inlineStr"/>
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1104" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" s="4" t="inlineStr">
@@ -26648,8 +28781,19 @@
       <c r="K1104" t="inlineStr"/>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr"/>
-      <c r="B1105" t="inlineStr"/>
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1105" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
         <is>
@@ -26669,8 +28813,19 @@
       <c r="K1105" t="inlineStr"/>
     </row>
     <row r="1106">
-      <c r="A1106" t="inlineStr"/>
-      <c r="B1106" t="inlineStr"/>
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1106" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -27152,7 +29307,10 @@
       </c>
       <c r="B1126" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-141325020063/141325020112", "lender_amount": "576120.39", "borrower_amount": "576120.39"}</t>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -27188,8 +29346,19 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
-      <c r="B1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1127" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" s="4" t="inlineStr">
@@ -27207,8 +29376,19 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr"/>
-      <c r="B1128" t="inlineStr"/>
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1128" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" s="4" t="inlineStr">
@@ -27226,8 +29406,19 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
-      <c r="B1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1129" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -27245,8 +29436,19 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
-      <c r="B1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1130" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" s="4" t="inlineStr">
@@ -27264,8 +29466,19 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr"/>
-      <c r="B1131" t="inlineStr"/>
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1131" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" s="4" t="inlineStr">
@@ -27281,8 +29494,19 @@
       <c r="K1131" t="inlineStr"/>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr"/>
-      <c r="B1132" t="inlineStr"/>
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1132" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
@@ -27309,7 +29533,10 @@
       </c>
       <c r="B1133" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "758000.00", "borrower_amount": "758000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -27345,8 +29572,19 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr"/>
-      <c r="B1134" t="inlineStr"/>
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1134" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" s="4" t="inlineStr">
@@ -27362,8 +29600,19 @@
       <c r="K1134" t="inlineStr"/>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr"/>
-      <c r="B1135" t="inlineStr"/>
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1135" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
@@ -27383,8 +29632,19 @@
       <c r="K1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" t="inlineStr"/>
-      <c r="B1136" t="inlineStr"/>
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1136" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1136" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -27974,7 +30234,10 @@
       </c>
       <c r="B1160" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "LC-308524022166 ", "lender_amount": "4009000.00", "borrower_amount": "4009000.00"}</t>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -28010,8 +30273,19 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
-      <c r="B1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1161" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" s="4" t="inlineStr">
@@ -28027,8 +30301,19 @@
       <c r="K1161" t="inlineStr"/>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr"/>
-      <c r="B1162" t="inlineStr"/>
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1162" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
         <is>
@@ -28048,8 +30333,19 @@
       <c r="K1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" t="inlineStr"/>
-      <c r="B1163" t="inlineStr"/>
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1163" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1163" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -28201,7 +30497,10 @@
       </c>
       <c r="B1169" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-308524026037/24", "lender_amount": "14417.98", "borrower_amount": "14417.98"}</t>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -28237,8 +30536,19 @@
       <c r="K1169" t="inlineStr"/>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
-      <c r="B1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1170" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" s="4" t="inlineStr">
@@ -28254,8 +30564,19 @@
       <c r="K1170" t="inlineStr"/>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
-      <c r="B1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1171" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
@@ -28275,8 +30596,19 @@
       <c r="K1171" t="inlineStr"/>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr"/>
-      <c r="B1172" t="inlineStr"/>
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1172" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1172" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -28866,7 +31198,10 @@
       </c>
       <c r="B1196" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147125020202/25", "lender_amount": "3499168.01", "borrower_amount": "3499168.01"}</t>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -28902,8 +31237,19 @@
       <c r="K1196" t="inlineStr"/>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
-      <c r="B1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1197" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" s="4" t="inlineStr">
@@ -28919,8 +31265,19 @@
       <c r="K1197" t="inlineStr"/>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
-      <c r="B1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1198" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
@@ -28940,8 +31297,19 @@
       <c r="K1198" t="inlineStr"/>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr"/>
-      <c r="B1199" t="inlineStr"/>
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1199" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1199" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
@@ -29375,7 +31743,10 @@
       </c>
       <c r="B1219" s="4" t="inlineStr">
         <is>
-          <t>{"match_type": "LC", "match_method": "reference_match", "lc_number": "L/C-147124020074/24", "lender_amount": "6242871.55", "borrower_amount": "6242871.55"}</t>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -29411,8 +31782,19 @@
       <c r="K1219" t="inlineStr"/>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr"/>
-      <c r="B1220" t="inlineStr"/>
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1220" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" s="4" t="inlineStr">
@@ -29428,8 +31810,19 @@
       <c r="K1220" t="inlineStr"/>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr"/>
-      <c r="B1221" t="inlineStr"/>
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1221" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>
@@ -29449,8 +31842,19 @@
       <c r="K1221" t="inlineStr"/>
     </row>
     <row r="1222">
-      <c r="A1222" t="inlineStr"/>
-      <c r="B1222" t="inlineStr"/>
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1222" s="4" t="inlineStr">
+        <is>
+          <t>Match Type: LC Match
+L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1222" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1588,14 +1588,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
@@ -1616,14 +1609,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
@@ -1694,14 +1680,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
@@ -1724,14 +1703,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
@@ -1754,14 +1726,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
@@ -1784,14 +1749,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
@@ -1812,14 +1770,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
@@ -1844,14 +1795,7 @@
           <t>M002</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -2047,14 +1991,7 @@
           <t>M003</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
@@ -2075,14 +2012,7 @@
           <t>M003</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
@@ -2153,14 +2083,7 @@
           <t>M005</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
@@ -2181,14 +2104,7 @@
           <t>M005</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
@@ -2213,14 +2129,7 @@
           <t>M005</t>
         </is>
       </c>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>07/Jan/2025</t>
@@ -2562,14 +2471,7 @@
           <t>M007</t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
@@ -2590,14 +2492,7 @@
           <t>M007</t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
@@ -2668,14 +2563,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
@@ -2696,14 +2584,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
@@ -2728,14 +2609,7 @@
           <t>M009</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>19/Jan/2025</t>
@@ -3150,14 +3024,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
@@ -3178,14 +3045,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B109" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
@@ -3210,14 +3070,7 @@
           <t>M010</t>
         </is>
       </c>
-      <c r="B110" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>29/Jan/2025</t>
@@ -6008,14 +5861,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B230" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" s="4" t="inlineStr">
@@ -6036,14 +5882,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B231" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
@@ -6068,14 +5907,7 @@
           <t>M012</t>
         </is>
       </c>
-      <c r="B232" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -6198,14 +6030,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B236" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" s="4" t="inlineStr">
@@ -6226,14 +6051,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B237" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
@@ -6258,14 +6076,7 @@
           <t>M013</t>
         </is>
       </c>
-      <c r="B238" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
           <t>05/Feb/2025</t>
@@ -6718,14 +6529,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B256" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" s="4" t="inlineStr">
@@ -6746,14 +6550,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B257" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
@@ -6778,14 +6575,7 @@
           <t>M014</t>
         </is>
       </c>
-      <c r="B258" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
           <t>10/Feb/2025</t>
@@ -7257,14 +7047,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B277" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
       <c r="E277" s="4" t="inlineStr">
@@ -7285,14 +7068,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B278" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
@@ -7317,14 +7093,7 @@
           <t>M015</t>
         </is>
       </c>
-      <c r="B279" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
           <t>12/Feb/2025</t>
@@ -8748,14 +8517,7 @@
           <t>M016</t>
         </is>
       </c>
-      <c r="B338" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
       <c r="E338" s="4" t="inlineStr">
@@ -8776,14 +8538,7 @@
           <t>M016</t>
         </is>
       </c>
-      <c r="B339" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
@@ -8854,14 +8609,7 @@
           <t>M017</t>
         </is>
       </c>
-      <c r="B341" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" s="4" t="inlineStr">
@@ -8882,14 +8630,7 @@
           <t>M017</t>
         </is>
       </c>
-      <c r="B342" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
@@ -8960,14 +8701,7 @@
           <t>M018</t>
         </is>
       </c>
-      <c r="B344" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="4" t="inlineStr">
@@ -8988,14 +8722,7 @@
           <t>M018</t>
         </is>
       </c>
-      <c r="B345" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
@@ -9066,14 +8793,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B347" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
       <c r="E347" s="4" t="inlineStr">
@@ -9094,14 +8814,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B348" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
@@ -9126,14 +8839,7 @@
           <t>M019</t>
         </is>
       </c>
-      <c r="B349" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr">
         <is>
           <t>24/Feb/2025</t>
@@ -9476,14 +9182,7 @@
           <t>M020</t>
         </is>
       </c>
-      <c r="B362" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
@@ -9504,14 +9203,7 @@
           <t>M020</t>
         </is>
       </c>
-      <c r="B363" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
@@ -9582,14 +9274,7 @@
           <t>M021</t>
         </is>
       </c>
-      <c r="B365" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" s="4" t="inlineStr">
@@ -9610,14 +9295,7 @@
           <t>M021</t>
         </is>
       </c>
-      <c r="B366" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
@@ -9688,14 +9366,7 @@
           <t>M022</t>
         </is>
       </c>
-      <c r="B368" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
       <c r="E368" s="4" t="inlineStr">
@@ -9716,14 +9387,7 @@
           <t>M022</t>
         </is>
       </c>
-      <c r="B369" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
@@ -9748,14 +9412,7 @@
           <t>M022</t>
         </is>
       </c>
-      <c r="B370" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -10025,14 +9682,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B380" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
       <c r="E380" s="4" t="inlineStr">
@@ -10055,14 +9705,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B381" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" s="4" t="inlineStr">
@@ -10085,14 +9728,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B382" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
       <c r="E382" s="4" t="inlineStr">
@@ -10113,14 +9749,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B383" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
@@ -10145,14 +9774,7 @@
           <t>M023</t>
         </is>
       </c>
-      <c r="B384" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -11226,14 +10848,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B433" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" s="4" t="inlineStr">
@@ -11254,14 +10869,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B434" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
@@ -11286,14 +10894,7 @@
           <t>M024</t>
         </is>
       </c>
-      <c r="B435" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
           <t>01/Mar/2025</t>
@@ -11489,14 +11090,7 @@
           <t>M025</t>
         </is>
       </c>
-      <c r="B442" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="B442" t="inlineStr"/>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" s="4" t="inlineStr">
@@ -11517,14 +11111,7 @@
           <t>M025</t>
         </is>
       </c>
-      <c r="B443" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="B443" t="inlineStr"/>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
@@ -11549,14 +11136,7 @@
           <t>M025</t>
         </is>
       </c>
-      <c r="B444" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr">
         <is>
           <t>02/Mar/2025</t>
@@ -12009,14 +11589,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B462" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
       <c r="E462" s="4" t="inlineStr">
@@ -12037,14 +11610,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B463" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
@@ -12069,14 +11635,7 @@
           <t>M026</t>
         </is>
       </c>
-      <c r="B464" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -12199,14 +11758,7 @@
           <t>M027</t>
         </is>
       </c>
-      <c r="B468" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
       <c r="E468" s="4" t="inlineStr">
@@ -12227,14 +11779,7 @@
           <t>M027</t>
         </is>
       </c>
-      <c r="B469" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
@@ -12305,14 +11850,7 @@
           <t>M028</t>
         </is>
       </c>
-      <c r="B471" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr"/>
       <c r="E471" s="4" t="inlineStr">
@@ -12333,14 +11871,7 @@
           <t>M028</t>
         </is>
       </c>
-      <c r="B472" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
@@ -12411,14 +11942,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B474" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
       <c r="E474" s="4" t="inlineStr">
@@ -12441,14 +11965,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B475" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
       <c r="E475" s="4" t="inlineStr">
@@ -12471,14 +11988,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B476" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -12499,14 +12009,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B477" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -12531,14 +12034,7 @@
           <t>M029</t>
         </is>
       </c>
-      <c r="B478" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -13318,14 +12814,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B509" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
       <c r="E509" s="4" t="inlineStr">
@@ -13346,14 +12835,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B510" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
@@ -13378,14 +12860,7 @@
           <t>M030</t>
         </is>
       </c>
-      <c r="B511" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -13654,14 +13129,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B521" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -13682,14 +13150,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B522" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
@@ -13714,14 +13175,7 @@
           <t>M031</t>
         </is>
       </c>
-      <c r="B523" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
           <t>20/Mar/2025</t>
@@ -14808,14 +14262,7 @@
           <t>M032</t>
         </is>
       </c>
-      <c r="B571" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" s="4" t="inlineStr">
@@ -14836,14 +14283,7 @@
           <t>M032</t>
         </is>
       </c>
-      <c r="B572" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
@@ -14914,14 +14354,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B574" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B574" t="inlineStr"/>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" s="4" t="inlineStr">
@@ -14942,14 +14375,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B575" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
@@ -14974,14 +14400,7 @@
           <t>M033</t>
         </is>
       </c>
-      <c r="B576" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+      <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -15180,14 +14599,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B584" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
       <c r="E584" s="4" t="inlineStr">
@@ -15210,14 +14622,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B585" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" s="4" t="inlineStr">
@@ -15240,14 +14645,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B586" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B586" t="inlineStr"/>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
       <c r="E586" s="4" t="inlineStr">
@@ -15268,14 +14666,7 @@
           <t>M034</t>
         </is>
       </c>
-      <c r="B587" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="B587" t="inlineStr"/>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
@@ -15346,14 +14737,7 @@
           <t>M035</t>
         </is>
       </c>
-      <c r="B589" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" s="4" t="inlineStr">
@@ -15374,14 +14758,7 @@
           <t>M035</t>
         </is>
       </c>
-      <c r="B590" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
@@ -15452,14 +14829,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B592" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B592" t="inlineStr"/>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
       <c r="E592" s="4" t="inlineStr">
@@ -15480,14 +14850,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B593" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B593" t="inlineStr"/>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
@@ -15512,14 +14875,7 @@
           <t>M036</t>
         </is>
       </c>
-      <c r="B594" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
           <t>31/Mar/2025</t>
@@ -16555,14 +15911,7 @@
           <t>M037</t>
         </is>
       </c>
-      <c r="B641" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="B641" t="inlineStr"/>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
       <c r="E641" s="4" t="inlineStr">
@@ -16583,14 +15932,7 @@
           <t>M037</t>
         </is>
       </c>
-      <c r="B642" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
@@ -16661,14 +16003,7 @@
           <t>M038</t>
         </is>
       </c>
-      <c r="B644" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="B644" t="inlineStr"/>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
       <c r="E644" s="4" t="inlineStr">
@@ -16689,14 +16024,7 @@
           <t>M038</t>
         </is>
       </c>
-      <c r="B645" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
@@ -16767,14 +16095,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B647" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" s="4" t="inlineStr">
@@ -16795,14 +16116,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B648" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
@@ -16827,14 +16141,7 @@
           <t>M039</t>
         </is>
       </c>
-      <c r="B649" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B649" t="inlineStr"/>
       <c r="C649" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -17395,14 +16702,7 @@
           <t>M040</t>
         </is>
       </c>
-      <c r="B671" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+      <c r="B671" t="inlineStr"/>
       <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
       <c r="E671" s="4" t="inlineStr">
@@ -17423,14 +16723,7 @@
           <t>M040</t>
         </is>
       </c>
-      <c r="B672" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+      <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
@@ -17501,14 +16794,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B674" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B674" t="inlineStr"/>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
       <c r="E674" s="4" t="inlineStr">
@@ -17531,14 +16817,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B675" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
       <c r="E675" s="4" t="inlineStr">
@@ -17561,14 +16840,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B676" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -17589,14 +16861,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B677" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -17621,14 +16886,7 @@
           <t>M041</t>
         </is>
       </c>
-      <c r="B678" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -17751,14 +17009,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B682" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" s="4" t="inlineStr">
@@ -17781,14 +17032,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B683" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B683" t="inlineStr"/>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
       <c r="E683" s="4" t="inlineStr">
@@ -17811,14 +17055,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B684" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" s="4" t="inlineStr">
@@ -17839,14 +17076,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B685" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B685" t="inlineStr"/>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
@@ -17871,14 +17101,7 @@
           <t>M042</t>
         </is>
       </c>
-      <c r="B686" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="B686" t="inlineStr"/>
       <c r="C686" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -18147,14 +17370,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B696" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" s="4" t="inlineStr">
@@ -18175,14 +17391,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B697" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B697" t="inlineStr"/>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
@@ -18207,14 +17416,7 @@
           <t>M043</t>
         </is>
       </c>
-      <c r="B698" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="B698" t="inlineStr"/>
       <c r="C698" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -18337,14 +17539,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B702" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" s="4" t="inlineStr">
@@ -18365,14 +17560,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B703" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B703" t="inlineStr"/>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
@@ -18397,14 +17585,7 @@
           <t>M044</t>
         </is>
       </c>
-      <c r="B704" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="B704" t="inlineStr"/>
       <c r="C704" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -18600,14 +17781,7 @@
           <t>M045</t>
         </is>
       </c>
-      <c r="B711" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -18628,14 +17802,7 @@
           <t>M045</t>
         </is>
       </c>
-      <c r="B712" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
@@ -18706,14 +17873,7 @@
           <t>M046</t>
         </is>
       </c>
-      <c r="B714" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
       <c r="E714" s="4" t="inlineStr">
@@ -18734,14 +17894,7 @@
           <t>M046</t>
         </is>
       </c>
-      <c r="B715" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
@@ -18812,14 +17965,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B717" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
       <c r="E717" s="4" t="inlineStr">
@@ -18840,14 +17986,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B718" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B718" t="inlineStr"/>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
@@ -18872,14 +18011,7 @@
           <t>M047</t>
         </is>
       </c>
-      <c r="B719" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="B719" t="inlineStr"/>
       <c r="C719" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -19002,14 +18134,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B723" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" s="4" t="inlineStr">
@@ -19030,14 +18155,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B724" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B724" t="inlineStr"/>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
@@ -19062,14 +18180,7 @@
           <t>M048</t>
         </is>
       </c>
-      <c r="B725" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="B725" t="inlineStr"/>
       <c r="C725" t="inlineStr">
         <is>
           <t>24/Apr/2025</t>
@@ -19360,14 +18471,7 @@
           <t>M049</t>
         </is>
       </c>
-      <c r="B737" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" s="4" t="inlineStr">
@@ -19388,14 +18492,7 @@
           <t>M049</t>
         </is>
       </c>
-      <c r="B738" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
@@ -19466,14 +18563,7 @@
           <t>M050</t>
         </is>
       </c>
-      <c r="B740" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="B740" t="inlineStr"/>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
       <c r="E740" s="4" t="inlineStr">
@@ -19494,14 +18584,7 @@
           <t>M050</t>
         </is>
       </c>
-      <c r="B741" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
@@ -19572,14 +18655,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B743" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B743" t="inlineStr"/>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" s="4" t="inlineStr">
@@ -19600,14 +18676,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B744" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
@@ -19632,14 +18701,7 @@
           <t>M051</t>
         </is>
       </c>
-      <c r="B745" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="B745" t="inlineStr"/>
       <c r="C745" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -20092,14 +19154,7 @@
           <t>M052</t>
         </is>
       </c>
-      <c r="B763" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
       <c r="E763" s="4" t="inlineStr">
@@ -20120,14 +19175,7 @@
           <t>M052</t>
         </is>
       </c>
-      <c r="B764" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
@@ -20198,14 +19246,7 @@
           <t>M053</t>
         </is>
       </c>
-      <c r="B766" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
       <c r="E766" s="4" t="inlineStr">
@@ -20226,14 +19267,7 @@
           <t>M053</t>
         </is>
       </c>
-      <c r="B767" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
@@ -20258,14 +19292,7 @@
           <t>M053</t>
         </is>
       </c>
-      <c r="B768" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -20388,14 +19415,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B772" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B772" t="inlineStr"/>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" s="4" t="inlineStr">
@@ -20416,14 +19436,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B773" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
@@ -20448,14 +19461,7 @@
           <t>M054</t>
         </is>
       </c>
-      <c r="B774" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -23888,14 +22894,7 @@
           <t>M055</t>
         </is>
       </c>
-      <c r="B921" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="B921" t="inlineStr"/>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
       <c r="E921" s="4" t="inlineStr">
@@ -23916,14 +22915,7 @@
           <t>M055</t>
         </is>
       </c>
-      <c r="B922" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
         <is>
@@ -23994,14 +22986,7 @@
           <t>M056</t>
         </is>
       </c>
-      <c r="B924" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="B924" t="inlineStr"/>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" s="4" t="inlineStr">
@@ -24022,14 +23007,7 @@
           <t>M056</t>
         </is>
       </c>
-      <c r="B925" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="B925" t="inlineStr"/>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
@@ -24100,14 +23078,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B927" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B927" t="inlineStr"/>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" s="4" t="inlineStr">
@@ -24128,14 +23099,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B928" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
@@ -24160,14 +23124,7 @@
           <t>M057</t>
         </is>
       </c>
-      <c r="B929" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="B929" t="inlineStr"/>
       <c r="C929" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -24509,14 +23466,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B942" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" s="4" t="inlineStr">
@@ -24537,14 +23487,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B943" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
@@ -24569,14 +23512,7 @@
           <t>M058</t>
         </is>
       </c>
-      <c r="B944" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="B944" t="inlineStr"/>
       <c r="C944" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -24991,14 +23927,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B960" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B960" t="inlineStr"/>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr"/>
       <c r="E960" s="4" t="inlineStr">
@@ -25021,14 +23950,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B961" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B961" t="inlineStr"/>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr"/>
       <c r="E961" s="4" t="inlineStr">
@@ -25051,14 +23973,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B962" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B962" t="inlineStr"/>
       <c r="C962" t="inlineStr"/>
       <c r="D962" t="inlineStr"/>
       <c r="E962" s="4" t="inlineStr">
@@ -25079,14 +23994,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B963" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B963" t="inlineStr"/>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
         <is>
@@ -25111,14 +24019,7 @@
           <t>M059</t>
         </is>
       </c>
-      <c r="B964" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+      <c r="B964" t="inlineStr"/>
       <c r="C964" t="inlineStr">
         <is>
           <t>28/May/2025</t>
@@ -25352,14 +24253,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B973" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B973" t="inlineStr"/>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" s="4" t="inlineStr">
@@ -25380,14 +24274,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B974" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
         <is>
@@ -25412,14 +24299,7 @@
           <t>M060</t>
         </is>
       </c>
-      <c r="B975" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="B975" t="inlineStr"/>
       <c r="C975" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -25542,14 +24422,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B979" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B979" t="inlineStr"/>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
       <c r="E979" s="4" t="inlineStr">
@@ -25572,14 +24445,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B980" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B980" t="inlineStr"/>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
       <c r="E980" s="4" t="inlineStr">
@@ -25602,14 +24468,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B981" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
       <c r="E981" s="4" t="inlineStr">
@@ -25632,14 +24491,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B982" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B982" t="inlineStr"/>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
       <c r="E982" s="4" t="inlineStr">
@@ -25660,14 +24512,7 @@
           <t>M061</t>
         </is>
       </c>
-      <c r="B983" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="B983" t="inlineStr"/>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
         <is>
@@ -25738,14 +24583,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B985" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B985" t="inlineStr"/>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
       <c r="E985" s="4" t="inlineStr">
@@ -25766,14 +24604,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B986" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
         <is>
@@ -25798,14 +24629,7 @@
           <t>M062</t>
         </is>
       </c>
-      <c r="B987" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="B987" t="inlineStr"/>
       <c r="C987" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -26389,14 +25213,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1011" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1011" t="inlineStr"/>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
       <c r="E1011" s="4" t="inlineStr">
@@ -26417,14 +25234,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1012" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1012" t="inlineStr"/>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
@@ -26449,14 +25259,7 @@
           <t>M063</t>
         </is>
       </c>
-      <c r="B1013" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="B1013" t="inlineStr"/>
       <c r="C1013" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -26945,14 +25748,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1032" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -26973,14 +25769,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1033" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
         <is>
@@ -27005,14 +25794,7 @@
           <t>M064</t>
         </is>
       </c>
-      <c r="B1034" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -28652,14 +27434,7 @@
           <t>M065</t>
         </is>
       </c>
-      <c r="B1101" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" s="4" t="inlineStr">
@@ -28680,14 +27455,7 @@
           <t>M065</t>
         </is>
       </c>
-      <c r="B1102" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="B1102" t="inlineStr"/>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
@@ -28758,14 +27526,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1104" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1104" t="inlineStr"/>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" s="4" t="inlineStr">
@@ -28786,14 +27547,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1105" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1105" t="inlineStr"/>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
         <is>
@@ -28818,14 +27572,7 @@
           <t>M066</t>
         </is>
       </c>
-      <c r="B1106" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="B1106" t="inlineStr"/>
       <c r="C1106" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -29351,14 +28098,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1127" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" s="4" t="inlineStr">
@@ -29381,14 +28121,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1128" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" s="4" t="inlineStr">
@@ -29411,14 +28144,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1129" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -29441,14 +28167,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1130" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" s="4" t="inlineStr">
@@ -29471,14 +28190,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1131" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" s="4" t="inlineStr">
@@ -29499,14 +28211,7 @@
           <t>M067</t>
         </is>
       </c>
-      <c r="B1132" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="B1132" t="inlineStr"/>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
@@ -29577,14 +28282,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1134" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1134" t="inlineStr"/>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" s="4" t="inlineStr">
@@ -29605,14 +28303,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1135" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
@@ -29637,14 +28328,7 @@
           <t>M068</t>
         </is>
       </c>
-      <c r="B1136" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="B1136" t="inlineStr"/>
       <c r="C1136" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -30278,14 +28962,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1161" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" s="4" t="inlineStr">
@@ -30306,14 +28983,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1162" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1162" t="inlineStr"/>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
         <is>
@@ -30338,14 +29008,7 @@
           <t>M069</t>
         </is>
       </c>
-      <c r="B1163" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="B1163" t="inlineStr"/>
       <c r="C1163" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -30541,14 +29204,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1170" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1170" t="inlineStr"/>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" s="4" t="inlineStr">
@@ -30569,14 +29225,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1171" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1171" t="inlineStr"/>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
@@ -30601,14 +29250,7 @@
           <t>M070</t>
         </is>
       </c>
-      <c r="B1172" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="B1172" t="inlineStr"/>
       <c r="C1172" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -31242,14 +29884,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1197" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1197" t="inlineStr"/>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" s="4" t="inlineStr">
@@ -31270,14 +29905,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1198" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1198" t="inlineStr"/>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
@@ -31302,14 +29930,7 @@
           <t>M071</t>
         </is>
       </c>
-      <c r="B1199" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="B1199" t="inlineStr"/>
       <c r="C1199" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
@@ -31787,14 +30408,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1220" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1220" t="inlineStr"/>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" s="4" t="inlineStr">
@@ -31815,14 +30429,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1221" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1221" t="inlineStr"/>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>
@@ -31847,14 +30454,7 @@
           <t>M072</t>
         </is>
       </c>
-      <c r="B1222" s="4" t="inlineStr">
-        <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="B1222" t="inlineStr"/>
       <c r="C1222" t="inlineStr">
         <is>
           <t>30/Jun/2025</t>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1583,11 +1583,7 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
@@ -1604,11 +1600,7 @@
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
@@ -1675,11 +1667,7 @@
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1698,11 +1686,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -1721,11 +1705,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -1744,11 +1724,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
@@ -1765,11 +1741,7 @@
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
@@ -1790,11 +1762,7 @@
       <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
@@ -1986,11 +1954,7 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
@@ -2007,11 +1971,7 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
@@ -2078,11 +2038,7 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -2099,11 +2055,7 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
@@ -2124,11 +2076,7 @@
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
@@ -2466,11 +2414,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
@@ -2487,11 +2431,7 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
@@ -2558,11 +2498,7 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
@@ -2579,11 +2515,7 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
@@ -2604,11 +2536,7 @@
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
@@ -3019,11 +2947,7 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
@@ -3040,11 +2964,7 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
@@ -3065,11 +2985,7 @@
       <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
@@ -5856,11 +5772,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
@@ -5877,11 +5789,7 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
@@ -5902,11 +5810,7 @@
       <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
+      <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
@@ -6025,11 +5929,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
@@ -6046,11 +5946,7 @@
       <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
@@ -6071,11 +5967,7 @@
       <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
+      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
@@ -6524,11 +6416,7 @@
       <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
@@ -6545,11 +6433,7 @@
       <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
@@ -6570,11 +6454,7 @@
       <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
+      <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
@@ -7042,11 +6922,7 @@
       <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
@@ -7063,11 +6939,7 @@
       <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
@@ -7088,11 +6960,7 @@
       <c r="K278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
+      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
@@ -8512,11 +8380,7 @@
       <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
+      <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
@@ -8533,11 +8397,7 @@
       <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
+      <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
@@ -8604,11 +8464,7 @@
       <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
+      <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
@@ -8625,11 +8481,7 @@
       <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
@@ -8696,11 +8548,7 @@
       <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
@@ -8717,11 +8565,7 @@
       <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
+      <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
@@ -8788,11 +8632,7 @@
       <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -8809,11 +8649,7 @@
       <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
@@ -8834,11 +8670,7 @@
       <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
+      <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr">
         <is>
@@ -9177,11 +9009,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
+      <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
@@ -9198,11 +9026,7 @@
       <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
+      <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
@@ -9269,11 +9093,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
+      <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
@@ -9290,11 +9110,7 @@
       <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
+      <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
@@ -9361,11 +9177,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
+      <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
@@ -9382,11 +9194,7 @@
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
+      <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
@@ -9407,11 +9215,7 @@
       <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
+      <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr">
         <is>
@@ -9677,11 +9481,7 @@
       <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
@@ -9700,11 +9500,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
@@ -9723,11 +9519,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A382" t="inlineStr"/>
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
@@ -9744,11 +9536,7 @@
       <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
@@ -9769,11 +9557,7 @@
       <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
+      <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
@@ -10843,11 +10627,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A433" t="inlineStr"/>
       <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
@@ -10864,11 +10644,7 @@
       <c r="K433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A434" t="inlineStr"/>
       <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
@@ -10889,11 +10665,7 @@
       <c r="K434" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
+      <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
@@ -11085,11 +10857,7 @@
       <c r="K441" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr"/>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
@@ -11106,11 +10874,7 @@
       <c r="K442" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr"/>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
@@ -11131,11 +10895,7 @@
       <c r="K443" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr">
         <is>
@@ -11584,11 +11344,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A462" t="inlineStr"/>
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
@@ -11605,11 +11361,7 @@
       <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
@@ -11630,11 +11382,7 @@
       <c r="K463" t="inlineStr"/>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
+      <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr">
         <is>
@@ -11753,11 +11501,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
+      <c r="A468" t="inlineStr"/>
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
@@ -11774,11 +11518,7 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
+      <c r="A469" t="inlineStr"/>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
@@ -11845,11 +11585,7 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
+      <c r="A471" t="inlineStr"/>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr"/>
@@ -11866,11 +11602,7 @@
       <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
+      <c r="A472" t="inlineStr"/>
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
@@ -11937,11 +11669,7 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
@@ -11960,11 +11688,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
@@ -11983,11 +11707,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
@@ -12004,11 +11724,7 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
@@ -12029,11 +11745,7 @@
       <c r="K477" t="inlineStr"/>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr">
         <is>
@@ -12809,11 +12521,7 @@
       <c r="K508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A509" t="inlineStr"/>
       <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
@@ -12830,11 +12538,7 @@
       <c r="K509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A510" t="inlineStr"/>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
@@ -12855,11 +12559,7 @@
       <c r="K510" t="inlineStr"/>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
+      <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr">
         <is>
@@ -13124,11 +12824,7 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A521" t="inlineStr"/>
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
@@ -13145,11 +12841,7 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A522" t="inlineStr"/>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
@@ -13170,11 +12862,7 @@
       <c r="K522" t="inlineStr"/>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
+      <c r="A523" t="inlineStr"/>
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr">
         <is>
@@ -14257,11 +13945,7 @@
       <c r="K570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
+      <c r="A571" t="inlineStr"/>
       <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
@@ -14278,11 +13962,7 @@
       <c r="K571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
+      <c r="A572" t="inlineStr"/>
       <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
@@ -14349,11 +14029,7 @@
       <c r="K573" t="inlineStr"/>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A574" t="inlineStr"/>
       <c r="B574" t="inlineStr"/>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
@@ -14370,11 +14046,7 @@
       <c r="K574" t="inlineStr"/>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A575" t="inlineStr"/>
       <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
@@ -14395,11 +14067,7 @@
       <c r="K575" t="inlineStr"/>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
+      <c r="A576" t="inlineStr"/>
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
@@ -14594,11 +14262,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A584" t="inlineStr"/>
       <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
@@ -14617,11 +14281,7 @@
       <c r="K584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A585" t="inlineStr"/>
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
@@ -14640,11 +14300,7 @@
       <c r="K585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A586" t="inlineStr"/>
       <c r="B586" t="inlineStr"/>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
@@ -14661,11 +14317,7 @@
       <c r="K586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
+      <c r="A587" t="inlineStr"/>
       <c r="B587" t="inlineStr"/>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
@@ -14732,11 +14384,7 @@
       <c r="K588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
+      <c r="A589" t="inlineStr"/>
       <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
@@ -14753,11 +14401,7 @@
       <c r="K589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
+      <c r="A590" t="inlineStr"/>
       <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
@@ -14824,11 +14468,7 @@
       <c r="K591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A592" t="inlineStr"/>
       <c r="B592" t="inlineStr"/>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
@@ -14845,11 +14485,7 @@
       <c r="K592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A593" t="inlineStr"/>
       <c r="B593" t="inlineStr"/>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
@@ -14870,11 +14506,7 @@
       <c r="K593" t="inlineStr"/>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
+      <c r="A594" t="inlineStr"/>
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
@@ -15906,11 +15538,7 @@
       <c r="K640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
+      <c r="A641" t="inlineStr"/>
       <c r="B641" t="inlineStr"/>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
@@ -15927,11 +15555,7 @@
       <c r="K641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
+      <c r="A642" t="inlineStr"/>
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
@@ -15998,11 +15622,7 @@
       <c r="K643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
+      <c r="A644" t="inlineStr"/>
       <c r="B644" t="inlineStr"/>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
@@ -16019,11 +15639,7 @@
       <c r="K644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
+      <c r="A645" t="inlineStr"/>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
@@ -16090,11 +15706,7 @@
       <c r="K646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A647" t="inlineStr"/>
       <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
@@ -16111,11 +15723,7 @@
       <c r="K647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A648" t="inlineStr"/>
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
@@ -16136,11 +15744,7 @@
       <c r="K648" t="inlineStr"/>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
+      <c r="A649" t="inlineStr"/>
       <c r="B649" t="inlineStr"/>
       <c r="C649" t="inlineStr">
         <is>
@@ -16697,11 +16301,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
+      <c r="A671" t="inlineStr"/>
       <c r="B671" t="inlineStr"/>
       <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
@@ -16718,11 +16318,7 @@
       <c r="K671" t="inlineStr"/>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
+      <c r="A672" t="inlineStr"/>
       <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
@@ -16789,11 +16385,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A674" t="inlineStr"/>
       <c r="B674" t="inlineStr"/>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
@@ -16812,11 +16404,7 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A675" t="inlineStr"/>
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
@@ -16835,11 +16423,7 @@
       <c r="K675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A676" t="inlineStr"/>
       <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
@@ -16856,11 +16440,7 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
@@ -16881,11 +16461,7 @@
       <c r="K677" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
+      <c r="A678" t="inlineStr"/>
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
@@ -17004,11 +16580,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A682" t="inlineStr"/>
       <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
@@ -17027,11 +16599,7 @@
       <c r="K682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr"/>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
@@ -17050,11 +16618,7 @@
       <c r="K683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A684" t="inlineStr"/>
       <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
@@ -17071,11 +16635,7 @@
       <c r="K684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr"/>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
@@ -17096,11 +16656,7 @@
       <c r="K685" t="inlineStr"/>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
+      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr"/>
       <c r="C686" t="inlineStr">
         <is>
@@ -17365,11 +16921,7 @@
       <c r="K695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A696" t="inlineStr"/>
       <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
@@ -17386,11 +16938,7 @@
       <c r="K696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A697" t="inlineStr"/>
       <c r="B697" t="inlineStr"/>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
@@ -17411,11 +16959,7 @@
       <c r="K697" t="inlineStr"/>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
+      <c r="A698" t="inlineStr"/>
       <c r="B698" t="inlineStr"/>
       <c r="C698" t="inlineStr">
         <is>
@@ -17534,11 +17078,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
@@ -17555,11 +17095,7 @@
       <c r="K702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr"/>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
@@ -17580,11 +17116,7 @@
       <c r="K703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
+      <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr"/>
       <c r="C704" t="inlineStr">
         <is>
@@ -17776,11 +17308,7 @@
       <c r="K710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
+      <c r="A711" t="inlineStr"/>
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
@@ -17797,11 +17325,7 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
+      <c r="A712" t="inlineStr"/>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
@@ -17868,11 +17392,7 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
+      <c r="A714" t="inlineStr"/>
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
@@ -17889,11 +17409,7 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
+      <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
@@ -17960,11 +17476,7 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
@@ -17981,11 +17493,7 @@
       <c r="K717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr"/>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
@@ -18006,11 +17514,7 @@
       <c r="K718" t="inlineStr"/>
     </row>
     <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
+      <c r="A719" t="inlineStr"/>
       <c r="B719" t="inlineStr"/>
       <c r="C719" t="inlineStr">
         <is>
@@ -18129,11 +17633,7 @@
       <c r="K722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A723" t="inlineStr"/>
       <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
@@ -18150,11 +17650,7 @@
       <c r="K723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A724" t="inlineStr"/>
       <c r="B724" t="inlineStr"/>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
@@ -18175,11 +17671,7 @@
       <c r="K724" t="inlineStr"/>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
+      <c r="A725" t="inlineStr"/>
       <c r="B725" t="inlineStr"/>
       <c r="C725" t="inlineStr">
         <is>
@@ -18466,11 +17958,7 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
+      <c r="A737" t="inlineStr"/>
       <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
@@ -18487,11 +17975,7 @@
       <c r="K737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
+      <c r="A738" t="inlineStr"/>
       <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
@@ -18558,11 +18042,7 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
+      <c r="A740" t="inlineStr"/>
       <c r="B740" t="inlineStr"/>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
@@ -18579,11 +18059,7 @@
       <c r="K740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
+      <c r="A741" t="inlineStr"/>
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
@@ -18650,11 +18126,7 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A743" t="inlineStr"/>
       <c r="B743" t="inlineStr"/>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
@@ -18671,11 +18143,7 @@
       <c r="K743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A744" t="inlineStr"/>
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
@@ -18696,11 +18164,7 @@
       <c r="K744" t="inlineStr"/>
     </row>
     <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
+      <c r="A745" t="inlineStr"/>
       <c r="B745" t="inlineStr"/>
       <c r="C745" t="inlineStr">
         <is>
@@ -19149,11 +18613,7 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
+      <c r="A763" t="inlineStr"/>
       <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
@@ -19170,11 +18630,7 @@
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
+      <c r="A764" t="inlineStr"/>
       <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
@@ -19241,11 +18697,7 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
+      <c r="A766" t="inlineStr"/>
       <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
@@ -19262,11 +18714,7 @@
       <c r="K766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
+      <c r="A767" t="inlineStr"/>
       <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
@@ -19287,11 +18735,7 @@
       <c r="K767" t="inlineStr"/>
     </row>
     <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
+      <c r="A768" t="inlineStr"/>
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
@@ -19410,11 +18854,7 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A772" t="inlineStr"/>
       <c r="B772" t="inlineStr"/>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
@@ -19431,11 +18871,7 @@
       <c r="K772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A773" t="inlineStr"/>
       <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
@@ -19456,11 +18892,7 @@
       <c r="K773" t="inlineStr"/>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
+      <c r="A774" t="inlineStr"/>
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
@@ -22889,11 +22321,7 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
+      <c r="A921" t="inlineStr"/>
       <c r="B921" t="inlineStr"/>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
@@ -22910,11 +22338,7 @@
       <c r="K921" t="inlineStr"/>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
+      <c r="A922" t="inlineStr"/>
       <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
@@ -22981,11 +22405,7 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
+      <c r="A924" t="inlineStr"/>
       <c r="B924" t="inlineStr"/>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
@@ -23002,11 +22422,7 @@
       <c r="K924" t="inlineStr"/>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
+      <c r="A925" t="inlineStr"/>
       <c r="B925" t="inlineStr"/>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
@@ -23073,11 +22489,7 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A927" t="inlineStr"/>
       <c r="B927" t="inlineStr"/>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
@@ -23094,11 +22506,7 @@
       <c r="K927" t="inlineStr"/>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A928" t="inlineStr"/>
       <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
@@ -23119,11 +22527,7 @@
       <c r="K928" t="inlineStr"/>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
+      <c r="A929" t="inlineStr"/>
       <c r="B929" t="inlineStr"/>
       <c r="C929" t="inlineStr">
         <is>
@@ -23461,11 +22865,7 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A942" t="inlineStr"/>
       <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
@@ -23482,11 +22882,7 @@
       <c r="K942" t="inlineStr"/>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A943" t="inlineStr"/>
       <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
@@ -23507,11 +22903,7 @@
       <c r="K943" t="inlineStr"/>
     </row>
     <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
+      <c r="A944" t="inlineStr"/>
       <c r="B944" t="inlineStr"/>
       <c r="C944" t="inlineStr">
         <is>
@@ -23922,11 +23314,7 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr"/>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr"/>
@@ -23945,11 +23333,7 @@
       <c r="K960" t="inlineStr"/>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr"/>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr"/>
@@ -23968,11 +23352,7 @@
       <c r="K961" t="inlineStr"/>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr"/>
       <c r="C962" t="inlineStr"/>
       <c r="D962" t="inlineStr"/>
@@ -23989,11 +23369,7 @@
       <c r="K962" t="inlineStr"/>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr"/>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
@@ -24014,11 +23390,7 @@
       <c r="K963" t="inlineStr"/>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
+      <c r="A964" t="inlineStr"/>
       <c r="B964" t="inlineStr"/>
       <c r="C964" t="inlineStr">
         <is>
@@ -24248,11 +23620,7 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A973" t="inlineStr"/>
       <c r="B973" t="inlineStr"/>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
@@ -24269,11 +23637,7 @@
       <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A974" t="inlineStr"/>
       <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
@@ -24294,11 +23658,7 @@
       <c r="K974" t="inlineStr"/>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
+      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr"/>
       <c r="C975" t="inlineStr">
         <is>
@@ -24417,11 +23777,7 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A979" t="inlineStr"/>
       <c r="B979" t="inlineStr"/>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
@@ -24440,11 +23796,7 @@
       <c r="K979" t="inlineStr"/>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A980" t="inlineStr"/>
       <c r="B980" t="inlineStr"/>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
@@ -24463,11 +23815,7 @@
       <c r="K980" t="inlineStr"/>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A981" t="inlineStr"/>
       <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
@@ -24486,11 +23834,7 @@
       <c r="K981" t="inlineStr"/>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A982" t="inlineStr"/>
       <c r="B982" t="inlineStr"/>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
@@ -24507,11 +23851,7 @@
       <c r="K982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
+      <c r="A983" t="inlineStr"/>
       <c r="B983" t="inlineStr"/>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
@@ -24578,11 +23918,7 @@
       <c r="K984" t="inlineStr"/>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A985" t="inlineStr"/>
       <c r="B985" t="inlineStr"/>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
@@ -24599,11 +23935,7 @@
       <c r="K985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A986" t="inlineStr"/>
       <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
@@ -24624,11 +23956,7 @@
       <c r="K986" t="inlineStr"/>
     </row>
     <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
+      <c r="A987" t="inlineStr"/>
       <c r="B987" t="inlineStr"/>
       <c r="C987" t="inlineStr">
         <is>
@@ -25208,11 +24536,7 @@
       <c r="K1010" t="inlineStr"/>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1011" t="inlineStr"/>
       <c r="B1011" t="inlineStr"/>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
@@ -25229,11 +24553,7 @@
       <c r="K1011" t="inlineStr"/>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1012" t="inlineStr"/>
       <c r="B1012" t="inlineStr"/>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
@@ -25254,11 +24574,7 @@
       <c r="K1012" t="inlineStr"/>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
+      <c r="A1013" t="inlineStr"/>
       <c r="B1013" t="inlineStr"/>
       <c r="C1013" t="inlineStr">
         <is>
@@ -25743,11 +25059,7 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1032" t="inlineStr"/>
       <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
@@ -25764,11 +25076,7 @@
       <c r="K1032" t="inlineStr"/>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1033" t="inlineStr"/>
       <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
@@ -25789,11 +25097,7 @@
       <c r="K1033" t="inlineStr"/>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
+      <c r="A1034" t="inlineStr"/>
       <c r="B1034" t="inlineStr"/>
       <c r="C1034" t="inlineStr">
         <is>
@@ -27429,11 +26733,7 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
+      <c r="A1101" t="inlineStr"/>
       <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
@@ -27450,11 +26750,7 @@
       <c r="K1101" t="inlineStr"/>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
+      <c r="A1102" t="inlineStr"/>
       <c r="B1102" t="inlineStr"/>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
@@ -27521,11 +26817,7 @@
       <c r="K1103" t="inlineStr"/>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1104" t="inlineStr"/>
       <c r="B1104" t="inlineStr"/>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
@@ -27542,11 +26834,7 @@
       <c r="K1104" t="inlineStr"/>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1105" t="inlineStr"/>
       <c r="B1105" t="inlineStr"/>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
@@ -27567,11 +26855,7 @@
       <c r="K1105" t="inlineStr"/>
     </row>
     <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
+      <c r="A1106" t="inlineStr"/>
       <c r="B1106" t="inlineStr"/>
       <c r="C1106" t="inlineStr">
         <is>
@@ -28093,11 +27377,7 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1127" t="inlineStr"/>
       <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
@@ -28116,11 +27396,7 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1128" t="inlineStr"/>
       <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
@@ -28139,11 +27415,7 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1129" t="inlineStr"/>
       <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
@@ -28162,11 +27434,7 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1130" t="inlineStr"/>
       <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
@@ -28185,11 +27453,7 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1131" t="inlineStr"/>
       <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
@@ -28206,11 +27470,7 @@
       <c r="K1131" t="inlineStr"/>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
+      <c r="A1132" t="inlineStr"/>
       <c r="B1132" t="inlineStr"/>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
@@ -28277,11 +27537,7 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1134" t="inlineStr"/>
       <c r="B1134" t="inlineStr"/>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
@@ -28298,11 +27554,7 @@
       <c r="K1134" t="inlineStr"/>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1135" t="inlineStr"/>
       <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
@@ -28323,11 +27575,7 @@
       <c r="K1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
+      <c r="A1136" t="inlineStr"/>
       <c r="B1136" t="inlineStr"/>
       <c r="C1136" t="inlineStr">
         <is>
@@ -28957,11 +28205,7 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1161" t="inlineStr"/>
       <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
@@ -28978,11 +28222,7 @@
       <c r="K1161" t="inlineStr"/>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1162" t="inlineStr"/>
       <c r="B1162" t="inlineStr"/>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
@@ -29003,11 +28243,7 @@
       <c r="K1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
+      <c r="A1163" t="inlineStr"/>
       <c r="B1163" t="inlineStr"/>
       <c r="C1163" t="inlineStr">
         <is>
@@ -29199,11 +28435,7 @@
       <c r="K1169" t="inlineStr"/>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
       <c r="B1170" t="inlineStr"/>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
@@ -29220,11 +28452,7 @@
       <c r="K1170" t="inlineStr"/>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1171" t="inlineStr"/>
       <c r="B1171" t="inlineStr"/>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
@@ -29245,11 +28473,7 @@
       <c r="K1171" t="inlineStr"/>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
+      <c r="A1172" t="inlineStr"/>
       <c r="B1172" t="inlineStr"/>
       <c r="C1172" t="inlineStr">
         <is>
@@ -29879,11 +29103,7 @@
       <c r="K1196" t="inlineStr"/>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1197" t="inlineStr"/>
       <c r="B1197" t="inlineStr"/>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
@@ -29900,11 +29120,7 @@
       <c r="K1197" t="inlineStr"/>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1198" t="inlineStr"/>
       <c r="B1198" t="inlineStr"/>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
@@ -29925,11 +29141,7 @@
       <c r="K1198" t="inlineStr"/>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
+      <c r="A1199" t="inlineStr"/>
       <c r="B1199" t="inlineStr"/>
       <c r="C1199" t="inlineStr">
         <is>
@@ -30403,11 +29615,7 @@
       <c r="K1219" t="inlineStr"/>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1220" t="inlineStr"/>
       <c r="B1220" t="inlineStr"/>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
@@ -30424,11 +29632,7 @@
       <c r="K1220" t="inlineStr"/>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1221" t="inlineStr"/>
       <c r="B1221" t="inlineStr"/>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
@@ -30449,11 +29653,7 @@
       <c r="K1221" t="inlineStr"/>
     </row>
     <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
+      <c r="A1222" t="inlineStr"/>
       <c r="B1222" t="inlineStr"/>
       <c r="C1222" t="inlineStr">
         <is>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1544,8 +1544,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 5040781.68
 Borrower Amount: 5040781.68</t>
         </is>
@@ -1583,8 +1582,18 @@
       <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
@@ -1600,8 +1609,18 @@
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 5040781.68
+Borrower Amount: 5040781.68</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
@@ -1628,8 +1647,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 15737222.22
 Borrower Amount: 15737222.22</t>
         </is>
@@ -1667,8 +1685,18 @@
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
@@ -1686,8 +1714,18 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
@@ -1705,8 +1743,18 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
@@ -1724,8 +1772,18 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
@@ -1741,8 +1799,18 @@
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
@@ -1915,8 +1983,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 8884.77
 Borrower Amount: 8884.77</t>
         </is>
@@ -1954,8 +2021,18 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
@@ -1971,8 +2048,18 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
@@ -1999,8 +2086,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1575.00
 Borrower Amount: 1575.00</t>
         </is>
@@ -2038,8 +2124,18 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
@@ -2055,8 +2151,18 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
@@ -2375,8 +2481,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 1150.00
 Borrower Amount: 1150.00</t>
         </is>
@@ -2414,8 +2519,18 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
@@ -2431,8 +2546,18 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
@@ -2459,8 +2584,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1575.00
 Borrower Amount: 1575.00</t>
         </is>
@@ -2498,8 +2622,18 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
@@ -2515,8 +2649,18 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
@@ -2908,8 +3052,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 26246.93
 Borrower Amount: 26246.93</t>
         </is>
@@ -2947,8 +3090,18 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
@@ -2964,8 +3117,18 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
@@ -5733,8 +5896,7 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 1150.00
 Borrower Amount: 1150.00</t>
         </is>
@@ -5772,8 +5934,18 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" s="4" t="inlineStr">
@@ -5789,8 +5961,18 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B231" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
@@ -5890,8 +6072,7 @@
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010124/24
+          <t>LC Match: L/C-187724010124/24
 Lender Amount: 8761.79
 Borrower Amount: 8761.79</t>
         </is>
@@ -5929,8 +6110,18 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" s="4" t="inlineStr">
@@ -5946,8 +6137,18 @@
       <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr"/>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
@@ -6377,8 +6578,7 @@
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1862.50
 Borrower Amount: 1862.50</t>
         </is>
@@ -6416,8 +6616,18 @@
       <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" s="4" t="inlineStr">
@@ -6433,8 +6643,18 @@
       <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
@@ -6883,8 +7103,7 @@
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020003/25
+          <t>LC Match: L/C-147125020003/25
 Lender Amount: 27383.77
 Borrower Amount: 27383.77</t>
         </is>
@@ -6922,8 +7141,18 @@
       <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
       <c r="E277" s="4" t="inlineStr">
@@ -6939,8 +7168,18 @@
       <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B278" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
@@ -8341,8 +8580,7 @@
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 71971.54
 Borrower Amount: 71971.54</t>
         </is>
@@ -8380,8 +8618,18 @@
       <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B338" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
       <c r="E338" s="4" t="inlineStr">
@@ -8397,8 +8645,18 @@
       <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
-      <c r="B339" t="inlineStr"/>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B339" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
@@ -8425,8 +8683,7 @@
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 20527984.90
 Borrower Amount: 20527984.90</t>
         </is>
@@ -8464,8 +8721,18 @@
       <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr"/>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B341" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" s="4" t="inlineStr">
@@ -8481,8 +8748,18 @@
       <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
-      <c r="B342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B342" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
@@ -8509,8 +8786,7 @@
       </c>
       <c r="B343" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020653/25
+          <t>LC Match: L/C-147124020653/25
 Lender Amount: 665048.82
 Borrower Amount: 665048.82</t>
         </is>
@@ -8548,8 +8824,18 @@
       <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr"/>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B344" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="4" t="inlineStr">
@@ -8565,8 +8851,18 @@
       <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
-      <c r="B345" t="inlineStr"/>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B345" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
@@ -8593,8 +8889,7 @@
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
+          <t>LC Match: L/C-147124020708/24
 Lender Amount: 25042.61
 Borrower Amount: 25042.61</t>
         </is>
@@ -8632,8 +8927,18 @@
       <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
-      <c r="B347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B347" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
       <c r="E347" s="4" t="inlineStr">
@@ -8649,8 +8954,18 @@
       <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
-      <c r="B348" t="inlineStr"/>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B348" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
@@ -8970,8 +9285,7 @@
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 5995080.00
 Borrower Amount: 5995080.00</t>
         </is>
@@ -9009,8 +9323,18 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
-      <c r="B362" t="inlineStr"/>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B362" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
@@ -9026,8 +9350,18 @@
       <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
-      <c r="B363" t="inlineStr"/>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B363" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
@@ -9054,8 +9388,7 @@
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 33573.89
 Borrower Amount: 33573.89</t>
         </is>
@@ -9093,8 +9426,18 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
-      <c r="B365" t="inlineStr"/>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" s="4" t="inlineStr">
@@ -9110,8 +9453,18 @@
       <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
-      <c r="B366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B366" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
@@ -9138,8 +9491,7 @@
       </c>
       <c r="B367" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 1650660.00
 Borrower Amount: 1650660.00</t>
         </is>
@@ -9177,8 +9529,18 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
-      <c r="B368" t="inlineStr"/>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B368" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
       <c r="E368" s="4" t="inlineStr">
@@ -9194,8 +9556,18 @@
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
-      <c r="B369" t="inlineStr"/>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B369" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
@@ -9442,8 +9814,7 @@
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155824020001/24
+          <t>LC Match: LC-155824020001/24
 Lender Amount: 7641878.37
 Borrower Amount: 7641878.37</t>
         </is>
@@ -9481,8 +9852,18 @@
       <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr"/>
-      <c r="B380" t="inlineStr"/>
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B380" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
       <c r="E380" s="4" t="inlineStr">
@@ -9500,8 +9881,18 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
-      <c r="B381" t="inlineStr"/>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B381" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" s="4" t="inlineStr">
@@ -9519,8 +9910,18 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr"/>
-      <c r="B382" t="inlineStr"/>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B382" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
       <c r="E382" s="4" t="inlineStr">
@@ -9536,8 +9937,18 @@
       <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr"/>
-      <c r="B383" t="inlineStr"/>
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B383" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
@@ -10588,8 +10999,7 @@
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 246401.97
 Borrower Amount: 246401.97</t>
         </is>
@@ -10627,8 +11037,18 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
-      <c r="B433" t="inlineStr"/>
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B433" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" s="4" t="inlineStr">
@@ -10644,8 +11064,18 @@
       <c r="K433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
-      <c r="B434" t="inlineStr"/>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B434" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
@@ -10818,8 +11248,7 @@
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022796/24
+          <t>LC Match: L/C-308524022796/24
 Lender Amount: 26369.63
 Borrower Amount: 26369.63</t>
         </is>
@@ -10857,8 +11286,18 @@
       <c r="K441" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr"/>
-      <c r="B442" t="inlineStr"/>
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B442" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" s="4" t="inlineStr">
@@ -10874,8 +11313,18 @@
       <c r="K442" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr"/>
-      <c r="B443" t="inlineStr"/>
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B443" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26369.63
+Borrower Amount: 26369.63</t>
+        </is>
+      </c>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
@@ -11305,8 +11754,7 @@
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
+          <t>LC Match: L/C-222825150235/25
 Lender Amount: 2357.50
 Borrower Amount: 2357.50</t>
         </is>
@@ -11344,8 +11792,18 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
-      <c r="B462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B462" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
       <c r="E462" s="4" t="inlineStr">
@@ -11361,8 +11819,18 @@
       <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
-      <c r="B463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B463" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
@@ -11462,8 +11930,7 @@
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150235/25
+          <t>LC Match: L/C-222825150235/25
 Lender Amount: 213500.00
 Borrower Amount: 213500.00</t>
         </is>
@@ -11501,8 +11968,18 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
-      <c r="B468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B468" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
       <c r="E468" s="4" t="inlineStr">
@@ -11518,8 +11995,18 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
-      <c r="B469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B469" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
@@ -11546,8 +12033,7 @@
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -11585,8 +12071,18 @@
       <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
-      <c r="B471" t="inlineStr"/>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B471" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr"/>
       <c r="E471" s="4" t="inlineStr">
@@ -11602,8 +12098,18 @@
       <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
-      <c r="B472" t="inlineStr"/>
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B472" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
@@ -11630,8 +12136,7 @@
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-187724010122/24
+          <t>LC Match: L/C-187724010122/24
 Lender Amount: 276518.90
 Borrower Amount: 276518.90</t>
         </is>
@@ -11669,8 +12174,18 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
-      <c r="B474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B474" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
       <c r="E474" s="4" t="inlineStr">
@@ -11688,8 +12203,18 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
-      <c r="B475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B475" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
       <c r="E475" s="4" t="inlineStr">
@@ -11707,8 +12232,18 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11724,8 +12259,18 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
-      <c r="B477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B477" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -12482,8 +13027,7 @@
       </c>
       <c r="B508" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
+          <t>LC Match: L/C-147125020027/25
 Lender Amount: 54431.58
 Borrower Amount: 54431.58</t>
         </is>
@@ -12521,8 +13065,18 @@
       <c r="K508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
-      <c r="B509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B509" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
       <c r="E509" s="4" t="inlineStr">
@@ -12538,8 +13092,18 @@
       <c r="K509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
-      <c r="B510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B510" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
@@ -12785,8 +13349,7 @@
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524027065/24
+          <t>LC Match: L/C-308524027065/24
 Lender Amount: 8231.99
 Borrower Amount: 8231.99</t>
         </is>
@@ -12824,8 +13387,18 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
-      <c r="B521" t="inlineStr"/>
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B521" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -12841,8 +13414,18 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
-      <c r="B522" t="inlineStr"/>
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B522" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
@@ -13906,8 +14489,7 @@
       </c>
       <c r="B570" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020708/24
+          <t>LC Match: L/C-147124020708/24
 Lender Amount: 19399.10
 Borrower Amount: 19399.10</t>
         </is>
@@ -13945,8 +14527,18 @@
       <c r="K570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
-      <c r="B571" t="inlineStr"/>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B571" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" s="4" t="inlineStr">
@@ -13962,8 +14554,18 @@
       <c r="K571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
-      <c r="B572" t="inlineStr"/>
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B572" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
@@ -13990,8 +14592,7 @@
       </c>
       <c r="B573" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524990243/24
+          <t>LC Match: L/C-308524990243/24
 Lender Amount: 15160.97
 Borrower Amount: 15160.97</t>
         </is>
@@ -14029,8 +14630,18 @@
       <c r="K573" t="inlineStr"/>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr"/>
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B574" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" s="4" t="inlineStr">
@@ -14046,8 +14657,18 @@
       <c r="K574" t="inlineStr"/>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
-      <c r="B575" t="inlineStr"/>
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B575" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 15160.97
+Borrower Amount: 15160.97</t>
+        </is>
+      </c>
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
@@ -14223,8 +14844,7 @@
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 6125933.94
 Borrower Amount: 6125933.94</t>
         </is>
@@ -14262,8 +14882,18 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr"/>
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B584" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
       <c r="E584" s="4" t="inlineStr">
@@ -14281,8 +14911,18 @@
       <c r="K584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr"/>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B585" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" s="4" t="inlineStr">
@@ -14300,8 +14940,18 @@
       <c r="K585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr"/>
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B586" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
       <c r="E586" s="4" t="inlineStr">
@@ -14317,8 +14967,18 @@
       <c r="K586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
-      <c r="B587" t="inlineStr"/>
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B587" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
@@ -14345,8 +15005,7 @@
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
+          <t>LC Match: L/C-308524022495/24
 Lender Amount: 12425.77
 Borrower Amount: 12425.77</t>
         </is>
@@ -14384,8 +15043,18 @@
       <c r="K588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr"/>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B589" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" s="4" t="inlineStr">
@@ -14401,8 +15070,18 @@
       <c r="K589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
-      <c r="B590" t="inlineStr"/>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B590" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
@@ -14429,8 +15108,7 @@
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524022495/24
+          <t>LC Match: L/C-308524022495/24
 Lender Amount: 23580.68
 Borrower Amount: 23580.68</t>
         </is>
@@ -14468,8 +15146,18 @@
       <c r="K591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
-      <c r="B592" t="inlineStr"/>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B592" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
       <c r="E592" s="4" t="inlineStr">
@@ -14485,8 +15173,18 @@
       <c r="K592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
-      <c r="B593" t="inlineStr"/>
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B593" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
@@ -15499,8 +16197,7 @@
       </c>
       <c r="B640" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308525021741/25
+          <t>LC Match: L/C-308525021741/25
 Lender Amount: 22671.95
 Borrower Amount: 22671.95</t>
         </is>
@@ -15538,8 +16235,18 @@
       <c r="K640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
-      <c r="B641" t="inlineStr"/>
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B641" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
       <c r="E641" s="4" t="inlineStr">
@@ -15555,8 +16262,18 @@
       <c r="K641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
-      <c r="B642" t="inlineStr"/>
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B642" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
@@ -15583,8 +16300,7 @@
       </c>
       <c r="B643" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308525021745/25
+          <t>LC Match: L/C-308525021745/25
 Lender Amount: 28854.86
 Borrower Amount: 28854.86</t>
         </is>
@@ -15622,8 +16338,18 @@
       <c r="K643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr"/>
-      <c r="B644" t="inlineStr"/>
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B644" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
       <c r="E644" s="4" t="inlineStr">
@@ -15639,8 +16365,18 @@
       <c r="K644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr"/>
-      <c r="B645" t="inlineStr"/>
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B645" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
@@ -15667,8 +16403,7 @@
       </c>
       <c r="B646" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -15706,8 +16441,18 @@
       <c r="K646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr"/>
-      <c r="B647" t="inlineStr"/>
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B647" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" s="4" t="inlineStr">
@@ -15723,8 +16468,18 @@
       <c r="K647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr"/>
-      <c r="B648" t="inlineStr"/>
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B648" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
@@ -16262,8 +17017,7 @@
       </c>
       <c r="B670" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 80051.03
 Borrower Amount: 80051.03</t>
         </is>
@@ -16301,8 +17055,18 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr"/>
-      <c r="B671" t="inlineStr"/>
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B671" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C671" t="inlineStr"/>
       <c r="D671" t="inlineStr"/>
       <c r="E671" s="4" t="inlineStr">
@@ -16318,8 +17082,18 @@
       <c r="K671" t="inlineStr"/>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr"/>
-      <c r="B672" t="inlineStr"/>
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B672" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 80051.03
+Borrower Amount: 80051.03</t>
+        </is>
+      </c>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
@@ -16346,8 +17120,7 @@
       </c>
       <c r="B673" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 6777058.20
 Borrower Amount: 6777058.20</t>
         </is>
@@ -16385,8 +17158,18 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
-      <c r="B674" t="inlineStr"/>
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B674" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
       <c r="E674" s="4" t="inlineStr">
@@ -16404,8 +17187,18 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
-      <c r="B675" t="inlineStr"/>
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B675" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
       <c r="E675" s="4" t="inlineStr">
@@ -16423,8 +17216,18 @@
       <c r="K675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -16440,8 +17243,18 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
-      <c r="B677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B677" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -16541,8 +17354,7 @@
       </c>
       <c r="B681" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-155823010186/23
+          <t>LC Match: L/C-155823010186/23
 Lender Amount: 76000.00
 Borrower Amount: 76000.00</t>
         </is>
@@ -16580,8 +17392,18 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
-      <c r="B682" t="inlineStr"/>
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B682" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" s="4" t="inlineStr">
@@ -16599,8 +17421,18 @@
       <c r="K682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
-      <c r="B683" t="inlineStr"/>
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B683" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
       <c r="E683" s="4" t="inlineStr">
@@ -16618,8 +17450,18 @@
       <c r="K683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr"/>
-      <c r="B684" t="inlineStr"/>
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B684" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" s="4" t="inlineStr">
@@ -16635,8 +17477,18 @@
       <c r="K684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
-      <c r="B685" t="inlineStr"/>
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B685" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
@@ -16882,8 +17734,7 @@
       </c>
       <c r="B695" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524026037/222824023549
+          <t>LC Match: LC-308524026037/222824023549
 Lender Amount: 1226351.09
 Borrower Amount: 1226351.09</t>
         </is>
@@ -16921,8 +17772,18 @@
       <c r="K695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr"/>
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B696" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" s="4" t="inlineStr">
@@ -16938,8 +17799,18 @@
       <c r="K696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr"/>
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B697" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
@@ -17039,8 +17910,7 @@
       </c>
       <c r="B701" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022495/24
+          <t>LC Match: LC-308524022495/24
 Lender Amount: 1675000.00
 Borrower Amount: 1675000.00</t>
         </is>
@@ -17078,8 +17948,18 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr"/>
-      <c r="B702" t="inlineStr"/>
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B702" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" s="4" t="inlineStr">
@@ -17095,8 +17975,18 @@
       <c r="K702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
-      <c r="B703" t="inlineStr"/>
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B703" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
@@ -17269,8 +18159,7 @@
       </c>
       <c r="B710" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020027/25
+          <t>LC Match: L/C-147125020027/25
 Lender Amount: 10691988.92
 Borrower Amount: 10691988.92</t>
         </is>
@@ -17308,8 +18197,18 @@
       <c r="K710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
-      <c r="B711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B711" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -17325,8 +18224,18 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
-      <c r="B712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B712" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
@@ -17353,8 +18262,7 @@
       </c>
       <c r="B713" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-222825150151/25
+          <t>LC Match: L/C-222825150151/25
 Lender Amount: 333706.76
 Borrower Amount: 333706.76</t>
         </is>
@@ -17392,8 +18300,18 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
-      <c r="B714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B714" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
       <c r="E714" s="4" t="inlineStr">
@@ -17409,8 +18327,18 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
-      <c r="B715" t="inlineStr"/>
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B715" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
@@ -17437,8 +18365,7 @@
       </c>
       <c r="B716" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020063/25
+          <t>LC Match: L/C-141325020063/25
 Lender Amount: 299000.00
 Borrower Amount: 299000.00</t>
         </is>
@@ -17476,8 +18403,18 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr"/>
-      <c r="B717" t="inlineStr"/>
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B717" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
       <c r="E717" s="4" t="inlineStr">
@@ -17493,8 +18430,18 @@
       <c r="K717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr"/>
-      <c r="B718" t="inlineStr"/>
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B718" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
@@ -17594,8 +18541,7 @@
       </c>
       <c r="B722" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 13743.52
 Borrower Amount: 13743.52</t>
         </is>
@@ -17633,8 +18579,18 @@
       <c r="K722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr"/>
-      <c r="B723" t="inlineStr"/>
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B723" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" s="4" t="inlineStr">
@@ -17650,8 +18606,18 @@
       <c r="K723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr"/>
-      <c r="B724" t="inlineStr"/>
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B724" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
@@ -17919,8 +18885,7 @@
       </c>
       <c r="B736" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155825020020/25
+          <t>LC Match: LC-155825020020/25
 Lender Amount: 60302.55
 Borrower Amount: 60302.55</t>
         </is>
@@ -17958,8 +18923,18 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr"/>
-      <c r="B737" t="inlineStr"/>
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B737" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" s="4" t="inlineStr">
@@ -17975,8 +18950,18 @@
       <c r="K737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr"/>
-      <c r="B738" t="inlineStr"/>
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B738" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
@@ -18003,8 +18988,7 @@
       </c>
       <c r="B739" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 124008.78
 Borrower Amount: 124008.78</t>
         </is>
@@ -18042,8 +19026,18 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr"/>
-      <c r="B740" t="inlineStr"/>
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B740" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
       <c r="E740" s="4" t="inlineStr">
@@ -18059,8 +19053,18 @@
       <c r="K740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr"/>
-      <c r="B741" t="inlineStr"/>
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B741" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
@@ -18087,8 +19091,7 @@
       </c>
       <c r="B742" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 31609.80
 Borrower Amount: 31609.80</t>
         </is>
@@ -18126,8 +19129,18 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr"/>
-      <c r="B743" t="inlineStr"/>
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B743" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" s="4" t="inlineStr">
@@ -18143,8 +19156,18 @@
       <c r="K743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr"/>
-      <c r="B744" t="inlineStr"/>
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B744" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
@@ -18574,8 +19597,7 @@
       </c>
       <c r="B762" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020104/25
+          <t>LC Match: L/C-141325020104/25
 Lender Amount: 10424886.36
 Borrower Amount: 10424886.36</t>
         </is>
@@ -18613,8 +19635,18 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr"/>
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B763" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
       <c r="E763" s="4" t="inlineStr">
@@ -18630,8 +19662,18 @@
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr"/>
-      <c r="B764" t="inlineStr"/>
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B764" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
@@ -18658,8 +19700,7 @@
       </c>
       <c r="B765" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020063/25
+          <t>LC Match: L/C-147125020063/25
 Lender Amount: 2168751.40
 Borrower Amount: 2168751.40</t>
         </is>
@@ -18697,8 +19738,18 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr"/>
-      <c r="B766" t="inlineStr"/>
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B766" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
       <c r="E766" s="4" t="inlineStr">
@@ -18714,8 +19765,18 @@
       <c r="K766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr"/>
-      <c r="B767" t="inlineStr"/>
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B767" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
@@ -18815,8 +19876,7 @@
       </c>
       <c r="B771" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-141325020068/25
+          <t>LC Match: L/C-141325020068/25
 Lender Amount: 63787.54
 Borrower Amount: 63787.54</t>
         </is>
@@ -18854,8 +19914,18 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr"/>
-      <c r="B772" t="inlineStr"/>
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B772" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" s="4" t="inlineStr">
@@ -18871,8 +19941,18 @@
       <c r="K772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr"/>
-      <c r="B773" t="inlineStr"/>
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B773" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
@@ -22282,8 +23362,7 @@
       </c>
       <c r="B920" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020104/25
+          <t>LC Match: LC-141325020104/25
 Lender Amount: 111771.42
 Borrower Amount: 111771.42</t>
         </is>
@@ -22321,8 +23400,18 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr"/>
-      <c r="B921" t="inlineStr"/>
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B921" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
       <c r="E921" s="4" t="inlineStr">
@@ -22338,8 +23427,18 @@
       <c r="K921" t="inlineStr"/>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr"/>
-      <c r="B922" t="inlineStr"/>
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B922" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
         <is>
@@ -22366,8 +23465,7 @@
       </c>
       <c r="B923" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
+          <t>LC Match: LC-141325020112/25
 Lender Amount: 80701.76
 Borrower Amount: 80701.76</t>
         </is>
@@ -22405,8 +23503,18 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
-      <c r="B924" t="inlineStr"/>
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B924" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" s="4" t="inlineStr">
@@ -22422,8 +23530,18 @@
       <c r="K924" t="inlineStr"/>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
-      <c r="B925" t="inlineStr"/>
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B925" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
@@ -22450,8 +23568,7 @@
       </c>
       <c r="B926" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020112/25
+          <t>LC Match: LC-141325020112/25
 Lender Amount: 657.81
 Borrower Amount: 657.81</t>
         </is>
@@ -22489,8 +23606,18 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
-      <c r="B927" t="inlineStr"/>
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B927" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" s="4" t="inlineStr">
@@ -22506,8 +23633,18 @@
       <c r="K927" t="inlineStr"/>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr"/>
-      <c r="B928" t="inlineStr"/>
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B928" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
@@ -22826,8 +23963,7 @@
       </c>
       <c r="B941" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/25
+          <t>LC Match: LC-141325020063/25
 Lender Amount: 81730.06
 Borrower Amount: 81730.06</t>
         </is>
@@ -22865,8 +24001,18 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr"/>
-      <c r="B942" t="inlineStr"/>
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B942" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" s="4" t="inlineStr">
@@ -22882,8 +24028,18 @@
       <c r="K942" t="inlineStr"/>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr"/>
-      <c r="B943" t="inlineStr"/>
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B943" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
@@ -23275,8 +24431,7 @@
       </c>
       <c r="B959" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
+          <t>LC Match: LC-141325020163/25
 Lender Amount: 341847.68
 Borrower Amount: 341847.68</t>
         </is>
@@ -23314,8 +24469,18 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
-      <c r="B960" t="inlineStr"/>
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B960" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr"/>
       <c r="E960" s="4" t="inlineStr">
@@ -23333,8 +24498,18 @@
       <c r="K960" t="inlineStr"/>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr"/>
-      <c r="B961" t="inlineStr"/>
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B961" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr"/>
       <c r="E961" s="4" t="inlineStr">
@@ -23352,8 +24527,18 @@
       <c r="K961" t="inlineStr"/>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr"/>
-      <c r="B962" t="inlineStr"/>
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B962" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C962" t="inlineStr"/>
       <c r="D962" t="inlineStr"/>
       <c r="E962" s="4" t="inlineStr">
@@ -23369,8 +24554,18 @@
       <c r="K962" t="inlineStr"/>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
-      <c r="B963" t="inlineStr"/>
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B963" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 341847.68
+Borrower Amount: 341847.68</t>
+        </is>
+      </c>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
         <is>
@@ -23581,8 +24776,7 @@
       </c>
       <c r="B972" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-222825150235/25
+          <t>LC Match: LC-222825150235/25
 Lender Amount: 36757.00
 Borrower Amount: 36757.00</t>
         </is>
@@ -23620,8 +24814,18 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr"/>
-      <c r="B973" t="inlineStr"/>
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B973" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" s="4" t="inlineStr">
@@ -23637,8 +24841,18 @@
       <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr"/>
-      <c r="B974" t="inlineStr"/>
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B974" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
         <is>
@@ -23738,8 +24952,7 @@
       </c>
       <c r="B978" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020068/25
+          <t>LC Match: LC-141325020068/25
 Lender Amount: 3587219.00
 Borrower Amount: 3587219.00</t>
         </is>
@@ -23777,8 +24990,18 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr"/>
-      <c r="B979" t="inlineStr"/>
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B979" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
       <c r="E979" s="4" t="inlineStr">
@@ -23796,8 +25019,18 @@
       <c r="K979" t="inlineStr"/>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
-      <c r="B980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B980" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
       <c r="E980" s="4" t="inlineStr">
@@ -23815,8 +25048,18 @@
       <c r="K980" t="inlineStr"/>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
-      <c r="B981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B981" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
       <c r="E981" s="4" t="inlineStr">
@@ -23834,8 +25077,18 @@
       <c r="K981" t="inlineStr"/>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
-      <c r="B982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B982" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
       <c r="E982" s="4" t="inlineStr">
@@ -23851,8 +25104,18 @@
       <c r="K982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
-      <c r="B983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B983" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
         <is>
@@ -23879,8 +25142,7 @@
       </c>
       <c r="B984" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524990243/24
+          <t>LC Match: LC-308524990243/24
 Lender Amount: 68747.06
 Borrower Amount: 68747.06</t>
         </is>
@@ -23918,8 +25180,18 @@
       <c r="K984" t="inlineStr"/>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B985" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
       <c r="E985" s="4" t="inlineStr">
@@ -23935,8 +25207,18 @@
       <c r="K985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
-      <c r="B986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B986" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
         <is>
@@ -24497,8 +25779,7 @@
       </c>
       <c r="B1010" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308525021741/25
+          <t>LC Match: LC-308525021741/25
 Lender Amount: 31411.11
 Borrower Amount: 31411.11</t>
         </is>
@@ -24536,8 +25817,18 @@
       <c r="K1010" t="inlineStr"/>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr"/>
-      <c r="B1011" t="inlineStr"/>
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1011" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
       <c r="E1011" s="4" t="inlineStr">
@@ -24553,8 +25844,18 @@
       <c r="K1011" t="inlineStr"/>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr"/>
-      <c r="B1012" t="inlineStr"/>
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1012" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
@@ -25020,8 +26321,7 @@
       </c>
       <c r="B1031" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-155825010037/25
+          <t>LC Match: LC-155825010037/25
 Lender Amount: 853297.01
 Borrower Amount: 853297.01</t>
         </is>
@@ -25059,8 +26359,18 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
-      <c r="B1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1032" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -25076,8 +26386,18 @@
       <c r="K1032" t="inlineStr"/>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
-      <c r="B1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1033" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
         <is>
@@ -26694,8 +28014,7 @@
       </c>
       <c r="B1100" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020163/25
+          <t>LC Match: LC-141325020163/25
 Lender Amount: 1725.00
 Borrower Amount: 1725.00</t>
         </is>
@@ -26733,8 +28052,18 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr"/>
-      <c r="B1101" t="inlineStr"/>
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1101" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" s="4" t="inlineStr">
@@ -26750,8 +28079,18 @@
       <c r="K1101" t="inlineStr"/>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr"/>
-      <c r="B1102" t="inlineStr"/>
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1102" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
@@ -26778,8 +28117,7 @@
       </c>
       <c r="B1103" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308525021746/25
+          <t>LC Match: LC-308525021746/25
 Lender Amount: 35373.50
 Borrower Amount: 35373.50</t>
         </is>
@@ -26817,8 +28155,18 @@
       <c r="K1103" t="inlineStr"/>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr"/>
-      <c r="B1104" t="inlineStr"/>
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1104" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" s="4" t="inlineStr">
@@ -26834,8 +28182,18 @@
       <c r="K1104" t="inlineStr"/>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr"/>
-      <c r="B1105" t="inlineStr"/>
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B1105" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
         <is>
@@ -27338,8 +28696,7 @@
       </c>
       <c r="B1126" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-141325020063/141325020112
+          <t>LC Match: LC-141325020063/141325020112
 Lender Amount: 576120.39
 Borrower Amount: 576120.39</t>
         </is>
@@ -27377,8 +28734,18 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
-      <c r="B1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1127" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" s="4" t="inlineStr">
@@ -27396,8 +28763,18 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr"/>
-      <c r="B1128" t="inlineStr"/>
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1128" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" s="4" t="inlineStr">
@@ -27415,8 +28792,18 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
-      <c r="B1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1129" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -27434,8 +28821,18 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
-      <c r="B1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1130" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" s="4" t="inlineStr">
@@ -27453,8 +28850,18 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr"/>
-      <c r="B1131" t="inlineStr"/>
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1131" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" s="4" t="inlineStr">
@@ -27470,8 +28877,18 @@
       <c r="K1131" t="inlineStr"/>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr"/>
-      <c r="B1132" t="inlineStr"/>
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B1132" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
@@ -27498,8 +28915,7 @@
       </c>
       <c r="B1133" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022166 
+          <t>LC Match: LC-308524022166 
 Lender Amount: 758000.00
 Borrower Amount: 758000.00</t>
         </is>
@@ -27537,8 +28953,18 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr"/>
-      <c r="B1134" t="inlineStr"/>
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1134" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" s="4" t="inlineStr">
@@ -27554,8 +28980,18 @@
       <c r="K1134" t="inlineStr"/>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr"/>
-      <c r="B1135" t="inlineStr"/>
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B1135" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
@@ -28166,8 +29602,7 @@
       </c>
       <c r="B1160" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-LC-308524022166 
+          <t>LC Match: LC-308524022166 
 Lender Amount: 4009000.00
 Borrower Amount: 4009000.00</t>
         </is>
@@ -28205,8 +29640,18 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
-      <c r="B1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1161" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" s="4" t="inlineStr">
@@ -28222,8 +29667,18 @@
       <c r="K1161" t="inlineStr"/>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr"/>
-      <c r="B1162" t="inlineStr"/>
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>M069</t>
+        </is>
+      </c>
+      <c r="B1162" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
         <is>
@@ -28396,8 +29851,7 @@
       </c>
       <c r="B1169" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-308524026037/24
+          <t>LC Match: L/C-308524026037/24
 Lender Amount: 14417.98
 Borrower Amount: 14417.98</t>
         </is>
@@ -28435,8 +29889,18 @@
       <c r="K1169" t="inlineStr"/>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
-      <c r="B1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1170" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" s="4" t="inlineStr">
@@ -28452,8 +29916,18 @@
       <c r="K1170" t="inlineStr"/>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
-      <c r="B1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>M070</t>
+        </is>
+      </c>
+      <c r="B1171" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
@@ -29064,8 +30538,7 @@
       </c>
       <c r="B1196" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147125020202/25
+          <t>LC Match: L/C-147125020202/25
 Lender Amount: 3499168.01
 Borrower Amount: 3499168.01</t>
         </is>
@@ -29103,8 +30576,18 @@
       <c r="K1196" t="inlineStr"/>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
-      <c r="B1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1197" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" s="4" t="inlineStr">
@@ -29120,8 +30603,18 @@
       <c r="K1197" t="inlineStr"/>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
-      <c r="B1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>M071</t>
+        </is>
+      </c>
+      <c r="B1198" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
@@ -29576,8 +31069,7 @@
       </c>
       <c r="B1219" s="4" t="inlineStr">
         <is>
-          <t>Match Type: LC Match
-L/C-147124020074/24
+          <t>LC Match: L/C-147124020074/24
 Lender Amount: 6242871.55
 Borrower Amount: 6242871.55</t>
         </is>
@@ -29615,8 +31107,18 @@
       <c r="K1219" t="inlineStr"/>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr"/>
-      <c r="B1220" t="inlineStr"/>
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1220" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" s="4" t="inlineStr">
@@ -29632,8 +31134,18 @@
       <c r="K1220" t="inlineStr"/>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr"/>
-      <c r="B1221" t="inlineStr"/>
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>M072</t>
+        </is>
+      </c>
+      <c r="B1221" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1542,13 +1542,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1614,13 +1608,7 @@
           <t>M001</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 5040781.68
-Borrower Amount: 5040781.68</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
@@ -1640,18 +1628,8 @@
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>01/Jan/2025</t>
@@ -1685,18 +1663,8 @@
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
@@ -1714,18 +1682,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
@@ -1743,18 +1701,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
@@ -1772,18 +1720,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
@@ -1799,18 +1737,8 @@
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 15737222.22
-Borrower Amount: 15737222.22</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
@@ -1976,18 +1904,8 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>02/Jan/2025</t>
@@ -2021,18 +1939,8 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
@@ -2048,18 +1956,8 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 8884.77
-Borrower Amount: 8884.77</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
@@ -2079,18 +1977,8 @@
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>05/Jan/2025</t>
@@ -2124,18 +2012,8 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
@@ -2151,18 +2029,8 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
@@ -2474,18 +2342,8 @@
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>15/Jan/2025</t>
@@ -2519,18 +2377,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
@@ -2546,18 +2394,8 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
@@ -2577,18 +2415,8 @@
       <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>15/Jan/2025</t>
@@ -2622,18 +2450,8 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
@@ -2649,18 +2467,8 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B91" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1575.00
-Borrower Amount: 1575.00</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
@@ -3045,18 +2853,8 @@
       <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>28/Jan/2025</t>
@@ -3090,18 +2888,8 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
@@ -3117,18 +2905,8 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>M010</t>
-        </is>
-      </c>
-      <c r="B109" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26246.93
-Borrower Amount: 26246.93</t>
-        </is>
-      </c>
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
@@ -5889,18 +5667,8 @@
       <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B229" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -5934,18 +5702,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B230" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" s="4" t="inlineStr">
@@ -5961,18 +5719,8 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>M012</t>
-        </is>
-      </c>
-      <c r="B231" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 1150.00
-Borrower Amount: 1150.00</t>
-        </is>
-      </c>
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
@@ -6065,18 +5813,8 @@
       <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B235" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
           <t>04/Feb/2025</t>
@@ -6110,18 +5848,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B236" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" s="4" t="inlineStr">
@@ -6137,18 +5865,8 @@
       <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B237" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010124/24
-Lender Amount: 8761.79
-Borrower Amount: 8761.79</t>
-        </is>
-      </c>
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
@@ -6571,18 +6289,8 @@
       <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B255" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
           <t>09/Feb/2025</t>
@@ -6616,18 +6324,8 @@
       <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B256" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" s="4" t="inlineStr">
@@ -6643,18 +6341,8 @@
       <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>M014</t>
-        </is>
-      </c>
-      <c r="B257" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1862.50
-Borrower Amount: 1862.50</t>
-        </is>
-      </c>
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
@@ -7096,18 +6784,8 @@
       <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B276" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
           <t>11/Feb/2025</t>
@@ -7141,18 +6819,8 @@
       <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B277" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
       <c r="E277" s="4" t="inlineStr">
@@ -7168,18 +6836,8 @@
       <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>M015</t>
-        </is>
-      </c>
-      <c r="B278" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020003/25
-Lender Amount: 27383.77
-Borrower Amount: 27383.77</t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
@@ -8573,18 +8231,8 @@
       <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B337" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
           <t>18/Feb/2025</t>
@@ -8618,18 +8266,8 @@
       <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B338" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
       <c r="E338" s="4" t="inlineStr">
@@ -8645,18 +8283,8 @@
       <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B339" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 71971.54
-Borrower Amount: 71971.54</t>
-        </is>
-      </c>
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
@@ -8676,18 +8304,8 @@
       <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B340" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
           <t>19/Feb/2025</t>
@@ -8721,18 +8339,8 @@
       <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B341" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" s="4" t="inlineStr">
@@ -8748,18 +8356,8 @@
       <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B342" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 20527984.90
-Borrower Amount: 20527984.90</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
@@ -8779,18 +8377,8 @@
       <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B343" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
           <t>23/Feb/2025</t>
@@ -8824,18 +8412,8 @@
       <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B344" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="4" t="inlineStr">
@@ -8851,18 +8429,8 @@
       <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B345" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020653/25
-Lender Amount: 665048.82
-Borrower Amount: 665048.82</t>
-        </is>
-      </c>
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
@@ -8882,18 +8450,8 @@
       <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B346" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
           <t>23/Feb/2025</t>
@@ -8927,18 +8485,8 @@
       <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B347" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
       <c r="E347" s="4" t="inlineStr">
@@ -8954,18 +8502,8 @@
       <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B348" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 25042.61
-Borrower Amount: 25042.61</t>
-        </is>
-      </c>
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
@@ -9278,18 +8816,8 @@
       <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B361" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
           <t>25/Feb/2025</t>
@@ -9323,18 +8851,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B362" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
@@ -9350,18 +8868,8 @@
       <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B363" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 5995080.00
-Borrower Amount: 5995080.00</t>
-        </is>
-      </c>
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
@@ -9381,18 +8889,8 @@
       <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B364" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -9426,18 +8924,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B365" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" s="4" t="inlineStr">
@@ -9453,18 +8941,8 @@
       <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B366" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 33573.89
-Borrower Amount: 33573.89</t>
-        </is>
-      </c>
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
@@ -9484,18 +8962,8 @@
       <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B367" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
           <t>26/Feb/2025</t>
@@ -9529,18 +8997,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B368" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
       <c r="E368" s="4" t="inlineStr">
@@ -9556,18 +9014,8 @@
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B369" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 1650660.00
-Borrower Amount: 1650660.00</t>
-        </is>
-      </c>
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
@@ -9807,18 +9255,8 @@
       <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B379" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr">
         <is>
           <t>27/Feb/2025</t>
@@ -9852,18 +9290,8 @@
       <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B380" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
       <c r="E380" s="4" t="inlineStr">
@@ -9881,18 +9309,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B381" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
       <c r="E381" s="4" t="inlineStr">
@@ -9910,18 +9328,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B382" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
       <c r="E382" s="4" t="inlineStr">
@@ -9937,18 +9345,8 @@
       <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B383" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155824020001/24
-Lender Amount: 7641878.37
-Borrower Amount: 7641878.37</t>
-        </is>
-      </c>
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
@@ -10992,18 +10390,8 @@
       <c r="K431" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B432" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
           <t>01/Mar/2025</t>
@@ -11037,18 +10425,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B433" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" s="4" t="inlineStr">
@@ -11064,18 +10442,8 @@
       <c r="K433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B434" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 246401.97
-Borrower Amount: 246401.97</t>
-        </is>
-      </c>
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
@@ -11241,18 +10609,8 @@
       <c r="K440" t="inlineStr"/>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B441" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
           <t>01/Mar/2025</t>
@@ -11286,18 +10644,8 @@
       <c r="K441" t="inlineStr"/>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B442" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" t="inlineStr"/>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
       <c r="E442" s="4" t="inlineStr">
@@ -11313,18 +10661,8 @@
       <c r="K442" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B443" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022796/24
-Lender Amount: 26369.63
-Borrower Amount: 26369.63</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr"/>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
@@ -11747,18 +11085,8 @@
       <c r="K460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B461" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr">
         <is>
           <t>06/Mar/2025</t>
@@ -11792,18 +11120,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B462" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
       <c r="E462" s="4" t="inlineStr">
@@ -11819,18 +11137,8 @@
       <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B463" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 2357.50
-Borrower Amount: 2357.50</t>
-        </is>
-      </c>
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
@@ -11923,18 +11231,8 @@
       <c r="K466" t="inlineStr"/>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B467" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -11968,18 +11266,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B468" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
       <c r="E468" s="4" t="inlineStr">
@@ -11995,18 +11283,8 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B469" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150235/25
-Lender Amount: 213500.00
-Borrower Amount: 213500.00</t>
-        </is>
-      </c>
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
@@ -12028,16 +11306,10 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B470" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr">
         <is>
           <t>09/Mar/2025</t>
@@ -12073,7 +11345,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
@@ -12100,16 +11372,10 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B472" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
@@ -12129,18 +11395,8 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B473" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
           <t>10/Mar/2025</t>
@@ -12174,18 +11430,8 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B474" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
       <c r="E474" s="4" t="inlineStr">
@@ -12203,18 +11449,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B475" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
       <c r="E475" s="4" t="inlineStr">
@@ -12232,18 +11468,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B476" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -12259,18 +11485,8 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B477" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-187724010122/24
-Lender Amount: 276518.90
-Borrower Amount: 276518.90</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
@@ -13020,18 +12236,8 @@
       <c r="K507" t="inlineStr"/>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B508" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A508" t="inlineStr"/>
+      <c r="B508" t="inlineStr"/>
       <c r="C508" t="inlineStr">
         <is>
           <t>18/Mar/2025</t>
@@ -13065,18 +12271,8 @@
       <c r="K508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B509" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
       <c r="E509" s="4" t="inlineStr">
@@ -13092,18 +12288,8 @@
       <c r="K509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B510" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 54431.58
-Borrower Amount: 54431.58</t>
-        </is>
-      </c>
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
         <is>
@@ -13342,18 +12528,8 @@
       <c r="K519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B520" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
           <t>19/Mar/2025</t>
@@ -13387,18 +12563,8 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B521" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -13414,18 +12580,8 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B522" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524027065/24
-Lender Amount: 8231.99
-Borrower Amount: 8231.99</t>
-        </is>
-      </c>
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
@@ -14482,18 +13638,8 @@
       <c r="K569" t="inlineStr"/>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B570" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
           <t>25/Mar/2025</t>
@@ -14527,18 +13673,8 @@
       <c r="K570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B571" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" s="4" t="inlineStr">
@@ -14554,18 +13690,8 @@
       <c r="K571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B572" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020708/24
-Lender Amount: 19399.10
-Borrower Amount: 19399.10</t>
-        </is>
-      </c>
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
@@ -14587,16 +13713,10 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B573" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr">
         <is>
           <t>25/Mar/2025</t>
@@ -14632,7 +13752,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>M033</t>
+          <t>M003</t>
         </is>
       </c>
       <c r="B574" s="4" t="inlineStr">
@@ -14659,16 +13779,10 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B575" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524990243/24
-Lender Amount: 15160.97
-Borrower Amount: 15160.97</t>
-        </is>
-      </c>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
       <c r="C575" t="inlineStr"/>
       <c r="D575" t="inlineStr">
         <is>
@@ -14837,18 +13951,8 @@
       <c r="K582" t="inlineStr"/>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B583" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" t="inlineStr"/>
       <c r="C583" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -14882,18 +13986,8 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B584" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
       <c r="E584" s="4" t="inlineStr">
@@ -14911,18 +14005,8 @@
       <c r="K584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B585" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
       <c r="E585" s="4" t="inlineStr">
@@ -14940,18 +14024,8 @@
       <c r="K585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B586" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr"/>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
       <c r="E586" s="4" t="inlineStr">
@@ -14967,18 +14041,8 @@
       <c r="K586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B587" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 6125933.94
-Borrower Amount: 6125933.94</t>
-        </is>
-      </c>
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr"/>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
         <is>
@@ -14998,18 +14062,8 @@
       <c r="K587" t="inlineStr"/>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B588" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr"/>
       <c r="C588" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -15043,18 +14097,8 @@
       <c r="K588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B589" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" t="inlineStr"/>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" s="4" t="inlineStr">
@@ -15070,18 +14114,8 @@
       <c r="K589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B590" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 12425.77
-Borrower Amount: 12425.77</t>
-        </is>
-      </c>
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
         <is>
@@ -15101,18 +14135,8 @@
       <c r="K590" t="inlineStr"/>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B591" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
           <t>27/Mar/2025</t>
@@ -15146,18 +14170,8 @@
       <c r="K591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B592" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr"/>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
       <c r="E592" s="4" t="inlineStr">
@@ -15173,18 +14187,8 @@
       <c r="K592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B593" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524022495/24
-Lender Amount: 23580.68
-Borrower Amount: 23580.68</t>
-        </is>
-      </c>
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr"/>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
         <is>
@@ -16190,18 +15194,8 @@
       <c r="K639" t="inlineStr"/>
     </row>
     <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B640" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" t="inlineStr"/>
       <c r="C640" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -16235,18 +15229,8 @@
       <c r="K640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B641" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" t="inlineStr"/>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
       <c r="E641" s="4" t="inlineStr">
@@ -16262,18 +15246,8 @@
       <c r="K641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B642" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021741/25
-Lender Amount: 22671.95
-Borrower Amount: 22671.95</t>
-        </is>
-      </c>
+      <c r="A642" t="inlineStr"/>
+      <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
@@ -16293,18 +15267,8 @@
       <c r="K642" t="inlineStr"/>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B643" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -16338,18 +15302,8 @@
       <c r="K643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B644" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" t="inlineStr"/>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
       <c r="E644" s="4" t="inlineStr">
@@ -16365,18 +15319,8 @@
       <c r="K644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B645" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308525021745/25
-Lender Amount: 28854.86
-Borrower Amount: 28854.86</t>
-        </is>
-      </c>
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
@@ -16396,18 +15340,8 @@
       <c r="K645" t="inlineStr"/>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B646" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A646" t="inlineStr"/>
+      <c r="B646" t="inlineStr"/>
       <c r="C646" t="inlineStr">
         <is>
           <t>07/Apr/2025</t>
@@ -16441,18 +15375,8 @@
       <c r="K646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B647" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A647" t="inlineStr"/>
+      <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" s="4" t="inlineStr">
@@ -16468,18 +15392,8 @@
       <c r="K647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B648" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A648" t="inlineStr"/>
+      <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
         <is>
@@ -17012,16 +15926,10 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B670" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr"/>
       <c r="C670" t="inlineStr">
         <is>
           <t>15/Apr/2025</t>
@@ -17057,7 +15965,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>M040</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="B671" s="4" t="inlineStr">
@@ -17084,16 +15992,10 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B672" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 80051.03
-Borrower Amount: 80051.03</t>
-        </is>
-      </c>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
@@ -17113,18 +16015,8 @@
       <c r="K672" t="inlineStr"/>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B673" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A673" t="inlineStr"/>
+      <c r="B673" t="inlineStr"/>
       <c r="C673" t="inlineStr">
         <is>
           <t>16/Apr/2025</t>
@@ -17158,18 +16050,8 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B674" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A674" t="inlineStr"/>
+      <c r="B674" t="inlineStr"/>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
       <c r="E674" s="4" t="inlineStr">
@@ -17187,18 +16069,8 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B675" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A675" t="inlineStr"/>
+      <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
       <c r="E675" s="4" t="inlineStr">
@@ -17216,18 +16088,8 @@
       <c r="K675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B676" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A676" t="inlineStr"/>
+      <c r="B676" t="inlineStr"/>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -17243,18 +16105,8 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B677" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 6777058.20
-Borrower Amount: 6777058.20</t>
-        </is>
-      </c>
+      <c r="A677" t="inlineStr"/>
+      <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
@@ -17347,18 +16199,8 @@
       <c r="K680" t="inlineStr"/>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B681" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A681" t="inlineStr"/>
+      <c r="B681" t="inlineStr"/>
       <c r="C681" t="inlineStr">
         <is>
           <t>17/Apr/2025</t>
@@ -17392,18 +16234,8 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B682" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A682" t="inlineStr"/>
+      <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
       <c r="E682" s="4" t="inlineStr">
@@ -17421,18 +16253,8 @@
       <c r="K682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B683" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A683" t="inlineStr"/>
+      <c r="B683" t="inlineStr"/>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
       <c r="E683" s="4" t="inlineStr">
@@ -17450,18 +16272,8 @@
       <c r="K683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B684" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A684" t="inlineStr"/>
+      <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" s="4" t="inlineStr">
@@ -17477,18 +16289,8 @@
       <c r="K684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B685" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-155823010186/23
-Lender Amount: 76000.00
-Borrower Amount: 76000.00</t>
-        </is>
-      </c>
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr"/>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
@@ -17727,18 +16529,8 @@
       <c r="K694" t="inlineStr"/>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B695" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A695" t="inlineStr"/>
+      <c r="B695" t="inlineStr"/>
       <c r="C695" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -17772,18 +16564,8 @@
       <c r="K695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B696" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A696" t="inlineStr"/>
+      <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" s="4" t="inlineStr">
@@ -17799,18 +16581,8 @@
       <c r="K696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B697" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524026037/222824023549
-Lender Amount: 1226351.09
-Borrower Amount: 1226351.09</t>
-        </is>
-      </c>
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr"/>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
@@ -17903,18 +16675,8 @@
       <c r="K700" t="inlineStr"/>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B701" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A701" t="inlineStr"/>
+      <c r="B701" t="inlineStr"/>
       <c r="C701" t="inlineStr">
         <is>
           <t>21/Apr/2025</t>
@@ -17948,18 +16710,8 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B702" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A702" t="inlineStr"/>
+      <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" s="4" t="inlineStr">
@@ -17975,18 +16727,8 @@
       <c r="K702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B703" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022495/24
-Lender Amount: 1675000.00
-Borrower Amount: 1675000.00</t>
-        </is>
-      </c>
+      <c r="A703" t="inlineStr"/>
+      <c r="B703" t="inlineStr"/>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
@@ -18152,18 +16894,8 @@
       <c r="K709" t="inlineStr"/>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B710" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A710" t="inlineStr"/>
+      <c r="B710" t="inlineStr"/>
       <c r="C710" t="inlineStr">
         <is>
           <t>22/Apr/2025</t>
@@ -18197,18 +16929,8 @@
       <c r="K710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B711" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -18224,18 +16946,8 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B712" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020027/25
-Lender Amount: 10691988.92
-Borrower Amount: 10691988.92</t>
-        </is>
-      </c>
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
@@ -18255,18 +16967,8 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B713" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr">
         <is>
           <t>22/Apr/2025</t>
@@ -18300,18 +17002,8 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B714" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
       <c r="E714" s="4" t="inlineStr">
@@ -18327,18 +17019,8 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B715" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-222825150151/25
-Lender Amount: 333706.76
-Borrower Amount: 333706.76</t>
-        </is>
-      </c>
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
@@ -18358,18 +17040,8 @@
       <c r="K715" t="inlineStr"/>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B716" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="inlineStr"/>
       <c r="C716" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -18403,18 +17075,8 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B717" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
       <c r="E717" s="4" t="inlineStr">
@@ -18430,18 +17092,8 @@
       <c r="K717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B718" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020063/25
-Lender Amount: 299000.00
-Borrower Amount: 299000.00</t>
-        </is>
-      </c>
+      <c r="A718" t="inlineStr"/>
+      <c r="B718" t="inlineStr"/>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
@@ -18534,18 +17186,8 @@
       <c r="K721" t="inlineStr"/>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B722" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="inlineStr"/>
       <c r="C722" t="inlineStr">
         <is>
           <t>23/Apr/2025</t>
@@ -18579,18 +17221,8 @@
       <c r="K722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B723" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A723" t="inlineStr"/>
+      <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" s="4" t="inlineStr">
@@ -18606,18 +17238,8 @@
       <c r="K723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B724" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 13743.52
-Borrower Amount: 13743.52</t>
-        </is>
-      </c>
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
@@ -18878,18 +17500,8 @@
       <c r="K735" t="inlineStr"/>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B736" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr"/>
       <c r="C736" t="inlineStr">
         <is>
           <t>27/Apr/2025</t>
@@ -18923,18 +17535,8 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B737" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" s="4" t="inlineStr">
@@ -18950,18 +17552,8 @@
       <c r="K737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B738" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825020020/25
-Lender Amount: 60302.55
-Borrower Amount: 60302.55</t>
-        </is>
-      </c>
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
@@ -18981,18 +17573,8 @@
       <c r="K738" t="inlineStr"/>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B739" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="inlineStr"/>
       <c r="C739" t="inlineStr">
         <is>
           <t>27/Apr/2025</t>
@@ -19026,18 +17608,8 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B740" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="inlineStr"/>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
       <c r="E740" s="4" t="inlineStr">
@@ -19053,18 +17625,8 @@
       <c r="K740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B741" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 124008.78
-Borrower Amount: 124008.78</t>
-        </is>
-      </c>
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
@@ -19084,18 +17646,8 @@
       <c r="K741" t="inlineStr"/>
     </row>
     <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B742" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr"/>
       <c r="C742" t="inlineStr">
         <is>
           <t>28/Apr/2025</t>
@@ -19129,18 +17681,8 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B743" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" s="4" t="inlineStr">
@@ -19156,18 +17698,8 @@
       <c r="K743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>M051</t>
-        </is>
-      </c>
-      <c r="B744" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 31609.80
-Borrower Amount: 31609.80</t>
-        </is>
-      </c>
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
@@ -19590,18 +18122,8 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B762" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -19635,18 +18157,8 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B763" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A763" t="inlineStr"/>
+      <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
       <c r="E763" s="4" t="inlineStr">
@@ -19662,18 +18174,8 @@
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>M052</t>
-        </is>
-      </c>
-      <c r="B764" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020104/25
-Lender Amount: 10424886.36
-Borrower Amount: 10424886.36</t>
-        </is>
-      </c>
+      <c r="A764" t="inlineStr"/>
+      <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
         <is>
@@ -19693,18 +18195,8 @@
       <c r="K764" t="inlineStr"/>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B765" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A765" t="inlineStr"/>
+      <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -19738,18 +18230,8 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B766" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A766" t="inlineStr"/>
+      <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
       <c r="E766" s="4" t="inlineStr">
@@ -19765,18 +18247,8 @@
       <c r="K766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B767" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020063/25
-Lender Amount: 2168751.40
-Borrower Amount: 2168751.40</t>
-        </is>
-      </c>
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
@@ -19869,18 +18341,8 @@
       <c r="K770" t="inlineStr"/>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B771" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A771" t="inlineStr"/>
+      <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
           <t>30/Apr/2025</t>
@@ -19914,18 +18376,8 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B772" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A772" t="inlineStr"/>
+      <c r="B772" t="inlineStr"/>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" s="4" t="inlineStr">
@@ -19941,18 +18393,8 @@
       <c r="K772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B773" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-141325020068/25
-Lender Amount: 63787.54
-Borrower Amount: 63787.54</t>
-        </is>
-      </c>
+      <c r="A773" t="inlineStr"/>
+      <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
@@ -23355,18 +21797,8 @@
       <c r="K919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B920" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A920" t="inlineStr"/>
+      <c r="B920" t="inlineStr"/>
       <c r="C920" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -23400,18 +21832,8 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B921" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A921" t="inlineStr"/>
+      <c r="B921" t="inlineStr"/>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
       <c r="E921" s="4" t="inlineStr">
@@ -23427,18 +21849,8 @@
       <c r="K921" t="inlineStr"/>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B922" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020104/25
-Lender Amount: 111771.42
-Borrower Amount: 111771.42</t>
-        </is>
-      </c>
+      <c r="A922" t="inlineStr"/>
+      <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
         <is>
@@ -23458,18 +21870,8 @@
       <c r="K922" t="inlineStr"/>
     </row>
     <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B923" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A923" t="inlineStr"/>
+      <c r="B923" t="inlineStr"/>
       <c r="C923" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -23503,18 +21905,8 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B924" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A924" t="inlineStr"/>
+      <c r="B924" t="inlineStr"/>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" s="4" t="inlineStr">
@@ -23530,18 +21922,8 @@
       <c r="K924" t="inlineStr"/>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B925" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 80701.76
-Borrower Amount: 80701.76</t>
-        </is>
-      </c>
+      <c r="A925" t="inlineStr"/>
+      <c r="B925" t="inlineStr"/>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
         <is>
@@ -23561,18 +21943,8 @@
       <c r="K925" t="inlineStr"/>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B926" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A926" t="inlineStr"/>
+      <c r="B926" t="inlineStr"/>
       <c r="C926" t="inlineStr">
         <is>
           <t>17/May/2025</t>
@@ -23606,18 +21978,8 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B927" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A927" t="inlineStr"/>
+      <c r="B927" t="inlineStr"/>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" s="4" t="inlineStr">
@@ -23633,18 +21995,8 @@
       <c r="K927" t="inlineStr"/>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B928" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020112/25
-Lender Amount: 657.81
-Borrower Amount: 657.81</t>
-        </is>
-      </c>
+      <c r="A928" t="inlineStr"/>
+      <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
         <is>
@@ -23956,18 +22308,8 @@
       <c r="K940" t="inlineStr"/>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B941" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A941" t="inlineStr"/>
+      <c r="B941" t="inlineStr"/>
       <c r="C941" t="inlineStr">
         <is>
           <t>18/May/2025</t>
@@ -24001,18 +22343,8 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B942" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A942" t="inlineStr"/>
+      <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" s="4" t="inlineStr">
@@ -24028,18 +22360,8 @@
       <c r="K942" t="inlineStr"/>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B943" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/25
-Lender Amount: 81730.06
-Borrower Amount: 81730.06</t>
-        </is>
-      </c>
+      <c r="A943" t="inlineStr"/>
+      <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
@@ -24426,16 +22748,10 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B959" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr"/>
       <c r="C959" t="inlineStr">
         <is>
           <t>25/May/2025</t>
@@ -24471,16 +22787,10 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B960" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr"/>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr"/>
       <c r="E960" s="4" t="inlineStr">
@@ -24500,16 +22810,10 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B961" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr"/>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr"/>
       <c r="E961" s="4" t="inlineStr">
@@ -24529,7 +22833,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>M059</t>
+          <t>M005</t>
         </is>
       </c>
       <c r="B962" s="4" t="inlineStr">
@@ -24556,16 +22860,10 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B963" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 341847.68
-Borrower Amount: 341847.68</t>
-        </is>
-      </c>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr"/>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
         <is>
@@ -24769,18 +23067,8 @@
       <c r="K971" t="inlineStr"/>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B972" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A972" t="inlineStr"/>
+      <c r="B972" t="inlineStr"/>
       <c r="C972" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -24814,18 +23102,8 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B973" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A973" t="inlineStr"/>
+      <c r="B973" t="inlineStr"/>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" s="4" t="inlineStr">
@@ -24841,18 +23119,8 @@
       <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B974" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-222825150235/25
-Lender Amount: 36757.00
-Borrower Amount: 36757.00</t>
-        </is>
-      </c>
+      <c r="A974" t="inlineStr"/>
+      <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
         <is>
@@ -24945,18 +23213,8 @@
       <c r="K977" t="inlineStr"/>
     </row>
     <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B978" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A978" t="inlineStr"/>
+      <c r="B978" t="inlineStr"/>
       <c r="C978" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -24990,18 +23248,8 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B979" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A979" t="inlineStr"/>
+      <c r="B979" t="inlineStr"/>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
       <c r="E979" s="4" t="inlineStr">
@@ -25019,18 +23267,8 @@
       <c r="K979" t="inlineStr"/>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B980" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A980" t="inlineStr"/>
+      <c r="B980" t="inlineStr"/>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
       <c r="E980" s="4" t="inlineStr">
@@ -25048,18 +23286,8 @@
       <c r="K980" t="inlineStr"/>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B981" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A981" t="inlineStr"/>
+      <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
       <c r="E981" s="4" t="inlineStr">
@@ -25077,18 +23305,8 @@
       <c r="K981" t="inlineStr"/>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B982" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A982" t="inlineStr"/>
+      <c r="B982" t="inlineStr"/>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
       <c r="E982" s="4" t="inlineStr">
@@ -25104,18 +23322,8 @@
       <c r="K982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B983" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020068/25
-Lender Amount: 3587219.00
-Borrower Amount: 3587219.00</t>
-        </is>
-      </c>
+      <c r="A983" t="inlineStr"/>
+      <c r="B983" t="inlineStr"/>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
         <is>
@@ -25135,18 +23343,8 @@
       <c r="K983" t="inlineStr"/>
     </row>
     <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B984" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A984" t="inlineStr"/>
+      <c r="B984" t="inlineStr"/>
       <c r="C984" t="inlineStr">
         <is>
           <t>29/May/2025</t>
@@ -25180,18 +23378,8 @@
       <c r="K984" t="inlineStr"/>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B985" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A985" t="inlineStr"/>
+      <c r="B985" t="inlineStr"/>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
       <c r="E985" s="4" t="inlineStr">
@@ -25207,18 +23395,8 @@
       <c r="K985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>M062</t>
-        </is>
-      </c>
-      <c r="B986" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524990243/24
-Lender Amount: 68747.06
-Borrower Amount: 68747.06</t>
-        </is>
-      </c>
+      <c r="A986" t="inlineStr"/>
+      <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
         <is>
@@ -25772,18 +23950,8 @@
       <c r="K1009" t="inlineStr"/>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1010" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1010" t="inlineStr"/>
+      <c r="B1010" t="inlineStr"/>
       <c r="C1010" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -25817,18 +23985,8 @@
       <c r="K1010" t="inlineStr"/>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1011" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1011" t="inlineStr"/>
+      <c r="B1011" t="inlineStr"/>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
       <c r="E1011" s="4" t="inlineStr">
@@ -25844,18 +24002,8 @@
       <c r="K1011" t="inlineStr"/>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>M063</t>
-        </is>
-      </c>
-      <c r="B1012" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021741/25
-Lender Amount: 31411.11
-Borrower Amount: 31411.11</t>
-        </is>
-      </c>
+      <c r="A1012" t="inlineStr"/>
+      <c r="B1012" t="inlineStr"/>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
@@ -26314,18 +24462,8 @@
       <c r="K1030" t="inlineStr"/>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1031" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1031" t="inlineStr"/>
+      <c r="B1031" t="inlineStr"/>
       <c r="C1031" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
@@ -26359,18 +24497,8 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1032" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1032" t="inlineStr"/>
+      <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -26386,18 +24514,8 @@
       <c r="K1032" t="inlineStr"/>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B1033" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-155825010037/25
-Lender Amount: 853297.01
-Borrower Amount: 853297.01</t>
-        </is>
-      </c>
+      <c r="A1033" t="inlineStr"/>
+      <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
         <is>
@@ -28007,18 +26125,8 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1100" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1100" t="inlineStr"/>
+      <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr">
         <is>
           <t>16/Jun/2025</t>
@@ -28052,18 +26160,8 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1101" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1101" t="inlineStr"/>
+      <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" s="4" t="inlineStr">
@@ -28079,18 +26177,8 @@
       <c r="K1101" t="inlineStr"/>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B1102" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020163/25
-Lender Amount: 1725.00
-Borrower Amount: 1725.00</t>
-        </is>
-      </c>
+      <c r="A1102" t="inlineStr"/>
+      <c r="B1102" t="inlineStr"/>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
@@ -28110,18 +26198,8 @@
       <c r="K1102" t="inlineStr"/>
     </row>
     <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1103" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1103" t="inlineStr"/>
+      <c r="B1103" t="inlineStr"/>
       <c r="C1103" t="inlineStr">
         <is>
           <t>17/Jun/2025</t>
@@ -28155,18 +26233,8 @@
       <c r="K1103" t="inlineStr"/>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1104" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1104" t="inlineStr"/>
+      <c r="B1104" t="inlineStr"/>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" s="4" t="inlineStr">
@@ -28182,18 +26250,8 @@
       <c r="K1104" t="inlineStr"/>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B1105" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308525021746/25
-Lender Amount: 35373.50
-Borrower Amount: 35373.50</t>
-        </is>
-      </c>
+      <c r="A1105" t="inlineStr"/>
+      <c r="B1105" t="inlineStr"/>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
         <is>
@@ -28689,18 +26747,8 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1126" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1126" t="inlineStr"/>
+      <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr">
         <is>
           <t>22/Jun/2025</t>
@@ -28734,18 +26782,8 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1127" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1127" t="inlineStr"/>
+      <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
       <c r="E1127" s="4" t="inlineStr">
@@ -28763,18 +26801,8 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1128" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1128" t="inlineStr"/>
+      <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
       <c r="E1128" s="4" t="inlineStr">
@@ -28792,18 +26820,8 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1129" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1129" t="inlineStr"/>
+      <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" s="4" t="inlineStr">
@@ -28821,18 +26839,8 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1130" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1130" t="inlineStr"/>
+      <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
       <c r="E1130" s="4" t="inlineStr">
@@ -28850,18 +26858,8 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1131" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1131" t="inlineStr"/>
+      <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" s="4" t="inlineStr">
@@ -28877,18 +26875,8 @@
       <c r="K1131" t="inlineStr"/>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B1132" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-141325020063/141325020112
-Lender Amount: 576120.39
-Borrower Amount: 576120.39</t>
-        </is>
-      </c>
+      <c r="A1132" t="inlineStr"/>
+      <c r="B1132" t="inlineStr"/>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
@@ -28908,18 +26896,8 @@
       <c r="K1132" t="inlineStr"/>
     </row>
     <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1133" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1133" t="inlineStr"/>
+      <c r="B1133" t="inlineStr"/>
       <c r="C1133" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
@@ -28953,18 +26931,8 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1134" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1134" t="inlineStr"/>
+      <c r="B1134" t="inlineStr"/>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" s="4" t="inlineStr">
@@ -28980,18 +26948,8 @@
       <c r="K1134" t="inlineStr"/>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B1135" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 758000.00
-Borrower Amount: 758000.00</t>
-        </is>
-      </c>
+      <c r="A1135" t="inlineStr"/>
+      <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
@@ -29595,18 +27553,8 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1160" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1160" t="inlineStr"/>
+      <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -29640,18 +27588,8 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1161" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1161" t="inlineStr"/>
+      <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" s="4" t="inlineStr">
@@ -29667,18 +27605,8 @@
       <c r="K1161" t="inlineStr"/>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>M069</t>
-        </is>
-      </c>
-      <c r="B1162" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: LC-308524022166 
-Lender Amount: 4009000.00
-Borrower Amount: 4009000.00</t>
-        </is>
-      </c>
+      <c r="A1162" t="inlineStr"/>
+      <c r="B1162" t="inlineStr"/>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
         <is>
@@ -29844,18 +27772,8 @@
       <c r="K1168" t="inlineStr"/>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1169" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1169" t="inlineStr"/>
+      <c r="B1169" t="inlineStr"/>
       <c r="C1169" t="inlineStr">
         <is>
           <t>24/Jun/2025</t>
@@ -29889,18 +27807,8 @@
       <c r="K1169" t="inlineStr"/>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1170" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1170" t="inlineStr"/>
+      <c r="B1170" t="inlineStr"/>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" s="4" t="inlineStr">
@@ -29916,18 +27824,8 @@
       <c r="K1170" t="inlineStr"/>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>M070</t>
-        </is>
-      </c>
-      <c r="B1171" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-308524026037/24
-Lender Amount: 14417.98
-Borrower Amount: 14417.98</t>
-        </is>
-      </c>
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr"/>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
@@ -30531,18 +28429,8 @@
       <c r="K1195" t="inlineStr"/>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1196" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1196" t="inlineStr"/>
+      <c r="B1196" t="inlineStr"/>
       <c r="C1196" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
@@ -30576,18 +28464,8 @@
       <c r="K1196" t="inlineStr"/>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1197" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1197" t="inlineStr"/>
+      <c r="B1197" t="inlineStr"/>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" s="4" t="inlineStr">
@@ -30603,18 +28481,8 @@
       <c r="K1197" t="inlineStr"/>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>M071</t>
-        </is>
-      </c>
-      <c r="B1198" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147125020202/25
-Lender Amount: 3499168.01
-Borrower Amount: 3499168.01</t>
-        </is>
-      </c>
+      <c r="A1198" t="inlineStr"/>
+      <c r="B1198" t="inlineStr"/>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
@@ -31062,18 +28930,8 @@
       <c r="K1218" t="inlineStr"/>
     </row>
     <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1219" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1219" t="inlineStr"/>
+      <c r="B1219" t="inlineStr"/>
       <c r="C1219" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
@@ -31107,18 +28965,8 @@
       <c r="K1219" t="inlineStr"/>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1220" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1220" t="inlineStr"/>
+      <c r="B1220" t="inlineStr"/>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" s="4" t="inlineStr">
@@ -31134,18 +28982,8 @@
       <c r="K1220" t="inlineStr"/>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>M072</t>
-        </is>
-      </c>
-      <c r="B1221" s="4" t="inlineStr">
-        <is>
-          <t>LC Match: L/C-147124020074/24
-Lender Amount: 6242871.55
-Borrower Amount: 6242871.55</t>
-        </is>
-      </c>
+      <c r="A1221" t="inlineStr"/>
+      <c r="B1221" t="inlineStr"/>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1628,7 +1628,11 @@
       <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
@@ -1663,7 +1667,11 @@
       <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1682,7 +1690,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
@@ -1701,7 +1713,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -1720,8 +1736,18 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 15737222.22
+Borrower Amount: 15737222.22</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
@@ -1737,7 +1763,11 @@
       <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
@@ -1904,7 +1934,11 @@
       <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
@@ -1939,8 +1973,18 @@
       <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 8884.77
+Borrower Amount: 8884.77</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
@@ -1956,7 +2000,11 @@
       <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
@@ -1977,7 +2025,11 @@
       <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
@@ -2012,8 +2064,18 @@
       <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
@@ -2029,7 +2091,11 @@
       <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
@@ -2342,7 +2408,11 @@
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
@@ -2377,8 +2447,18 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
@@ -2394,7 +2474,11 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
@@ -2415,7 +2499,11 @@
       <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
@@ -2450,8 +2538,18 @@
       <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1575.00
+Borrower Amount: 1575.00</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
@@ -2467,7 +2565,11 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
@@ -2853,7 +2955,11 @@
       <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
@@ -2888,8 +2994,18 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022796/24
+Lender Amount: 26246.93
+Borrower Amount: 26246.93</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
@@ -2905,7 +3021,11 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
@@ -5667,7 +5787,11 @@
       <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
@@ -5702,8 +5826,18 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 1150.00
+Borrower Amount: 1150.00</t>
+        </is>
+      </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" s="4" t="inlineStr">
@@ -5719,7 +5853,11 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
@@ -5813,7 +5951,11 @@
       <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
@@ -5848,8 +5990,18 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010124/24
+Lender Amount: 8761.79
+Borrower Amount: 8761.79</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" s="4" t="inlineStr">
@@ -5865,7 +6017,11 @@
       <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
@@ -6289,7 +6445,11 @@
       <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
@@ -6324,8 +6484,18 @@
       <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 1862.50
+Borrower Amount: 1862.50</t>
+        </is>
+      </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" s="4" t="inlineStr">
@@ -6341,7 +6511,11 @@
       <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
@@ -6784,7 +6958,11 @@
       <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
@@ -6819,8 +6997,18 @@
       <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
+      <c r="B277" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020003/25
+Lender Amount: 27383.77
+Borrower Amount: 27383.77</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr"/>
       <c r="E277" s="4" t="inlineStr">
@@ -6836,7 +7024,11 @@
       <c r="K277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>M009</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
@@ -8231,7 +8423,11 @@
       <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
@@ -8266,8 +8462,18 @@
       <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B338" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 71971.54
+Borrower Amount: 71971.54</t>
+        </is>
+      </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr"/>
       <c r="E338" s="4" t="inlineStr">
@@ -8283,7 +8489,11 @@
       <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
@@ -8304,7 +8514,11 @@
       <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
@@ -8339,8 +8553,18 @@
       <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr"/>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B341" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524990243/24
+Lender Amount: 20527984.90
+Borrower Amount: 20527984.90</t>
+        </is>
+      </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr"/>
       <c r="E341" s="4" t="inlineStr">
@@ -8356,7 +8580,11 @@
       <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
@@ -8377,7 +8605,11 @@
       <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr">
         <is>
@@ -8412,8 +8644,18 @@
       <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr"/>
-      <c r="B344" t="inlineStr"/>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B344" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020653/25
+Lender Amount: 665048.82
+Borrower Amount: 665048.82</t>
+        </is>
+      </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr"/>
       <c r="E344" s="4" t="inlineStr">
@@ -8429,7 +8671,11 @@
       <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
@@ -8450,7 +8696,11 @@
       <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr"/>
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
@@ -8485,8 +8735,18 @@
       <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
-      <c r="B347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B347" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 25042.61
+Borrower Amount: 25042.61</t>
+        </is>
+      </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
       <c r="E347" s="4" t="inlineStr">
@@ -8502,7 +8762,11 @@
       <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
@@ -8816,7 +9080,11 @@
       <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
@@ -8851,8 +9119,18 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
-      <c r="B362" t="inlineStr"/>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B362" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 5995080.00
+Borrower Amount: 5995080.00</t>
+        </is>
+      </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr"/>
       <c r="E362" s="4" t="inlineStr">
@@ -8868,7 +9146,11 @@
       <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
@@ -8889,7 +9171,11 @@
       <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr"/>
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
@@ -8924,8 +9210,18 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
-      <c r="B365" t="inlineStr"/>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 33573.89
+Borrower Amount: 33573.89</t>
+        </is>
+      </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr"/>
       <c r="E365" s="4" t="inlineStr">
@@ -8941,7 +9237,11 @@
       <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
@@ -8962,7 +9262,11 @@
       <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
@@ -8997,8 +9301,18 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
-      <c r="B368" t="inlineStr"/>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B368" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 1650660.00
+Borrower Amount: 1650660.00</t>
+        </is>
+      </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
       <c r="E368" s="4" t="inlineStr">
@@ -9014,7 +9328,11 @@
       <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
@@ -9255,7 +9573,11 @@
       <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr"/>
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr">
         <is>
@@ -9290,7 +9612,11 @@
       <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr"/>
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr"/>
@@ -9309,7 +9635,11 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr"/>
@@ -9328,8 +9658,18 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr"/>
-      <c r="B382" t="inlineStr"/>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B382" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155824020001/24
+Lender Amount: 7641878.37
+Borrower Amount: 7641878.37</t>
+        </is>
+      </c>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr"/>
       <c r="E382" s="4" t="inlineStr">
@@ -9345,7 +9685,11 @@
       <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr"/>
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
@@ -10390,7 +10734,11 @@
       <c r="K431" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr"/>
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
@@ -10425,8 +10773,18 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
-      <c r="B433" t="inlineStr"/>
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B433" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 246401.97
+Borrower Amount: 246401.97</t>
+        </is>
+      </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
       <c r="E433" s="4" t="inlineStr">
@@ -10442,7 +10800,11 @@
       <c r="K433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
@@ -11085,7 +11447,11 @@
       <c r="K460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr"/>
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr">
         <is>
@@ -11120,8 +11486,18 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
-      <c r="B462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B462" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 2357.50
+Borrower Amount: 2357.50</t>
+        </is>
+      </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr"/>
       <c r="E462" s="4" t="inlineStr">
@@ -11137,7 +11513,11 @@
       <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
@@ -11231,7 +11611,11 @@
       <c r="K466" t="inlineStr"/>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr">
         <is>
@@ -11266,8 +11650,18 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
-      <c r="B468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B468" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150235/25
+Lender Amount: 213500.00
+Borrower Amount: 213500.00</t>
+        </is>
+      </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr"/>
       <c r="E468" s="4" t="inlineStr">
@@ -11283,7 +11677,11 @@
       <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
@@ -11306,7 +11704,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -11345,7 +11743,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
@@ -11372,7 +11770,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M021</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -11395,7 +11793,11 @@
       <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
@@ -11430,7 +11832,11 @@
       <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr"/>
@@ -11449,7 +11855,11 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr"/>
@@ -11468,8 +11878,18 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
-      <c r="B476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B476" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-187724010122/24
+Lender Amount: 276518.90
+Borrower Amount: 276518.90</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr"/>
       <c r="E476" s="4" t="inlineStr">
@@ -11485,7 +11905,11 @@
       <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
@@ -12236,7 +12660,11 @@
       <c r="K507" t="inlineStr"/>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr"/>
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr"/>
       <c r="C508" t="inlineStr">
         <is>
@@ -12271,8 +12699,18 @@
       <c r="K508" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
-      <c r="B509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B509" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 54431.58
+Borrower Amount: 54431.58</t>
+        </is>
+      </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr"/>
       <c r="E509" s="4" t="inlineStr">
@@ -12288,7 +12726,11 @@
       <c r="K509" t="inlineStr"/>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr">
@@ -12528,7 +12970,11 @@
       <c r="K519" t="inlineStr"/>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr"/>
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr">
         <is>
@@ -12563,8 +13009,18 @@
       <c r="K520" t="inlineStr"/>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
-      <c r="B521" t="inlineStr"/>
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B521" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524027065/24
+Lender Amount: 8231.99
+Borrower Amount: 8231.99</t>
+        </is>
+      </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr"/>
       <c r="E521" s="4" t="inlineStr">
@@ -12580,7 +13036,11 @@
       <c r="K521" t="inlineStr"/>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
@@ -13638,7 +14098,11 @@
       <c r="K569" t="inlineStr"/>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr"/>
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
@@ -13673,8 +14137,18 @@
       <c r="K570" t="inlineStr"/>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
-      <c r="B571" t="inlineStr"/>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B571" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020708/24
+Lender Amount: 19399.10
+Borrower Amount: 19399.10</t>
+        </is>
+      </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr"/>
       <c r="E571" s="4" t="inlineStr">
@@ -13690,7 +14164,11 @@
       <c r="K571" t="inlineStr"/>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
@@ -13713,7 +14191,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -13752,7 +14230,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B574" s="4" t="inlineStr">
@@ -13779,7 +14257,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -13951,7 +14429,11 @@
       <c r="K582" t="inlineStr"/>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr"/>
       <c r="C583" t="inlineStr">
         <is>
@@ -13986,7 +14468,11 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr"/>
       <c r="C584" t="inlineStr"/>
       <c r="D584" t="inlineStr"/>
@@ -14005,7 +14491,11 @@
       <c r="K584" t="inlineStr"/>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr"/>
       <c r="D585" t="inlineStr"/>
@@ -14024,8 +14514,18 @@
       <c r="K585" t="inlineStr"/>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr"/>
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B586" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 6125933.94
+Borrower Amount: 6125933.94</t>
+        </is>
+      </c>
       <c r="C586" t="inlineStr"/>
       <c r="D586" t="inlineStr"/>
       <c r="E586" s="4" t="inlineStr">
@@ -14041,7 +14541,11 @@
       <c r="K586" t="inlineStr"/>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr"/>
       <c r="C587" t="inlineStr"/>
       <c r="D587" t="inlineStr">
@@ -14062,7 +14566,11 @@
       <c r="K587" t="inlineStr"/>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr"/>
       <c r="C588" t="inlineStr">
         <is>
@@ -14097,8 +14605,18 @@
       <c r="K588" t="inlineStr"/>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
-      <c r="B589" t="inlineStr"/>
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B589" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 12425.77
+Borrower Amount: 12425.77</t>
+        </is>
+      </c>
       <c r="C589" t="inlineStr"/>
       <c r="D589" t="inlineStr"/>
       <c r="E589" s="4" t="inlineStr">
@@ -14114,7 +14632,11 @@
       <c r="K589" t="inlineStr"/>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr"/>
       <c r="C590" t="inlineStr"/>
       <c r="D590" t="inlineStr">
@@ -14135,7 +14657,11 @@
       <c r="K590" t="inlineStr"/>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr"/>
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
@@ -14170,8 +14696,18 @@
       <c r="K591" t="inlineStr"/>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
-      <c r="B592" t="inlineStr"/>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B592" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524022495/24
+Lender Amount: 23580.68
+Borrower Amount: 23580.68</t>
+        </is>
+      </c>
       <c r="C592" t="inlineStr"/>
       <c r="D592" t="inlineStr"/>
       <c r="E592" s="4" t="inlineStr">
@@ -14187,7 +14723,11 @@
       <c r="K592" t="inlineStr"/>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr"/>
       <c r="C593" t="inlineStr"/>
       <c r="D593" t="inlineStr">
@@ -15194,7 +15734,11 @@
       <c r="K639" t="inlineStr"/>
     </row>
     <row r="640">
-      <c r="A640" t="inlineStr"/>
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr"/>
       <c r="C640" t="inlineStr">
         <is>
@@ -15229,8 +15773,18 @@
       <c r="K640" t="inlineStr"/>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
-      <c r="B641" t="inlineStr"/>
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B641" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021741/25
+Lender Amount: 22671.95
+Borrower Amount: 22671.95</t>
+        </is>
+      </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr"/>
       <c r="E641" s="4" t="inlineStr">
@@ -15246,7 +15800,11 @@
       <c r="K641" t="inlineStr"/>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
@@ -15267,7 +15825,11 @@
       <c r="K642" t="inlineStr"/>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr"/>
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr">
         <is>
@@ -15302,8 +15864,18 @@
       <c r="K643" t="inlineStr"/>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr"/>
-      <c r="B644" t="inlineStr"/>
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B644" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308525021745/25
+Lender Amount: 28854.86
+Borrower Amount: 28854.86</t>
+        </is>
+      </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr"/>
       <c r="E644" s="4" t="inlineStr">
@@ -15319,7 +15891,11 @@
       <c r="K644" t="inlineStr"/>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr"/>
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
@@ -15340,7 +15916,11 @@
       <c r="K645" t="inlineStr"/>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr"/>
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr"/>
       <c r="C646" t="inlineStr">
         <is>
@@ -15375,8 +15955,18 @@
       <c r="K646" t="inlineStr"/>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr"/>
-      <c r="B647" t="inlineStr"/>
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B647" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" s="4" t="inlineStr">
@@ -15392,7 +15982,11 @@
       <c r="K647" t="inlineStr"/>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr"/>
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr"/>
       <c r="D648" t="inlineStr">
@@ -15926,7 +16520,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B670" t="inlineStr"/>
@@ -15965,7 +16559,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B671" s="4" t="inlineStr">
@@ -15992,7 +16586,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>M033</t>
         </is>
       </c>
       <c r="B672" t="inlineStr"/>
@@ -16015,7 +16609,11 @@
       <c r="K672" t="inlineStr"/>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr"/>
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr"/>
       <c r="C673" t="inlineStr">
         <is>
@@ -16050,7 +16648,11 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr"/>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr"/>
@@ -16069,7 +16671,11 @@
       <c r="K674" t="inlineStr"/>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr"/>
@@ -16088,8 +16694,18 @@
       <c r="K675" t="inlineStr"/>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
-      <c r="B676" t="inlineStr"/>
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B676" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 6777058.20
+Borrower Amount: 6777058.20</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
       <c r="D676" t="inlineStr"/>
       <c r="E676" s="4" t="inlineStr">
@@ -16105,7 +16721,11 @@
       <c r="K676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr"/>
       <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
@@ -16199,7 +16819,11 @@
       <c r="K680" t="inlineStr"/>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr"/>
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr"/>
       <c r="C681" t="inlineStr">
         <is>
@@ -16234,7 +16858,11 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr"/>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr"/>
@@ -16253,7 +16881,11 @@
       <c r="K682" t="inlineStr"/>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr"/>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr"/>
@@ -16272,8 +16904,18 @@
       <c r="K683" t="inlineStr"/>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr"/>
-      <c r="B684" t="inlineStr"/>
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B684" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-155823010186/23
+Lender Amount: 76000.00
+Borrower Amount: 76000.00</t>
+        </is>
+      </c>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr"/>
       <c r="E684" s="4" t="inlineStr">
@@ -16289,7 +16931,11 @@
       <c r="K684" t="inlineStr"/>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr"/>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
@@ -16529,7 +17175,11 @@
       <c r="K694" t="inlineStr"/>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr"/>
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr"/>
       <c r="C695" t="inlineStr">
         <is>
@@ -16564,8 +17214,18 @@
       <c r="K695" t="inlineStr"/>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr"/>
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B696" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524026037/222824023549
+Lender Amount: 1226351.09
+Borrower Amount: 1226351.09</t>
+        </is>
+      </c>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" s="4" t="inlineStr">
@@ -16581,7 +17241,11 @@
       <c r="K696" t="inlineStr"/>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr"/>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
@@ -16675,7 +17339,11 @@
       <c r="K700" t="inlineStr"/>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr"/>
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr"/>
       <c r="C701" t="inlineStr">
         <is>
@@ -16710,8 +17378,18 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr"/>
-      <c r="B702" t="inlineStr"/>
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B702" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022495/24
+Lender Amount: 1675000.00
+Borrower Amount: 1675000.00</t>
+        </is>
+      </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr"/>
       <c r="E702" s="4" t="inlineStr">
@@ -16727,7 +17405,11 @@
       <c r="K702" t="inlineStr"/>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
       <c r="B703" t="inlineStr"/>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
@@ -16894,7 +17576,11 @@
       <c r="K709" t="inlineStr"/>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr"/>
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr"/>
       <c r="C710" t="inlineStr">
         <is>
@@ -16929,8 +17615,18 @@
       <c r="K710" t="inlineStr"/>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
-      <c r="B711" t="inlineStr"/>
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B711" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020027/25
+Lender Amount: 10691988.92
+Borrower Amount: 10691988.92</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
       <c r="D711" t="inlineStr"/>
       <c r="E711" s="4" t="inlineStr">
@@ -16946,7 +17642,11 @@
       <c r="K711" t="inlineStr"/>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr"/>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
@@ -16967,7 +17667,11 @@
       <c r="K712" t="inlineStr"/>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr"/>
       <c r="C713" t="inlineStr">
         <is>
@@ -17002,8 +17706,18 @@
       <c r="K713" t="inlineStr"/>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
-      <c r="B714" t="inlineStr"/>
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B714" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-222825150151/25
+Lender Amount: 333706.76
+Borrower Amount: 333706.76</t>
+        </is>
+      </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr"/>
       <c r="E714" s="4" t="inlineStr">
@@ -17019,7 +17733,11 @@
       <c r="K714" t="inlineStr"/>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr"/>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
@@ -17040,7 +17758,11 @@
       <c r="K715" t="inlineStr"/>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr"/>
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr"/>
       <c r="C716" t="inlineStr">
         <is>
@@ -17075,8 +17797,18 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr"/>
-      <c r="B717" t="inlineStr"/>
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B717" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020063/25
+Lender Amount: 299000.00
+Borrower Amount: 299000.00</t>
+        </is>
+      </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr"/>
       <c r="E717" s="4" t="inlineStr">
@@ -17092,7 +17824,11 @@
       <c r="K717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr"/>
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr"/>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
@@ -17186,7 +17922,11 @@
       <c r="K721" t="inlineStr"/>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr"/>
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr"/>
       <c r="C722" t="inlineStr">
         <is>
@@ -17221,8 +17961,18 @@
       <c r="K722" t="inlineStr"/>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr"/>
-      <c r="B723" t="inlineStr"/>
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B723" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 13743.52
+Borrower Amount: 13743.52</t>
+        </is>
+      </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr"/>
       <c r="E723" s="4" t="inlineStr">
@@ -17238,7 +17988,11 @@
       <c r="K723" t="inlineStr"/>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr"/>
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr"/>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
@@ -17500,7 +18254,11 @@
       <c r="K735" t="inlineStr"/>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr"/>
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr"/>
       <c r="C736" t="inlineStr">
         <is>
@@ -17535,8 +18293,18 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr"/>
-      <c r="B737" t="inlineStr"/>
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B737" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825020020/25
+Lender Amount: 60302.55
+Borrower Amount: 60302.55</t>
+        </is>
+      </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr"/>
       <c r="E737" s="4" t="inlineStr">
@@ -17552,7 +18320,11 @@
       <c r="K737" t="inlineStr"/>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr"/>
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
@@ -17573,7 +18345,11 @@
       <c r="K738" t="inlineStr"/>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr"/>
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr"/>
       <c r="C739" t="inlineStr">
         <is>
@@ -17608,8 +18384,18 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr"/>
-      <c r="B740" t="inlineStr"/>
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B740" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 124008.78
+Borrower Amount: 124008.78</t>
+        </is>
+      </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr"/>
       <c r="E740" s="4" t="inlineStr">
@@ -17625,7 +18411,11 @@
       <c r="K740" t="inlineStr"/>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr"/>
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
@@ -17646,7 +18436,11 @@
       <c r="K741" t="inlineStr"/>
     </row>
     <row r="742">
-      <c r="A742" t="inlineStr"/>
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr"/>
       <c r="C742" t="inlineStr">
         <is>
@@ -17681,8 +18475,18 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr"/>
-      <c r="B743" t="inlineStr"/>
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B743" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 31609.80
+Borrower Amount: 31609.80</t>
+        </is>
+      </c>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" s="4" t="inlineStr">
@@ -17698,7 +18502,11 @@
       <c r="K743" t="inlineStr"/>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr"/>
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
@@ -18122,7 +18930,11 @@
       <c r="K761" t="inlineStr"/>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
@@ -18157,8 +18969,18 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr"/>
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B763" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020104/25
+Lender Amount: 10424886.36
+Borrower Amount: 10424886.36</t>
+        </is>
+      </c>
       <c r="C763" t="inlineStr"/>
       <c r="D763" t="inlineStr"/>
       <c r="E763" s="4" t="inlineStr">
@@ -18174,7 +18996,11 @@
       <c r="K763" t="inlineStr"/>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr"/>
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr"/>
       <c r="D764" t="inlineStr">
@@ -18195,7 +19021,11 @@
       <c r="K764" t="inlineStr"/>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr"/>
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
@@ -18230,8 +19060,18 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr"/>
-      <c r="B766" t="inlineStr"/>
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B766" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020063/25
+Lender Amount: 2168751.40
+Borrower Amount: 2168751.40</t>
+        </is>
+      </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr"/>
       <c r="E766" s="4" t="inlineStr">
@@ -18247,7 +19087,11 @@
       <c r="K766" t="inlineStr"/>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr"/>
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
@@ -18341,7 +19185,11 @@
       <c r="K770" t="inlineStr"/>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr"/>
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
@@ -18376,8 +19224,18 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr"/>
-      <c r="B772" t="inlineStr"/>
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B772" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-141325020068/25
+Lender Amount: 63787.54
+Borrower Amount: 63787.54</t>
+        </is>
+      </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr"/>
       <c r="E772" s="4" t="inlineStr">
@@ -18393,7 +19251,11 @@
       <c r="K772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr"/>
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
@@ -21797,7 +22659,11 @@
       <c r="K919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" t="inlineStr"/>
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
       <c r="B920" t="inlineStr"/>
       <c r="C920" t="inlineStr">
         <is>
@@ -21832,8 +22698,18 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr"/>
-      <c r="B921" t="inlineStr"/>
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B921" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020104/25
+Lender Amount: 111771.42
+Borrower Amount: 111771.42</t>
+        </is>
+      </c>
       <c r="C921" t="inlineStr"/>
       <c r="D921" t="inlineStr"/>
       <c r="E921" s="4" t="inlineStr">
@@ -21849,7 +22725,11 @@
       <c r="K921" t="inlineStr"/>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr"/>
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
       <c r="B922" t="inlineStr"/>
       <c r="C922" t="inlineStr"/>
       <c r="D922" t="inlineStr">
@@ -21870,7 +22750,11 @@
       <c r="K922" t="inlineStr"/>
     </row>
     <row r="923">
-      <c r="A923" t="inlineStr"/>
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
       <c r="B923" t="inlineStr"/>
       <c r="C923" t="inlineStr">
         <is>
@@ -21905,8 +22789,18 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
-      <c r="B924" t="inlineStr"/>
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B924" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 80701.76
+Borrower Amount: 80701.76</t>
+        </is>
+      </c>
       <c r="C924" t="inlineStr"/>
       <c r="D924" t="inlineStr"/>
       <c r="E924" s="4" t="inlineStr">
@@ -21922,7 +22816,11 @@
       <c r="K924" t="inlineStr"/>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
       <c r="B925" t="inlineStr"/>
       <c r="C925" t="inlineStr"/>
       <c r="D925" t="inlineStr">
@@ -21943,7 +22841,11 @@
       <c r="K925" t="inlineStr"/>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr"/>
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
       <c r="B926" t="inlineStr"/>
       <c r="C926" t="inlineStr">
         <is>
@@ -21978,8 +22880,18 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
-      <c r="B927" t="inlineStr"/>
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B927" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020112/25
+Lender Amount: 657.81
+Borrower Amount: 657.81</t>
+        </is>
+      </c>
       <c r="C927" t="inlineStr"/>
       <c r="D927" t="inlineStr"/>
       <c r="E927" s="4" t="inlineStr">
@@ -21995,7 +22907,11 @@
       <c r="K927" t="inlineStr"/>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr"/>
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
       <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr">
@@ -22308,7 +23224,11 @@
       <c r="K940" t="inlineStr"/>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr"/>
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
       <c r="B941" t="inlineStr"/>
       <c r="C941" t="inlineStr">
         <is>
@@ -22343,8 +23263,18 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr"/>
-      <c r="B942" t="inlineStr"/>
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B942" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/25
+Lender Amount: 81730.06
+Borrower Amount: 81730.06</t>
+        </is>
+      </c>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr"/>
       <c r="E942" s="4" t="inlineStr">
@@ -22360,7 +23290,11 @@
       <c r="K942" t="inlineStr"/>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr"/>
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
       <c r="B943" t="inlineStr"/>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
@@ -22748,7 +23682,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -22787,7 +23721,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -22810,7 +23744,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -22833,7 +23767,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B962" s="4" t="inlineStr">
@@ -22860,7 +23794,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>M005</t>
+          <t>M052</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -23067,7 +24001,11 @@
       <c r="K971" t="inlineStr"/>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr"/>
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
       <c r="B972" t="inlineStr"/>
       <c r="C972" t="inlineStr">
         <is>
@@ -23102,8 +24040,18 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr"/>
-      <c r="B973" t="inlineStr"/>
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B973" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-222825150235/25
+Lender Amount: 36757.00
+Borrower Amount: 36757.00</t>
+        </is>
+      </c>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr"/>
       <c r="E973" s="4" t="inlineStr">
@@ -23119,7 +24067,11 @@
       <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr"/>
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
       <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr"/>
       <c r="D974" t="inlineStr">
@@ -23213,7 +24165,11 @@
       <c r="K977" t="inlineStr"/>
     </row>
     <row r="978">
-      <c r="A978" t="inlineStr"/>
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B978" t="inlineStr"/>
       <c r="C978" t="inlineStr">
         <is>
@@ -23248,7 +24204,11 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr"/>
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B979" t="inlineStr"/>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr"/>
@@ -23267,7 +24227,11 @@
       <c r="K979" t="inlineStr"/>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B980" t="inlineStr"/>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr"/>
@@ -23286,7 +24250,11 @@
       <c r="K980" t="inlineStr"/>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr"/>
@@ -23305,8 +24273,18 @@
       <c r="K981" t="inlineStr"/>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
-      <c r="B982" t="inlineStr"/>
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B982" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020068/25
+Lender Amount: 3587219.00
+Borrower Amount: 3587219.00</t>
+        </is>
+      </c>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr"/>
       <c r="E982" s="4" t="inlineStr">
@@ -23322,7 +24300,11 @@
       <c r="K982" t="inlineStr"/>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
       <c r="B983" t="inlineStr"/>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
@@ -23343,7 +24325,11 @@
       <c r="K983" t="inlineStr"/>
     </row>
     <row r="984">
-      <c r="A984" t="inlineStr"/>
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
       <c r="B984" t="inlineStr"/>
       <c r="C984" t="inlineStr">
         <is>
@@ -23378,8 +24364,18 @@
       <c r="K984" t="inlineStr"/>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
-      <c r="B985" t="inlineStr"/>
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B985" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524990243/24
+Lender Amount: 68747.06
+Borrower Amount: 68747.06</t>
+        </is>
+      </c>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr"/>
       <c r="E985" s="4" t="inlineStr">
@@ -23395,7 +24391,11 @@
       <c r="K985" t="inlineStr"/>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
       <c r="B986" t="inlineStr"/>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
@@ -23950,7 +24950,11 @@
       <c r="K1009" t="inlineStr"/>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr"/>
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
       <c r="B1010" t="inlineStr"/>
       <c r="C1010" t="inlineStr">
         <is>
@@ -23985,8 +24989,18 @@
       <c r="K1010" t="inlineStr"/>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr"/>
-      <c r="B1011" t="inlineStr"/>
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B1011" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021741/25
+Lender Amount: 31411.11
+Borrower Amount: 31411.11</t>
+        </is>
+      </c>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr"/>
       <c r="E1011" s="4" t="inlineStr">
@@ -24002,7 +25016,11 @@
       <c r="K1011" t="inlineStr"/>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr"/>
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
       <c r="B1012" t="inlineStr"/>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
@@ -24462,7 +25480,11 @@
       <c r="K1030" t="inlineStr"/>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr"/>
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
       <c r="B1031" t="inlineStr"/>
       <c r="C1031" t="inlineStr">
         <is>
@@ -24497,8 +25519,18 @@
       <c r="K1031" t="inlineStr"/>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
-      <c r="B1032" t="inlineStr"/>
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B1032" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-155825010037/25
+Lender Amount: 853297.01
+Borrower Amount: 853297.01</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr"/>
       <c r="D1032" t="inlineStr"/>
       <c r="E1032" s="4" t="inlineStr">
@@ -24514,7 +25546,11 @@
       <c r="K1032" t="inlineStr"/>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
       <c r="B1033" t="inlineStr"/>
       <c r="C1033" t="inlineStr"/>
       <c r="D1033" t="inlineStr">
@@ -26125,7 +27161,11 @@
       <c r="K1099" t="inlineStr"/>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr"/>
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
       <c r="B1100" t="inlineStr"/>
       <c r="C1100" t="inlineStr">
         <is>
@@ -26160,8 +27200,18 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr"/>
-      <c r="B1101" t="inlineStr"/>
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B1101" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020163/25
+Lender Amount: 1725.00
+Borrower Amount: 1725.00</t>
+        </is>
+      </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr"/>
       <c r="E1101" s="4" t="inlineStr">
@@ -26177,7 +27227,11 @@
       <c r="K1101" t="inlineStr"/>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr"/>
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
       <c r="B1102" t="inlineStr"/>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
@@ -26198,7 +27252,11 @@
       <c r="K1102" t="inlineStr"/>
     </row>
     <row r="1103">
-      <c r="A1103" t="inlineStr"/>
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
       <c r="B1103" t="inlineStr"/>
       <c r="C1103" t="inlineStr">
         <is>
@@ -26233,8 +27291,18 @@
       <c r="K1103" t="inlineStr"/>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr"/>
-      <c r="B1104" t="inlineStr"/>
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B1104" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308525021746/25
+Lender Amount: 35373.50
+Borrower Amount: 35373.50</t>
+        </is>
+      </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr"/>
       <c r="E1104" s="4" t="inlineStr">
@@ -26250,7 +27318,11 @@
       <c r="K1104" t="inlineStr"/>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr"/>
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
       <c r="B1105" t="inlineStr"/>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr">
@@ -26747,7 +27819,11 @@
       <c r="K1125" t="inlineStr"/>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1126" t="inlineStr"/>
       <c r="C1126" t="inlineStr">
         <is>
@@ -26782,7 +27858,11 @@
       <c r="K1126" t="inlineStr"/>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1127" t="inlineStr"/>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr"/>
@@ -26801,7 +27881,11 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr"/>
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr"/>
@@ -26820,7 +27904,11 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr"/>
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1129" t="inlineStr"/>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr"/>
@@ -26839,7 +27927,11 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr"/>
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1130" t="inlineStr"/>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr"/>
@@ -26858,8 +27950,18 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr"/>
-      <c r="B1131" t="inlineStr"/>
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B1131" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-141325020063/141325020112
+Lender Amount: 576120.39
+Borrower Amount: 576120.39</t>
+        </is>
+      </c>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr"/>
       <c r="E1131" s="4" t="inlineStr">
@@ -26875,7 +27977,11 @@
       <c r="K1131" t="inlineStr"/>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr"/>
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
       <c r="B1132" t="inlineStr"/>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
@@ -26896,7 +28002,11 @@
       <c r="K1132" t="inlineStr"/>
     </row>
     <row r="1133">
-      <c r="A1133" t="inlineStr"/>
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
       <c r="B1133" t="inlineStr"/>
       <c r="C1133" t="inlineStr">
         <is>
@@ -26931,8 +28041,18 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr"/>
-      <c r="B1134" t="inlineStr"/>
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B1134" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 758000.00
+Borrower Amount: 758000.00</t>
+        </is>
+      </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr"/>
       <c r="E1134" s="4" t="inlineStr">
@@ -26948,7 +28068,11 @@
       <c r="K1134" t="inlineStr"/>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr"/>
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
       <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
@@ -27553,7 +28677,11 @@
       <c r="K1159" t="inlineStr"/>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr"/>
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
       <c r="B1160" t="inlineStr"/>
       <c r="C1160" t="inlineStr">
         <is>
@@ -27588,8 +28716,18 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr"/>
-      <c r="B1161" t="inlineStr"/>
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
+      <c r="B1161" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: LC-308524022166 
+Lender Amount: 4009000.00
+Borrower Amount: 4009000.00</t>
+        </is>
+      </c>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr"/>
       <c r="E1161" s="4" t="inlineStr">
@@ -27605,7 +28743,11 @@
       <c r="K1161" t="inlineStr"/>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr"/>
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>M062</t>
+        </is>
+      </c>
       <c r="B1162" t="inlineStr"/>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
@@ -27772,7 +28914,11 @@
       <c r="K1168" t="inlineStr"/>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr"/>
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
       <c r="B1169" t="inlineStr"/>
       <c r="C1169" t="inlineStr">
         <is>
@@ -27807,8 +28953,18 @@
       <c r="K1169" t="inlineStr"/>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr"/>
-      <c r="B1170" t="inlineStr"/>
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
+      <c r="B1170" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-308524026037/24
+Lender Amount: 14417.98
+Borrower Amount: 14417.98</t>
+        </is>
+      </c>
       <c r="C1170" t="inlineStr"/>
       <c r="D1170" t="inlineStr"/>
       <c r="E1170" s="4" t="inlineStr">
@@ -27824,7 +28980,11 @@
       <c r="K1170" t="inlineStr"/>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr"/>
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>M063</t>
+        </is>
+      </c>
       <c r="B1171" t="inlineStr"/>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
@@ -28429,7 +29589,11 @@
       <c r="K1195" t="inlineStr"/>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr"/>
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
       <c r="B1196" t="inlineStr"/>
       <c r="C1196" t="inlineStr">
         <is>
@@ -28464,8 +29628,18 @@
       <c r="K1196" t="inlineStr"/>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr"/>
-      <c r="B1197" t="inlineStr"/>
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B1197" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147125020202/25
+Lender Amount: 3499168.01
+Borrower Amount: 3499168.01</t>
+        </is>
+      </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr"/>
       <c r="E1197" s="4" t="inlineStr">
@@ -28481,7 +29655,11 @@
       <c r="K1197" t="inlineStr"/>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr"/>
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
       <c r="B1198" t="inlineStr"/>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
@@ -28930,7 +30108,11 @@
       <c r="K1218" t="inlineStr"/>
     </row>
     <row r="1219">
-      <c r="A1219" t="inlineStr"/>
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
       <c r="B1219" t="inlineStr"/>
       <c r="C1219" t="inlineStr">
         <is>
@@ -28965,8 +30147,18 @@
       <c r="K1219" t="inlineStr"/>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr"/>
-      <c r="B1220" t="inlineStr"/>
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B1220" s="4" t="inlineStr">
+        <is>
+          <t>LC Match: L/C-147124020074/24
+Lender Amount: 6242871.55
+Borrower Amount: 6242871.55</t>
+        </is>
+      </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr"/>
       <c r="E1220" s="4" t="inlineStr">
@@ -28982,7 +30174,11 @@
       <c r="K1220" t="inlineStr"/>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr"/>
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
       <c r="B1221" t="inlineStr"/>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1316,7 +1316,11 @@
       <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
@@ -1351,8 +1355,18 @@
       <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: FOB/PO/2023/8/5023
+Lender Amount: 95200.00
+Borrower Amount: 95200.00</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
@@ -1369,7 +1383,11 @@
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
@@ -4178,7 +4196,11 @@
       <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
@@ -4213,8 +4235,18 @@
       <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr"/>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: FOB/PO/2023/8/5000
+Lender Amount: 289000.00
+Borrower Amount: 289000.00</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" s="4" t="inlineStr">
@@ -4230,7 +4262,11 @@
       <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
@@ -8425,7 +8461,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -8464,7 +8500,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B338" s="4" t="inlineStr">
@@ -8491,7 +8527,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>M010</t>
+          <t>M018</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -8516,7 +8552,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -8555,7 +8591,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B341" s="4" t="inlineStr">
@@ -8582,7 +8618,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>M011</t>
+          <t>M010</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -8607,7 +8643,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -8646,7 +8682,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B344" s="4" t="inlineStr">
@@ -8673,7 +8709,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>M012</t>
+          <t>M011</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -8698,7 +8734,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -8737,7 +8773,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B347" s="4" t="inlineStr">
@@ -8764,7 +8800,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>M013</t>
+          <t>M016</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -9082,7 +9118,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -9121,7 +9157,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B362" s="4" t="inlineStr">
@@ -9148,7 +9184,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>M014</t>
+          <t>M012</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -9173,7 +9209,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -9212,7 +9248,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B365" s="4" t="inlineStr">
@@ -9239,7 +9275,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>M015</t>
+          <t>M013</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -9264,7 +9300,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -9303,7 +9339,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B368" s="4" t="inlineStr">
@@ -9330,7 +9366,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>M016</t>
+          <t>M014</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -9500,7 +9536,11 @@
       <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr">
         <is>
@@ -9535,8 +9575,18 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr"/>
-      <c r="B377" t="inlineStr"/>
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B377" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: GEO/PO/2023/3/12915
+Lender Amount: 400000.00
+Borrower Amount: 400000.00</t>
+        </is>
+      </c>
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr"/>
       <c r="E377" s="4" t="inlineStr">
@@ -9552,7 +9602,11 @@
       <c r="K377" t="inlineStr"/>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr"/>
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
@@ -10736,7 +10790,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -10775,7 +10829,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B433" s="4" t="inlineStr">
@@ -10802,7 +10856,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>M018</t>
+          <t>M015</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -11374,7 +11428,11 @@
       <c r="K457" t="inlineStr"/>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr"/>
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr">
         <is>
@@ -11409,8 +11467,18 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr"/>
-      <c r="B459" t="inlineStr"/>
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B459" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2024/9/29742
+Lender Amount: 124670.00
+Borrower Amount: 124670.00</t>
+        </is>
+      </c>
       <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr"/>
       <c r="E459" s="4" t="inlineStr">
@@ -11426,7 +11494,11 @@
       <c r="K459" t="inlineStr"/>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr"/>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
@@ -15515,7 +15587,11 @@
       <c r="K630" t="inlineStr"/>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr"/>
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr"/>
       <c r="C631" t="inlineStr">
         <is>
@@ -15550,8 +15626,18 @@
       <c r="K631" t="inlineStr"/>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
-      <c r="B632" t="inlineStr"/>
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B632" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: CHA/PO/2023/12/20766
+Lender Amount: 2000000.00
+Borrower Amount: 2000000.00</t>
+        </is>
+      </c>
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr"/>
       <c r="E632" s="4" t="inlineStr">
@@ -15567,7 +15653,11 @@
       <c r="K632" t="inlineStr"/>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr"/>
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
@@ -20117,7 +20207,11 @@
       <c r="K813" t="inlineStr"/>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr"/>
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B814" t="inlineStr"/>
       <c r="C814" t="inlineStr">
         <is>
@@ -20152,8 +20246,18 @@
       <c r="K814" t="inlineStr"/>
     </row>
     <row r="815">
-      <c r="A815" t="inlineStr"/>
-      <c r="B815" t="inlineStr"/>
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B815" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: BPD/PO/2025/3/32659
+Lender Amount: 768000.00
+Borrower Amount: 768000.00</t>
+        </is>
+      </c>
       <c r="C815" t="inlineStr"/>
       <c r="D815" t="inlineStr"/>
       <c r="E815" s="4" t="inlineStr">
@@ -20169,7 +20273,11 @@
       <c r="K815" t="inlineStr"/>
     </row>
     <row r="816">
-      <c r="A816" t="inlineStr"/>
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="inlineStr"/>
       <c r="D816" t="inlineStr">
@@ -20409,7 +20517,11 @@
       <c r="K825" t="inlineStr"/>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr"/>
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B826" t="inlineStr"/>
       <c r="C826" t="inlineStr">
         <is>
@@ -20444,7 +20556,11 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" t="inlineStr"/>
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B827" t="inlineStr"/>
       <c r="C827" t="inlineStr"/>
       <c r="D827" t="inlineStr"/>
@@ -20463,7 +20579,11 @@
       <c r="K827" t="inlineStr"/>
     </row>
     <row r="828">
-      <c r="A828" t="inlineStr"/>
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B828" t="inlineStr"/>
       <c r="C828" t="inlineStr"/>
       <c r="D828" t="inlineStr"/>
@@ -20482,8 +20602,18 @@
       <c r="K828" t="inlineStr"/>
     </row>
     <row r="829">
-      <c r="A829" t="inlineStr"/>
-      <c r="B829" t="inlineStr"/>
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B829" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2023/10/18781
+Lender Amount: 13920.00
+Borrower Amount: 13920.00</t>
+        </is>
+      </c>
       <c r="C829" t="inlineStr"/>
       <c r="D829" t="inlineStr"/>
       <c r="E829" s="4" t="inlineStr">
@@ -20499,7 +20629,11 @@
       <c r="K829" t="inlineStr"/>
     </row>
     <row r="830">
-      <c r="A830" t="inlineStr"/>
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
       <c r="B830" t="inlineStr"/>
       <c r="C830" t="inlineStr"/>
       <c r="D830" t="inlineStr">
@@ -25187,7 +25321,11 @@
       <c r="K1018" t="inlineStr"/>
     </row>
     <row r="1019">
-      <c r="A1019" t="inlineStr"/>
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B1019" t="inlineStr"/>
       <c r="C1019" t="inlineStr">
         <is>
@@ -25222,8 +25360,18 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" t="inlineStr"/>
-      <c r="B1020" t="inlineStr"/>
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
+      <c r="B1020" s="4" t="inlineStr">
+        <is>
+          <t>PO Match: OPE/PO/2024/10/29964
+Lender Amount: 24800.00
+Borrower Amount: 24800.00</t>
+        </is>
+      </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr"/>
       <c r="E1020" s="4" t="inlineStr">
@@ -25240,7 +25388,11 @@
       <c r="K1020" t="inlineStr"/>
     </row>
     <row r="1021">
-      <c r="A1021" t="inlineStr"/>
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>M008</t>
+        </is>
+      </c>
       <c r="B1021" t="inlineStr"/>
       <c r="C1021" t="inlineStr"/>
       <c r="D1021" t="inlineStr">

--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$9:$L$9</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -32186,6 +32188,7 @@
       <c r="L1233" s="1" t="inlineStr"/>
     </row>
   </sheetData>
+  <autoFilter ref="A9:L9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Output/Interunit GeoTex_MATCHED.xlsx
+++ b/Output/Interunit GeoTex_MATCHED.xlsx
@@ -1983,7 +1983,11 @@
       <c r="L64" s="1" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr"/>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
       <c r="B65" s="2" t="inlineStr"/>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -2019,8 +2023,18 @@
       <c r="L65" s="1" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr"/>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#11502 ↔ PBL#10855
+Lender Amount: 104470400.00
+Borrower Amount: 104470400.00</t>
+        </is>
+      </c>
       <c r="C66" s="1" t="inlineStr"/>
       <c r="D66" s="1" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr">
@@ -2034,10 +2048,18 @@
       <c r="I66" s="1" t="inlineStr"/>
       <c r="J66" s="1" t="inlineStr"/>
       <c r="K66" s="1" t="inlineStr"/>
-      <c r="L66" s="1" t="inlineStr"/>
+      <c r="L66" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr"/>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>M074</t>
+        </is>
+      </c>
       <c r="B67" s="2" t="inlineStr"/>
       <c r="C67" s="1" t="inlineStr"/>
       <c r="D67" s="1" t="inlineStr">
@@ -8035,7 +8057,11 @@
       <c r="L302" s="1" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="inlineStr"/>
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B303" s="2" t="inlineStr"/>
       <c r="C303" s="1" t="inlineStr">
         <is>
@@ -8071,7 +8097,11 @@
       <c r="L303" s="1" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="inlineStr"/>
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B304" s="2" t="inlineStr"/>
       <c r="C304" s="1" t="inlineStr"/>
       <c r="D304" s="1" t="inlineStr"/>
@@ -8091,7 +8121,11 @@
       <c r="L304" s="1" t="inlineStr"/>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="inlineStr"/>
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B305" s="2" t="inlineStr"/>
       <c r="C305" s="1" t="inlineStr"/>
       <c r="D305" s="1" t="inlineStr"/>
@@ -8111,8 +8145,18 @@
       <c r="L305" s="1" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="inlineStr"/>
-      <c r="B306" s="2" t="inlineStr"/>
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 52816886.08
+Borrower Amount: 52816886.08</t>
+        </is>
+      </c>
       <c r="C306" s="1" t="inlineStr"/>
       <c r="D306" s="1" t="inlineStr"/>
       <c r="E306" s="2" t="inlineStr">
@@ -8126,10 +8170,18 @@
       <c r="I306" s="1" t="inlineStr"/>
       <c r="J306" s="1" t="inlineStr"/>
       <c r="K306" s="1" t="inlineStr"/>
-      <c r="L306" s="1" t="inlineStr"/>
+      <c r="L306" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="inlineStr"/>
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>M075</t>
+        </is>
+      </c>
       <c r="B307" s="2" t="inlineStr"/>
       <c r="C307" s="1" t="inlineStr"/>
       <c r="D307" s="1" t="inlineStr">
@@ -17705,7 +17757,11 @@
       <c r="L677" s="1" t="inlineStr"/>
     </row>
     <row r="678">
-      <c r="A678" s="1" t="inlineStr"/>
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
       <c r="B678" s="2" t="inlineStr"/>
       <c r="C678" s="1" t="inlineStr">
         <is>
@@ -17741,8 +17797,18 @@
       <c r="L678" s="1" t="inlineStr"/>
     </row>
     <row r="679">
-      <c r="A679" s="1" t="inlineStr"/>
-      <c r="B679" s="2" t="inlineStr"/>
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
+      <c r="B679" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3265
+Lender Amount: 236808.62
+Borrower Amount: 236808.62</t>
+        </is>
+      </c>
       <c r="C679" s="1" t="inlineStr"/>
       <c r="D679" s="1" t="inlineStr"/>
       <c r="E679" s="2" t="inlineStr">
@@ -17756,10 +17822,18 @@
       <c r="I679" s="1" t="inlineStr"/>
       <c r="J679" s="1" t="inlineStr"/>
       <c r="K679" s="1" t="inlineStr"/>
-      <c r="L679" s="1" t="inlineStr"/>
+      <c r="L679" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="680">
-      <c r="A680" s="1" t="inlineStr"/>
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>M076</t>
+        </is>
+      </c>
       <c r="B680" s="2" t="inlineStr"/>
       <c r="C680" s="1" t="inlineStr"/>
       <c r="D680" s="1" t="inlineStr">
@@ -23052,7 +23126,11 @@
       <c r="L883" s="1" t="inlineStr"/>
     </row>
     <row r="884">
-      <c r="A884" s="1" t="inlineStr"/>
+      <c r="A884" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
       <c r="B884" s="2" t="inlineStr"/>
       <c r="C884" s="1" t="inlineStr">
         <is>
@@ -23088,8 +23166,18 @@
       <c r="L884" s="1" t="inlineStr"/>
     </row>
     <row r="885">
-      <c r="A885" s="1" t="inlineStr"/>
-      <c r="B885" s="2" t="inlineStr"/>
+      <c r="A885" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
+      <c r="B885" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 618489.91
+Borrower Amount: 618489.91</t>
+        </is>
+      </c>
       <c r="C885" s="1" t="inlineStr"/>
       <c r="D885" s="1" t="inlineStr"/>
       <c r="E885" s="2" t="inlineStr">
@@ -23103,10 +23191,18 @@
       <c r="I885" s="1" t="inlineStr"/>
       <c r="J885" s="1" t="inlineStr"/>
       <c r="K885" s="1" t="inlineStr"/>
-      <c r="L885" s="1" t="inlineStr"/>
+      <c r="L885" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="886">
-      <c r="A886" s="1" t="inlineStr"/>
+      <c r="A886" s="1" t="inlineStr">
+        <is>
+          <t>M077</t>
+        </is>
+      </c>
       <c r="B886" s="2" t="inlineStr"/>
       <c r="C886" s="1" t="inlineStr"/>
       <c r="D886" s="1" t="inlineStr">
@@ -23432,7 +23528,11 @@
       <c r="L898" s="1" t="inlineStr"/>
     </row>
     <row r="899">
-      <c r="A899" s="1" t="inlineStr"/>
+      <c r="A899" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
       <c r="B899" s="2" t="inlineStr"/>
       <c r="C899" s="1" t="inlineStr">
         <is>
@@ -23468,8 +23568,18 @@
       <c r="L899" s="1" t="inlineStr"/>
     </row>
     <row r="900">
-      <c r="A900" s="1" t="inlineStr"/>
-      <c r="B900" s="2" t="inlineStr"/>
+      <c r="A900" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
+      <c r="B900" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3129
+Lender Amount: 90000.00
+Borrower Amount: 90000.00</t>
+        </is>
+      </c>
       <c r="C900" s="1" t="inlineStr"/>
       <c r="D900" s="1" t="inlineStr"/>
       <c r="E900" s="2" t="inlineStr">
@@ -23483,10 +23593,18 @@
       <c r="I900" s="1" t="inlineStr"/>
       <c r="J900" s="1" t="inlineStr"/>
       <c r="K900" s="1" t="inlineStr"/>
-      <c r="L900" s="1" t="inlineStr"/>
+      <c r="L900" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="901">
-      <c r="A901" s="1" t="inlineStr"/>
+      <c r="A901" s="1" t="inlineStr">
+        <is>
+          <t>M078</t>
+        </is>
+      </c>
       <c r="B901" s="2" t="inlineStr"/>
       <c r="C901" s="1" t="inlineStr"/>
       <c r="D901" s="1" t="inlineStr">
@@ -24258,7 +24376,11 @@
       <c r="L928" s="1" t="inlineStr"/>
     </row>
     <row r="929">
-      <c r="A929" s="1" t="inlineStr"/>
+      <c r="A929" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B929" s="2" t="inlineStr"/>
       <c r="C929" s="1" t="inlineStr">
         <is>
@@ -24294,8 +24416,18 @@
       <c r="L929" s="1" t="inlineStr"/>
     </row>
     <row r="930">
-      <c r="A930" s="1" t="inlineStr"/>
-      <c r="B930" s="2" t="inlineStr"/>
+      <c r="A930" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
+      <c r="B930" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: OBL#2451 ↔ MDB#0331
+Lender Amount: 500000.00
+Borrower Amount: 500000.00</t>
+        </is>
+      </c>
       <c r="C930" s="1" t="inlineStr"/>
       <c r="D930" s="1" t="inlineStr"/>
       <c r="E930" s="2" t="inlineStr">
@@ -24309,10 +24441,18 @@
       <c r="I930" s="1" t="inlineStr"/>
       <c r="J930" s="1" t="inlineStr"/>
       <c r="K930" s="1" t="inlineStr"/>
-      <c r="L930" s="1" t="inlineStr"/>
+      <c r="L930" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="931">
-      <c r="A931" s="1" t="inlineStr"/>
+      <c r="A931" s="1" t="inlineStr">
+        <is>
+          <t>M079</t>
+        </is>
+      </c>
       <c r="B931" s="2" t="inlineStr"/>
       <c r="C931" s="1" t="inlineStr"/>
       <c r="D931" s="1" t="inlineStr">
@@ -26726,7 +26866,11 @@
       <c r="L1021" s="1" t="inlineStr"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="1" t="inlineStr"/>
+      <c r="A1022" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
       <c r="B1022" s="2" t="inlineStr"/>
       <c r="C1022" s="1" t="inlineStr">
         <is>
@@ -26762,8 +26906,18 @@
       <c r="L1022" s="1" t="inlineStr"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="1" t="inlineStr"/>
-      <c r="B1023" s="2" t="inlineStr"/>
+      <c r="A1023" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
+      <c r="B1023" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#5503 ↔ EBL#3265
+Lender Amount: 2100000.00
+Borrower Amount: 2100000.00</t>
+        </is>
+      </c>
       <c r="C1023" s="1" t="inlineStr"/>
       <c r="D1023" s="1" t="inlineStr"/>
       <c r="E1023" s="2" t="inlineStr">
@@ -26777,10 +26931,18 @@
       <c r="I1023" s="1" t="inlineStr"/>
       <c r="J1023" s="1" t="inlineStr"/>
       <c r="K1023" s="1" t="inlineStr"/>
-      <c r="L1023" s="1" t="inlineStr"/>
+      <c r="L1023" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1024">
-      <c r="A1024" s="1" t="inlineStr"/>
+      <c r="A1024" s="1" t="inlineStr">
+        <is>
+          <t>M080</t>
+        </is>
+      </c>
       <c r="B1024" s="2" t="inlineStr"/>
       <c r="C1024" s="1" t="inlineStr"/>
       <c r="D1024" s="1" t="inlineStr">
@@ -27888,7 +28050,11 @@
       <c r="L1066" s="1" t="inlineStr"/>
     </row>
     <row r="1067">
-      <c r="A1067" s="1" t="inlineStr"/>
+      <c r="A1067" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
       <c r="B1067" s="2" t="inlineStr"/>
       <c r="C1067" s="1" t="inlineStr">
         <is>
@@ -27924,8 +28090,18 @@
       <c r="L1067" s="1" t="inlineStr"/>
     </row>
     <row r="1068">
-      <c r="A1068" s="1" t="inlineStr"/>
-      <c r="B1068" s="2" t="inlineStr"/>
+      <c r="A1068" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
+      <c r="B1068" s="2" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#11026 ↔ MDB#0331
+Lender Amount: 12000000.00
+Borrower Amount: 12000000.00</t>
+        </is>
+      </c>
       <c r="C1068" s="1" t="inlineStr"/>
       <c r="D1068" s="1" t="inlineStr"/>
       <c r="E1068" s="2" t="inlineStr">
@@ -27939,10 +28115,18 @@
       <c r="I1068" s="1" t="inlineStr"/>
       <c r="J1068" s="1" t="inlineStr"/>
       <c r="K1068" s="1" t="inlineStr"/>
-      <c r="L1068" s="1" t="inlineStr"/>
+      <c r="L1068" s="1" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="1069">
-      <c r="A1069" s="1" t="inlineStr"/>
+      <c r="A1069" s="1" t="inlineStr">
+        <is>
+          <t>M081</t>
+        </is>
+      </c>
       <c r="B1069" s="2" t="inlineStr"/>
       <c r="C1069" s="1" t="inlineStr"/>
       <c r="D1069" s="1" t="inlineStr">
